--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +121,6 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -701,7 +693,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -920,6 +912,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,7 +927,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1148,6 +1146,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>146000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>148000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>150000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1194,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1409,6 +1413,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,7 +1428,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1637,6 +1647,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>181238.94896035441</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>185158.85123809642</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>188840.93872565418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1679,7 +1695,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1898,6 +1914,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1907,7 +1929,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2126,6 +2148,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>35238.948960354406</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37158.851238096424</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>38840.938725654181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,11 +2175,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="431069440"/>
-        <c:axId val="431168512"/>
+        <c:axId val="511470208"/>
+        <c:axId val="511480192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="431069440"/>
+        <c:axId val="511470208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,14 +2219,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431168512"/>
+        <c:crossAx val="511480192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="431168512"/>
+        <c:axId val="511480192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,7 +2275,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431069440"/>
+        <c:crossAx val="511470208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2377,7 +2405,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2596,6 +2624,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2605,7 +2639,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2824,6 +2858,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>146000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>148000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>150000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2857,7 +2897,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3076,6 +3116,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3085,7 +3131,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3304,6 +3350,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>181238.94896035441</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>185158.85123809642</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>188840.93872565418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3337,7 +3389,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3556,6 +3608,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3565,7 +3623,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3784,6 +3842,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>35238.948960354406</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37158.851238096424</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>38840.938725654181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3805,11 +3869,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="457011200"/>
-        <c:axId val="457012736"/>
+        <c:axId val="511571456"/>
+        <c:axId val="511573376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="457011200"/>
+        <c:axId val="511571456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,14 +3883,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457012736"/>
+        <c:crossAx val="511573376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="457012736"/>
+        <c:axId val="511573376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,7 +3901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="457011200"/>
+        <c:crossAx val="511571456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3959,7 +4023,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4178,6 +4242,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4187,7 +4257,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4406,6 +4476,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>152000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>154000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>156000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4448,7 +4524,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4667,6 +4743,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4676,7 +4758,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4895,6 +4977,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>191198.66801863554</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>195224.07569361891</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>198997.6013598156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4937,7 +5025,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5156,6 +5244,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5165,7 +5259,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5384,6 +5478,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>39198.668018635537</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41224.075693618914</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42997.601359815599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5405,11 +5505,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="483282944"/>
-        <c:axId val="529148544"/>
+        <c:axId val="615593472"/>
+        <c:axId val="615595392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="483282944"/>
+        <c:axId val="615593472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5449,14 +5549,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529148544"/>
+        <c:crossAx val="615595392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="529148544"/>
+        <c:axId val="615595392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5505,7 +5605,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483282944"/>
+        <c:crossAx val="615593472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5635,7 +5735,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5854,6 +5954,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5863,7 +5969,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6082,6 +6188,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>152000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>154000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>156000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6115,7 +6227,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6334,6 +6446,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6343,7 +6461,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6562,6 +6680,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>191198.66801863554</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>195224.07569361891</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>198997.6013598156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6595,7 +6719,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6814,6 +6938,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6823,7 +6953,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7042,6 +7172,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>39198.668018635537</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>41224.075693618914</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42997.601359815599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7063,11 +7199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="558084480"/>
-        <c:axId val="558086400"/>
+        <c:axId val="537205760"/>
+        <c:axId val="537207552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="558084480"/>
+        <c:axId val="537205760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7077,14 +7213,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558086400"/>
+        <c:crossAx val="537207552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558086400"/>
+        <c:axId val="537207552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7095,7 +7231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="558084480"/>
+        <c:crossAx val="537205760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7217,7 +7353,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7436,6 +7572,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7445,7 +7587,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7664,6 +7806,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>151000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>153000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>155000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7706,7 +7854,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7925,6 +8073,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7934,7 +8088,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8153,6 +8307,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>189173.97962055329</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>193177.93934580238</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>196932.87675480539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8195,7 +8355,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8414,6 +8574,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8423,7 +8589,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8642,6 +8808,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>38173.979620553291</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40177.939345802384</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41932.876754805387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8663,11 +8835,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="652301440"/>
-        <c:axId val="652302976"/>
+        <c:axId val="537260032"/>
+        <c:axId val="537261568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="652301440"/>
+        <c:axId val="537260032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8707,14 +8879,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652302976"/>
+        <c:crossAx val="537261568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="652302976"/>
+        <c:axId val="537261568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8763,7 +8935,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652301440"/>
+        <c:crossAx val="537260032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8893,7 +9065,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9112,6 +9284,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9121,7 +9299,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9340,6 +9518,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>151000</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>153000</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>155000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9373,7 +9557,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9592,6 +9776,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9601,7 +9791,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9820,6 +10010,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>189173.97962055329</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>193177.93934580238</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>196932.87675480539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9853,7 +10049,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10072,6 +10268,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10081,7 +10283,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10300,6 +10502,12 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>38173.979620553291</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40177.939345802384</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41932.876754805387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10321,11 +10529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="652341632"/>
-        <c:axId val="652343552"/>
+        <c:axId val="537739648"/>
+        <c:axId val="537741184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="652341632"/>
+        <c:axId val="537739648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10335,14 +10543,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="652343552"/>
+        <c:crossAx val="537741184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="652343552"/>
+        <c:axId val="537741184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10353,7 +10561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="652341632"/>
+        <c:crossAx val="537739648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10395,7 +10603,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10433,7 +10641,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10474,7 +10682,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10512,7 +10720,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10555,7 +10763,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10593,7 +10801,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10871,7 +11079,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10880,7 +11088,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB75"/>
+  <dimension ref="A1:AB77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13558,6 +13766,64 @@
       </c>
       <c r="J75" s="3"/>
     </row>
+    <row r="76" spans="1:12" ht="12.75">
+      <c r="A76" s="13">
+        <v>45077</v>
+      </c>
+      <c r="B76" s="18">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C76" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D76" s="15">
+        <v>1397.6240447220607</v>
+      </c>
+      <c r="E76" s="15">
+        <v>129391.23129173934</v>
+      </c>
+      <c r="F76" s="15">
+        <v>185158.85123809642</v>
+      </c>
+      <c r="G76" s="15">
+        <v>148000</v>
+      </c>
+      <c r="H76" s="15">
+        <v>185158.85123809642</v>
+      </c>
+      <c r="I76" s="15">
+        <v>37158.851238096424</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="12.75">
+      <c r="A77" s="13">
+        <v>45107</v>
+      </c>
+      <c r="B77" s="18">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C77" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1385.0415457581223</v>
+      </c>
+      <c r="E77" s="15">
+        <v>130776.27283749747</v>
+      </c>
+      <c r="F77" s="15">
+        <v>188840.93872565418</v>
+      </c>
+      <c r="G77" s="15">
+        <v>150000</v>
+      </c>
+      <c r="H77" s="15">
+        <v>188840.93872565418</v>
+      </c>
+      <c r="I77" s="15">
+        <v>38840.938725654181</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13569,7 +13835,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH75"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13605,7 +13871,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -13632,19 +13898,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -13654,7 +13920,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -17407,6 +17673,94 @@
       </c>
       <c r="N75" s="21">
         <v>66.8045673873455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="12.75">
+      <c r="A76" s="13">
+        <v>45077</v>
+      </c>
+      <c r="B76" s="18">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C76" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D76" s="15">
+        <v>1397.6240447220607</v>
+      </c>
+      <c r="E76" s="15">
+        <v>136424.9311490207</v>
+      </c>
+      <c r="F76" s="15">
+        <v>195224.07569361891</v>
+      </c>
+      <c r="G76" s="15">
+        <v>154000</v>
+      </c>
+      <c r="H76" s="15">
+        <v>195224.07569361891</v>
+      </c>
+      <c r="I76" s="15">
+        <v>41224.075693618914</v>
+      </c>
+      <c r="J76" s="21">
+        <v>1.4999985694885254E-2</v>
+      </c>
+      <c r="K76" s="21">
+        <v>4.9152973769025082E-2</v>
+      </c>
+      <c r="L76" s="21">
+        <v>1.4999985694885254E-2</v>
+      </c>
+      <c r="M76" s="23">
+        <v>7.2335007373018539E-2</v>
+      </c>
+      <c r="N76" s="21">
+        <v>67.951847320001079</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="12.75">
+      <c r="A77" s="13">
+        <v>45107</v>
+      </c>
+      <c r="B77" s="18">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C77" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1385.0415457581223</v>
+      </c>
+      <c r="E77" s="15">
+        <v>137809.97269477881</v>
+      </c>
+      <c r="F77" s="15">
+        <v>198997.6013598156</v>
+      </c>
+      <c r="G77" s="15">
+        <v>156000</v>
+      </c>
+      <c r="H77" s="15">
+        <v>198997.6013598156</v>
+      </c>
+      <c r="I77" s="15">
+        <v>42997.601359815599</v>
+      </c>
+      <c r="J77" s="21">
+        <v>1.3000011444091797E-2</v>
+      </c>
+      <c r="K77" s="21">
+        <v>4.3127480048202861E-2</v>
+      </c>
+      <c r="L77" s="21">
+        <v>1.3000011444091797E-2</v>
+      </c>
+      <c r="M77" s="23">
+        <v>6.2445841384864087E-2</v>
+      </c>
+      <c r="N77" s="21">
+        <v>69.063814485901545</v>
       </c>
     </row>
   </sheetData>
@@ -17420,7 +17774,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH75"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17483,28 +17837,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -17514,7 +17868,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -21804,6 +22158,112 @@
         <v>94.815894850860488</v>
       </c>
     </row>
+    <row r="76" spans="1:18" ht="12.75">
+      <c r="A76" s="13">
+        <v>45077</v>
+      </c>
+      <c r="B76" s="18">
+        <v>1.4309999942779541</v>
+      </c>
+      <c r="C76" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D76" s="15">
+        <v>1397.6240447220607</v>
+      </c>
+      <c r="E76" s="15">
+        <v>134995.06646977662</v>
+      </c>
+      <c r="F76" s="15">
+        <v>193177.93934580238</v>
+      </c>
+      <c r="G76" s="15">
+        <v>153000</v>
+      </c>
+      <c r="H76" s="15">
+        <v>193177.93934580238</v>
+      </c>
+      <c r="I76" s="15">
+        <v>40177.939345802384</v>
+      </c>
+      <c r="J76" s="15">
+        <v>1.4320000410079956</v>
+      </c>
+      <c r="K76" s="15">
+        <v>1.309999942779541</v>
+      </c>
+      <c r="L76" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M76" s="19">
+        <v>0.96100002527236938</v>
+      </c>
+      <c r="N76" s="21">
+        <v>71.104385321535176</v>
+      </c>
+      <c r="O76" s="21">
+        <v>69.464908903257466</v>
+      </c>
+      <c r="P76" s="21">
+        <v>60.194842044917607</v>
+      </c>
+      <c r="Q76" s="21">
+        <v>88.005042619937171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="12.75">
+      <c r="A77" s="13">
+        <v>45107</v>
+      </c>
+      <c r="B77" s="18">
+        <v>1.4440000057220459</v>
+      </c>
+      <c r="C77" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1385.0415457581223</v>
+      </c>
+      <c r="E77" s="15">
+        <v>136380.10801553473</v>
+      </c>
+      <c r="F77" s="15">
+        <v>196932.87675480539</v>
+      </c>
+      <c r="G77" s="15">
+        <v>155000</v>
+      </c>
+      <c r="H77" s="15">
+        <v>196932.87675480539</v>
+      </c>
+      <c r="I77" s="15">
+        <v>41932.876754805387</v>
+      </c>
+      <c r="J77" s="15">
+        <v>1.6160000562667847</v>
+      </c>
+      <c r="K77" s="15">
+        <v>1.3849999904632568</v>
+      </c>
+      <c r="L77" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M77" s="19">
+        <v>0.96100002527236938</v>
+      </c>
+      <c r="N77" s="21">
+        <v>73.071104223370014</v>
+      </c>
+      <c r="O77" s="21">
+        <v>70.666974009961649</v>
+      </c>
+      <c r="P77" s="21">
+        <v>63.685552699932288</v>
+      </c>
+      <c r="Q77" s="21">
+        <v>84.629816630020372</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -693,7 +693,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -918,6 +918,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -927,7 +930,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1152,6 +1155,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>152000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,7 +1200,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1419,6 +1425,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,7 +1437,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1653,6 +1662,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>188840.93872565418</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>183386.68581104401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1695,7 +1707,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1920,6 +1932,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,7 +1944,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2154,6 +2169,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>38840.938725654181</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31386.685811044008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,11 +2193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511470208"/>
-        <c:axId val="511480192"/>
+        <c:axId val="542586368"/>
+        <c:axId val="542588288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511470208"/>
+        <c:axId val="542586368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2219,14 +2237,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511480192"/>
+        <c:crossAx val="542588288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511480192"/>
+        <c:axId val="542588288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,7 +2293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511470208"/>
+        <c:crossAx val="542586368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2405,7 +2423,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2630,6 +2648,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2639,7 +2660,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2864,6 +2885,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>152000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2897,7 +2921,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3122,6 +3146,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,7 +3158,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3356,6 +3383,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>188840.93872565418</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>183386.68581104401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3389,7 +3419,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3614,6 +3644,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3623,7 +3656,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3848,6 +3881,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>38840.938725654181</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31386.685811044008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3869,11 +3905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511571456"/>
-        <c:axId val="511573376"/>
+        <c:axId val="543854592"/>
+        <c:axId val="543856896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511571456"/>
+        <c:axId val="543854592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3883,14 +3919,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511573376"/>
+        <c:crossAx val="543856896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511573376"/>
+        <c:axId val="543856896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3901,7 +3937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511571456"/>
+        <c:crossAx val="543854592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4023,7 +4059,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4248,6 +4284,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4257,7 +4296,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4482,6 +4521,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>156000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>158000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4524,7 +4566,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4749,6 +4791,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4758,7 +4803,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4983,6 +5028,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>198997.6013598156</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>193142.42726490245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5025,7 +5073,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5250,6 +5298,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5259,7 +5310,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5484,6 +5535,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>42997.601359815599</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>35142.42726490245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5505,11 +5559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615593472"/>
-        <c:axId val="615595392"/>
+        <c:axId val="544103808"/>
+        <c:axId val="544150656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615593472"/>
+        <c:axId val="544103808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5549,14 +5603,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615595392"/>
+        <c:crossAx val="544150656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615595392"/>
+        <c:axId val="544150656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5605,7 +5659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615593472"/>
+        <c:crossAx val="544103808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5735,7 +5789,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5960,6 +6014,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5969,7 +6026,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6194,6 +6251,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>156000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>158000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6227,7 +6287,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6452,6 +6512,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6461,7 +6524,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6686,6 +6749,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>198997.6013598156</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>193142.42726490245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6719,7 +6785,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6944,6 +7010,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6953,7 +7022,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7178,6 +7247,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>42997.601359815599</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>35142.42726490245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7199,11 +7271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537205760"/>
-        <c:axId val="537207552"/>
+        <c:axId val="399754368"/>
+        <c:axId val="399755904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537205760"/>
+        <c:axId val="399754368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7213,14 +7285,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537207552"/>
+        <c:crossAx val="399755904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537207552"/>
+        <c:axId val="399755904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7231,7 +7303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537205760"/>
+        <c:crossAx val="399754368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7353,7 +7425,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7578,6 +7650,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7587,7 +7662,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7812,6 +7887,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>157000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7854,7 +7932,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8079,6 +8157,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8088,7 +8169,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8313,6 +8394,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>196932.87675480539</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>191159.20500524505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8355,7 +8439,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8580,6 +8664,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8589,7 +8676,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8814,6 +8901,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>41932.876754805387</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34159.20500524505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8835,11 +8925,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537260032"/>
-        <c:axId val="537261568"/>
+        <c:axId val="400029568"/>
+        <c:axId val="400031104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537260032"/>
+        <c:axId val="400029568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8879,14 +8969,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537261568"/>
+        <c:crossAx val="400031104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537261568"/>
+        <c:axId val="400031104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8935,7 +9025,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537260032"/>
+        <c:crossAx val="400029568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9065,7 +9155,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9290,6 +9380,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9299,7 +9392,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9524,6 +9617,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>155000</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>157000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9557,7 +9653,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9782,6 +9878,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9791,7 +9890,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10016,6 +10115,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>196932.87675480539</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>191159.20500524505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10049,7 +10151,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10274,6 +10376,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10283,7 +10388,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10508,6 +10613,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>41932.876754805387</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34159.20500524505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10529,11 +10637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537739648"/>
-        <c:axId val="537741184"/>
+        <c:axId val="400058624"/>
+        <c:axId val="400068608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537739648"/>
+        <c:axId val="400058624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10543,14 +10651,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537741184"/>
+        <c:crossAx val="400068608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537741184"/>
+        <c:axId val="400068608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10561,7 +10669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537739648"/>
+        <c:crossAx val="400058624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10603,7 +10711,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10641,7 +10749,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10682,7 +10790,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10720,7 +10828,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10763,7 +10871,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10801,7 +10909,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11079,7 +11187,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11088,7 +11196,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB77"/>
+  <dimension ref="A1:AB78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13824,6 +13932,35 @@
         <v>38840.938725654181</v>
       </c>
     </row>
+    <row r="78" spans="1:12" ht="12.75">
+      <c r="A78" s="13">
+        <v>45138</v>
+      </c>
+      <c r="B78" s="18">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C78" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D78" s="15">
+        <v>1441.9611037353764</v>
+      </c>
+      <c r="E78" s="15">
+        <v>132218.23394123284</v>
+      </c>
+      <c r="F78" s="15">
+        <v>183386.68581104401</v>
+      </c>
+      <c r="G78" s="15">
+        <v>152000</v>
+      </c>
+      <c r="H78" s="15">
+        <v>183386.68581104401</v>
+      </c>
+      <c r="I78" s="15">
+        <v>31386.685811044008</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13835,7 +13972,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH77"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17763,6 +17900,50 @@
         <v>69.063814485901545</v>
       </c>
     </row>
+    <row r="78" spans="1:18" ht="12.75">
+      <c r="A78" s="13">
+        <v>45138</v>
+      </c>
+      <c r="B78" s="18">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C78" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D78" s="15">
+        <v>1441.9611037353764</v>
+      </c>
+      <c r="E78" s="15">
+        <v>139251.93379851419</v>
+      </c>
+      <c r="F78" s="15">
+        <v>193142.42726490245</v>
+      </c>
+      <c r="G78" s="15">
+        <v>158000</v>
+      </c>
+      <c r="H78" s="15">
+        <v>193142.42726490245</v>
+      </c>
+      <c r="I78" s="15">
+        <v>35142.42726490245</v>
+      </c>
+      <c r="J78" s="21">
+        <v>0</v>
+      </c>
+      <c r="K78" s="21">
+        <v>3.5939566706835714E-2</v>
+      </c>
+      <c r="L78" s="21">
+        <v>5.7000041007995605E-2</v>
+      </c>
+      <c r="M78" s="23">
+        <v>6.153820798871934E-2</v>
+      </c>
+      <c r="N78" s="21">
+        <v>58.40203652570424</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17774,7 +17955,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH77"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22264,6 +22445,59 @@
         <v>84.629816630020372</v>
       </c>
     </row>
+    <row r="78" spans="1:18" ht="12.75">
+      <c r="A78" s="13">
+        <v>45138</v>
+      </c>
+      <c r="B78" s="18">
+        <v>1.3869999647140503</v>
+      </c>
+      <c r="C78" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D78" s="15">
+        <v>1441.9611037353764</v>
+      </c>
+      <c r="E78" s="15">
+        <v>137822.06911927011</v>
+      </c>
+      <c r="F78" s="15">
+        <v>191159.20500524505</v>
+      </c>
+      <c r="G78" s="15">
+        <v>157000</v>
+      </c>
+      <c r="H78" s="15">
+        <v>191159.20500524505</v>
+      </c>
+      <c r="I78" s="15">
+        <v>34159.20500524505</v>
+      </c>
+      <c r="J78" s="15">
+        <v>1.4780000448226929</v>
+      </c>
+      <c r="K78" s="15">
+        <v>1.3600000143051147</v>
+      </c>
+      <c r="L78" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M78" s="19">
+        <v>1.0609999895095825</v>
+      </c>
+      <c r="N78" s="21">
+        <v>58.110511427528067</v>
+      </c>
+      <c r="O78" s="21">
+        <v>66.481486482483788</v>
+      </c>
+      <c r="P78" s="21">
+        <v>64.617530627449455</v>
+      </c>
+      <c r="Q78" s="21">
+        <v>70.20939819255247</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -693,7 +697,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -921,6 +925,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -930,7 +937,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1158,6 +1165,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>152000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>154000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,7 +1210,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1428,6 +1438,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1437,7 +1450,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1665,6 +1678,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>183386.68581104401</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>174015.92223145079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1707,7 +1723,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1935,6 +1951,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1944,7 +1963,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2172,6 +2191,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>31386.685811044008</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20015.922231450793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2193,11 +2215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542586368"/>
-        <c:axId val="542588288"/>
+        <c:axId val="553061760"/>
+        <c:axId val="553125376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="542586368"/>
+        <c:axId val="553061760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,14 +2259,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542588288"/>
+        <c:crossAx val="553125376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="542588288"/>
+        <c:axId val="553125376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,7 +2315,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542586368"/>
+        <c:crossAx val="553061760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2423,7 +2445,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2651,6 +2673,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2660,7 +2685,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2888,6 +2913,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>152000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>154000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2921,7 +2949,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3149,6 +3177,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3158,7 +3189,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3386,6 +3417,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>183386.68581104401</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>174015.92223145079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3419,7 +3453,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3647,6 +3681,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3656,7 +3693,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3884,6 +3921,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>31386.685811044008</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20015.922231450793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3905,11 +3945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543854592"/>
-        <c:axId val="543856896"/>
+        <c:axId val="553422848"/>
+        <c:axId val="553424384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543854592"/>
+        <c:axId val="553422848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3919,14 +3959,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543856896"/>
+        <c:crossAx val="553424384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543856896"/>
+        <c:axId val="553424384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3937,7 +3977,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543854592"/>
+        <c:crossAx val="553422848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4059,7 +4099,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4287,6 +4327,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4296,7 +4339,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4524,6 +4567,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>158000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>160000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4566,7 +4612,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4794,6 +4840,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4803,7 +4852,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5031,6 +5080,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>193142.42726490245</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>183166.76573906597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5073,7 +5125,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5301,6 +5353,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5310,7 +5365,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5538,6 +5593,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>35142.42726490245</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23166.765739065973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5559,11 +5617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="544103808"/>
-        <c:axId val="544150656"/>
+        <c:axId val="609555968"/>
+        <c:axId val="609557504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="544103808"/>
+        <c:axId val="609555968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5603,14 +5661,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544150656"/>
+        <c:crossAx val="609557504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544150656"/>
+        <c:axId val="609557504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5659,7 +5717,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544103808"/>
+        <c:crossAx val="609555968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5789,7 +5847,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6017,6 +6075,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6026,7 +6087,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6254,6 +6315,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>158000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>160000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6287,7 +6351,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6515,6 +6579,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6524,7 +6591,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6752,6 +6819,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>193142.42726490245</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>183166.76573906597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6785,7 +6855,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7013,6 +7083,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7022,7 +7095,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7250,6 +7323,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>35142.42726490245</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>23166.765739065973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7271,11 +7347,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="399754368"/>
-        <c:axId val="399755904"/>
+        <c:axId val="609265536"/>
+        <c:axId val="609267072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="399754368"/>
+        <c:axId val="609265536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7285,14 +7361,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399755904"/>
+        <c:crossAx val="609267072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="399755904"/>
+        <c:axId val="609267072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7303,7 +7379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399754368"/>
+        <c:crossAx val="609265536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7425,7 +7501,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7653,6 +7729,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7662,7 +7741,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7890,6 +7969,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>157000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>159000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7932,7 +8014,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8160,6 +8242,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8169,7 +8254,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8397,6 +8482,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>191159.20500524505</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>181306.51179273304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8439,7 +8527,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8667,6 +8755,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8676,7 +8767,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8904,6 +8995,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>34159.20500524505</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22306.511792733043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8925,11 +9019,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="400029568"/>
-        <c:axId val="400031104"/>
+        <c:axId val="609319552"/>
+        <c:axId val="609325440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="400029568"/>
+        <c:axId val="609319552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8969,14 +9063,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400031104"/>
+        <c:crossAx val="609325440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="400031104"/>
+        <c:axId val="609325440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9025,7 +9119,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400029568"/>
+        <c:crossAx val="609319552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9155,7 +9249,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9383,6 +9477,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9392,7 +9489,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9620,6 +9717,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>157000</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>159000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9653,7 +9753,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9881,6 +9981,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9890,7 +9993,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10118,6 +10221,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>191159.20500524505</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>181306.51179273304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10151,7 +10257,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10379,6 +10485,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10388,7 +10497,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="77"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10616,6 +10725,9 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>34159.20500524505</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22306.511792733043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10637,11 +10749,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="400058624"/>
-        <c:axId val="400068608"/>
+        <c:axId val="609348608"/>
+        <c:axId val="609362688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="400058624"/>
+        <c:axId val="609348608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10651,14 +10763,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="400068608"/>
+        <c:crossAx val="609362688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="400068608"/>
+        <c:axId val="609362688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10669,7 +10781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="400058624"/>
+        <c:crossAx val="609348608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10711,7 +10823,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10749,7 +10861,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10790,7 +10902,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10828,7 +10940,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10871,7 +10983,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10909,7 +11021,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11187,7 +11299,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11196,7 +11308,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB78"/>
+  <dimension ref="A1:AB79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13961,6 +14073,35 @@
         <v>31386.685811044008</v>
       </c>
     </row>
+    <row r="79" spans="1:12" ht="12.75">
+      <c r="A79" s="13">
+        <v>45169</v>
+      </c>
+      <c r="B79" s="18">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C79" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D79" s="15">
+        <v>1537.279017268304</v>
+      </c>
+      <c r="E79" s="15">
+        <v>133755.51295850115</v>
+      </c>
+      <c r="F79" s="15">
+        <v>174015.92223145079</v>
+      </c>
+      <c r="G79" s="15">
+        <v>154000</v>
+      </c>
+      <c r="H79" s="15">
+        <v>174015.92223145079</v>
+      </c>
+      <c r="I79" s="15">
+        <v>20015.922231450793</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13972,7 +14113,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14008,7 +14149,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -14035,19 +14176,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -17942,6 +18083,50 @@
       </c>
       <c r="N78" s="21">
         <v>58.40203652570424</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="12.75">
+      <c r="A79" s="13">
+        <v>45169</v>
+      </c>
+      <c r="B79" s="18">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C79" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D79" s="15">
+        <v>1537.279017268304</v>
+      </c>
+      <c r="E79" s="15">
+        <v>140789.21281578249</v>
+      </c>
+      <c r="F79" s="15">
+        <v>183166.76573906597</v>
+      </c>
+      <c r="G79" s="15">
+        <v>160000</v>
+      </c>
+      <c r="H79" s="15">
+        <v>183166.76573906597</v>
+      </c>
+      <c r="I79" s="15">
+        <v>23166.765739065973</v>
+      </c>
+      <c r="J79" s="21">
+        <v>0</v>
+      </c>
+      <c r="K79" s="21">
+        <v>2.9949638922363093E-2</v>
+      </c>
+      <c r="L79" s="21">
+        <v>8.5999965667724609E-2</v>
+      </c>
+      <c r="M79" s="23">
+        <v>6.561516760188689E-2</v>
+      </c>
+      <c r="N79" s="21">
+        <v>45.644383786504008</v>
       </c>
     </row>
   </sheetData>
@@ -17955,7 +18140,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18018,28 +18203,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -22498,6 +22683,59 @@
         <v>70.20939819255247</v>
       </c>
     </row>
+    <row r="79" spans="1:18" ht="12.75">
+      <c r="A79" s="13">
+        <v>45169</v>
+      </c>
+      <c r="B79" s="18">
+        <v>1.3009999990463257</v>
+      </c>
+      <c r="C79" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D79" s="15">
+        <v>1537.279017268304</v>
+      </c>
+      <c r="E79" s="15">
+        <v>139359.34813653841</v>
+      </c>
+      <c r="F79" s="15">
+        <v>181306.51179273304</v>
+      </c>
+      <c r="G79" s="15">
+        <v>159000</v>
+      </c>
+      <c r="H79" s="15">
+        <v>181306.51179273304</v>
+      </c>
+      <c r="I79" s="15">
+        <v>22306.511792733043</v>
+      </c>
+      <c r="J79" s="15">
+        <v>1.4390000104904175</v>
+      </c>
+      <c r="K79" s="15">
+        <v>1.2209999561309814</v>
+      </c>
+      <c r="L79" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M79" s="19">
+        <v>1.0709999799728394</v>
+      </c>
+      <c r="N79" s="21">
+        <v>41.742288695769702</v>
+      </c>
+      <c r="O79" s="21">
+        <v>58.235087220245759</v>
+      </c>
+      <c r="P79" s="21">
+        <v>62.490049491714892</v>
+      </c>
+      <c r="Q79" s="21">
+        <v>49.725162677307495</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -697,7 +693,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -928,6 +924,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,7 +936,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1168,6 +1167,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>154000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>156000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,7 +1212,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1441,6 +1443,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1450,7 +1455,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1681,6 +1686,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>174015.92223145079</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>167990.59910749257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1723,7 +1731,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1954,6 +1962,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,7 +1974,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2194,6 +2205,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>20015.922231450793</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>11990.59910749257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2215,11 +2229,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553061760"/>
-        <c:axId val="553125376"/>
+        <c:axId val="530265984"/>
+        <c:axId val="530267520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="553061760"/>
+        <c:axId val="530265984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,14 +2273,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553125376"/>
+        <c:crossAx val="530267520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="553125376"/>
+        <c:axId val="530267520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,7 +2329,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553061760"/>
+        <c:crossAx val="530265984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2445,7 +2459,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2676,6 +2690,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2685,7 +2702,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2916,6 +2933,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>154000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>156000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2949,7 +2969,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3180,6 +3200,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3189,7 +3212,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3420,6 +3443,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>174015.92223145079</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>167990.59910749257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3453,7 +3479,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3684,6 +3710,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3693,7 +3722,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3924,6 +3953,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>20015.922231450793</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>11990.59910749257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3945,11 +3977,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553422848"/>
-        <c:axId val="553424384"/>
+        <c:axId val="530735104"/>
+        <c:axId val="530737024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="553422848"/>
+        <c:axId val="530735104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3959,14 +3991,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553424384"/>
+        <c:crossAx val="530737024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="553424384"/>
+        <c:axId val="530737024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3977,7 +4009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553422848"/>
+        <c:crossAx val="530735104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4099,7 +4131,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4330,6 +4362,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4339,7 +4374,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4570,6 +4605,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>162000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4612,7 +4650,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4843,6 +4881,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4852,7 +4893,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5083,6 +5124,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>183166.76573906597</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>176719.4210261424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5125,7 +5169,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5356,6 +5400,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5365,7 +5412,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5596,6 +5643,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>23166.765739065973</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14719.421026142401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5617,11 +5667,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609555968"/>
-        <c:axId val="609557504"/>
+        <c:axId val="594048512"/>
+        <c:axId val="594050048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609555968"/>
+        <c:axId val="594048512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5661,14 +5711,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609557504"/>
+        <c:crossAx val="594050048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609557504"/>
+        <c:axId val="594050048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5717,7 +5767,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609555968"/>
+        <c:crossAx val="594048512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5847,7 +5897,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6078,6 +6128,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6087,7 +6140,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6318,6 +6371,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>162000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6351,7 +6407,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6582,6 +6638,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6591,7 +6650,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6822,6 +6881,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>183166.76573906597</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>176719.4210261424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6855,7 +6917,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7086,6 +7148,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7095,7 +7160,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7326,6 +7391,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>23166.765739065973</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14719.421026142401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7347,11 +7415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609265536"/>
-        <c:axId val="609267072"/>
+        <c:axId val="594081664"/>
+        <c:axId val="594083200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609265536"/>
+        <c:axId val="594081664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7361,14 +7429,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609267072"/>
+        <c:crossAx val="594083200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609267072"/>
+        <c:axId val="594083200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7379,7 +7447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609265536"/>
+        <c:crossAx val="594081664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7501,7 +7569,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7732,6 +7800,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7741,7 +7812,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7972,6 +8043,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>159000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>161000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8014,7 +8088,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8245,6 +8319,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8254,7 +8331,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8485,6 +8562,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>181306.51179273304</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>174944.95887874661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8527,7 +8607,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8758,6 +8838,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8767,7 +8850,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8998,6 +9081,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>22306.511792733043</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13944.958878746605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9019,11 +9105,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609319552"/>
-        <c:axId val="609325440"/>
+        <c:axId val="593533568"/>
+        <c:axId val="593539456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609319552"/>
+        <c:axId val="593533568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9063,14 +9149,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609325440"/>
+        <c:crossAx val="593539456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609325440"/>
+        <c:axId val="593539456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9119,7 +9205,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609319552"/>
+        <c:crossAx val="593533568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9249,7 +9335,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9480,6 +9566,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9489,7 +9578,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9720,6 +9809,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>159000</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>161000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9753,7 +9845,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9984,6 +10076,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9993,7 +10088,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10224,6 +10319,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>181306.51179273304</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>174944.95887874661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10257,7 +10355,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10488,6 +10586,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10497,7 +10598,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10728,6 +10829,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>22306.511792733043</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13944.958878746605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10749,11 +10853,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609348608"/>
-        <c:axId val="609362688"/>
+        <c:axId val="429132800"/>
+        <c:axId val="429134592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609348608"/>
+        <c:axId val="429132800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10763,14 +10867,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609362688"/>
+        <c:crossAx val="429134592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609362688"/>
+        <c:axId val="429134592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10781,7 +10885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609348608"/>
+        <c:crossAx val="429132800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10823,7 +10927,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10861,7 +10965,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10902,7 +11006,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10940,7 +11044,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10983,7 +11087,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11021,7 +11125,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11299,7 +11403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11308,7 +11412,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB79"/>
+  <dimension ref="A1:AB80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14102,6 +14206,35 @@
         <v>20015.922231450793</v>
       </c>
     </row>
+    <row r="80" spans="1:12" ht="12.75">
+      <c r="A80" s="13">
+        <v>45197</v>
+      </c>
+      <c r="B80" s="18">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C80" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D80" s="15">
+        <v>1611.6034724579004</v>
+      </c>
+      <c r="E80" s="15">
+        <v>135367.11643095905</v>
+      </c>
+      <c r="F80" s="15">
+        <v>167990.59910749257</v>
+      </c>
+      <c r="G80" s="15">
+        <v>156000</v>
+      </c>
+      <c r="H80" s="15">
+        <v>167990.59910749257</v>
+      </c>
+      <c r="I80" s="15">
+        <v>11990.59910749257</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14113,7 +14246,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14149,7 +14282,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -14176,19 +14309,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -18127,6 +18260,50 @@
       </c>
       <c r="N79" s="21">
         <v>45.644383786504008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="12.75">
+      <c r="A80" s="13">
+        <v>45197</v>
+      </c>
+      <c r="B80" s="18">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C80" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D80" s="15">
+        <v>1611.6034724579004</v>
+      </c>
+      <c r="E80" s="15">
+        <v>142400.8162882404</v>
+      </c>
+      <c r="F80" s="15">
+        <v>176719.4210261424</v>
+      </c>
+      <c r="G80" s="15">
+        <v>162000</v>
+      </c>
+      <c r="H80" s="15">
+        <v>176719.4210261424</v>
+      </c>
+      <c r="I80" s="15">
+        <v>14719.421026142401</v>
+      </c>
+      <c r="J80" s="21">
+        <v>0</v>
+      </c>
+      <c r="K80" s="21">
+        <v>2.4958032435302577E-2</v>
+      </c>
+      <c r="L80" s="21">
+        <v>5.9999942779541016E-2</v>
+      </c>
+      <c r="M80" s="23">
+        <v>6.4679296798162575E-2</v>
+      </c>
+      <c r="N80" s="21">
+        <v>38.587358970809944</v>
       </c>
     </row>
   </sheetData>
@@ -18140,7 +18317,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH79"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18203,28 +18380,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -22736,6 +22913,59 @@
         <v>49.725162677307495</v>
       </c>
     </row>
+    <row r="80" spans="1:18" ht="12.75">
+      <c r="A80" s="13">
+        <v>45197</v>
+      </c>
+      <c r="B80" s="18">
+        <v>1.2410000562667847</v>
+      </c>
+      <c r="C80" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D80" s="15">
+        <v>1611.6034724579004</v>
+      </c>
+      <c r="E80" s="15">
+        <v>140970.95160899631</v>
+      </c>
+      <c r="F80" s="15">
+        <v>174944.95887874661</v>
+      </c>
+      <c r="G80" s="15">
+        <v>161000</v>
+      </c>
+      <c r="H80" s="15">
+        <v>174944.95887874661</v>
+      </c>
+      <c r="I80" s="15">
+        <v>13944.958878746605</v>
+      </c>
+      <c r="J80" s="15">
+        <v>1.3070000410079956</v>
+      </c>
+      <c r="K80" s="15">
+        <v>1.1299999952316284</v>
+      </c>
+      <c r="L80" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M80" s="19">
+        <v>1.0709999799728394</v>
+      </c>
+      <c r="N80" s="21">
+        <v>30.853007280392731</v>
+      </c>
+      <c r="O80" s="21">
+        <v>49.107727240294743</v>
+      </c>
+      <c r="P80" s="21">
+        <v>58.02927540790818</v>
+      </c>
+      <c r="Q80" s="21">
+        <v>31.264630905067875</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -12,9 +12,9 @@
     <sheet name="模型一计算KDJ" sheetId="38" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">模型一!$L$1:$L$83</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">模型一计算KDJ!$R$1:$R$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">模型一计算RSI!$R$1:$R$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">模型一!$L$1:$L$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">模型一计算KDJ!$R$1:$R$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">模型一计算RSI!$R$1:$R$81</definedName>
     <definedName name="金额" localSheetId="0">OFFSET(模型一!I1,0,0,COUNTA(模型一!I:I)-1)</definedName>
     <definedName name="金额" localSheetId="2">OFFSET(模型一计算KDJ!I1,0,0,COUNTA(模型一计算KDJ!I:I)-1)</definedName>
     <definedName name="金额" localSheetId="1">OFFSET(模型一计算RSI!I1,0,0,COUNTA(模型一计算RSI!I:I)-1)</definedName>
@@ -693,7 +693,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -927,6 +927,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +939,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1170,6 +1173,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>156000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>158000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,7 +1218,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1446,6 +1452,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,7 +1464,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1689,6 +1698,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>167990.59910749257</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>161191.72879371172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1731,7 +1743,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1965,6 +1977,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,7 +1989,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2208,6 +2223,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>11990.59910749257</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3191.7287937117217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,11 +2247,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530265984"/>
-        <c:axId val="530267520"/>
+        <c:axId val="518888448"/>
+        <c:axId val="518890624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530265984"/>
+        <c:axId val="518888448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2273,14 +2291,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530267520"/>
+        <c:crossAx val="518890624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="530267520"/>
+        <c:axId val="518890624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530265984"/>
+        <c:crossAx val="518888448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2459,7 +2477,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2693,6 +2711,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,7 +2723,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2936,6 +2957,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>156000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>158000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2969,7 +2993,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3203,6 +3227,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3212,7 +3239,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3446,6 +3473,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>167990.59910749257</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>161191.72879371172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3479,7 +3509,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3713,6 +3743,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3722,7 +3755,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3956,6 +3989,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>11990.59910749257</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3191.7287937117217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3977,11 +4013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530735104"/>
-        <c:axId val="530737024"/>
+        <c:axId val="520808704"/>
+        <c:axId val="523128832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530735104"/>
+        <c:axId val="520808704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3991,14 +4027,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530737024"/>
+        <c:crossAx val="523128832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="530737024"/>
+        <c:axId val="523128832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4009,7 +4045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530735104"/>
+        <c:crossAx val="520808704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4131,7 +4167,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4365,6 +4401,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4374,7 +4413,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4608,6 +4647,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>162000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>164000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4650,7 +4692,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4884,6 +4926,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4893,7 +4938,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5127,6 +5172,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>176719.4210261424</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>169463.35981916671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5169,7 +5217,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5403,6 +5451,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5412,7 +5463,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5646,6 +5697,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>14719.421026142401</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5463.3598191667115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5667,11 +5721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="594048512"/>
-        <c:axId val="594050048"/>
+        <c:axId val="603284224"/>
+        <c:axId val="603285760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="594048512"/>
+        <c:axId val="603284224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5711,14 +5765,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594050048"/>
+        <c:crossAx val="603285760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="594050048"/>
+        <c:axId val="603285760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5767,7 +5821,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594048512"/>
+        <c:crossAx val="603284224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5897,7 +5951,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6131,6 +6185,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6140,7 +6197,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6374,6 +6431,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>162000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>164000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6407,7 +6467,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6641,6 +6701,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6650,7 +6713,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6884,6 +6947,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>176719.4210261424</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>169463.35981916671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6917,7 +6983,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7151,6 +7217,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7160,7 +7229,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7394,6 +7463,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>14719.421026142401</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5463.3598191667115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7415,11 +7487,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="594081664"/>
-        <c:axId val="594083200"/>
+        <c:axId val="603309184"/>
+        <c:axId val="603310720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="594081664"/>
+        <c:axId val="603309184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7429,14 +7501,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="594083200"/>
+        <c:crossAx val="603310720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="594083200"/>
+        <c:axId val="603310720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7447,7 +7519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="594081664"/>
+        <c:crossAx val="603309184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7569,7 +7641,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7803,6 +7875,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7812,7 +7887,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8046,6 +8121,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>161000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>163000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8088,7 +8166,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8322,6 +8400,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8331,7 +8412,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8565,6 +8646,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>174944.95887874661</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>167781.8389577393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8607,7 +8691,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8841,6 +8925,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8850,7 +8937,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9084,6 +9171,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>13944.958878746605</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4781.8389577392954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9105,11 +9195,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="593533568"/>
-        <c:axId val="593539456"/>
+        <c:axId val="605427584"/>
+        <c:axId val="605429120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="593533568"/>
+        <c:axId val="605427584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9149,14 +9239,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593539456"/>
+        <c:crossAx val="605429120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="593539456"/>
+        <c:axId val="605429120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9205,7 +9295,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593533568"/>
+        <c:crossAx val="605427584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9335,7 +9425,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9569,6 +9659,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9578,7 +9671,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9812,6 +9905,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>161000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>163000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9845,7 +9941,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10079,6 +10175,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10088,7 +10187,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10322,6 +10421,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>174944.95887874661</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>167781.8389577393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10355,7 +10457,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10589,6 +10691,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10598,7 +10703,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10832,6 +10937,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>13944.958878746605</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4781.8389577392954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10853,11 +10961,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429132800"/>
-        <c:axId val="429134592"/>
+        <c:axId val="605456640"/>
+        <c:axId val="605462528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="429132800"/>
+        <c:axId val="605456640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10867,14 +10975,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429134592"/>
+        <c:crossAx val="605462528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="429134592"/>
+        <c:axId val="605462528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10885,7 +10993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="429132800"/>
+        <c:crossAx val="605456640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10927,7 +11035,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10965,7 +11073,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11006,7 +11114,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11044,7 +11152,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11087,7 +11195,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11125,7 +11233,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11403,7 +11511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11412,7 +11520,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB80"/>
+  <dimension ref="A1:AB81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14235,6 +14343,35 @@
         <v>11990.59910749257</v>
       </c>
     </row>
+    <row r="81" spans="1:9" ht="12.75">
+      <c r="A81" s="13">
+        <v>45230</v>
+      </c>
+      <c r="B81" s="18">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C81" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D81" s="15">
+        <v>1700.6802734880059</v>
+      </c>
+      <c r="E81" s="15">
+        <v>137067.79670444707</v>
+      </c>
+      <c r="F81" s="15">
+        <v>161191.72879371172</v>
+      </c>
+      <c r="G81" s="15">
+        <v>158000</v>
+      </c>
+      <c r="H81" s="15">
+        <v>161191.72879371172</v>
+      </c>
+      <c r="I81" s="15">
+        <v>3191.7287937117217</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14246,7 +14383,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18306,6 +18443,50 @@
         <v>38.587358970809944</v>
       </c>
     </row>
+    <row r="81" spans="1:14" ht="12.75">
+      <c r="A81" s="13">
+        <v>45230</v>
+      </c>
+      <c r="B81" s="18">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C81" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D81" s="15">
+        <v>1700.6802734880059</v>
+      </c>
+      <c r="E81" s="15">
+        <v>144101.49656172842</v>
+      </c>
+      <c r="F81" s="15">
+        <v>169463.35981916671</v>
+      </c>
+      <c r="G81" s="15">
+        <v>164000</v>
+      </c>
+      <c r="H81" s="15">
+        <v>169463.35981916671</v>
+      </c>
+      <c r="I81" s="15">
+        <v>5463.3598191667115</v>
+      </c>
+      <c r="J81" s="21">
+        <v>0</v>
+      </c>
+      <c r="K81" s="21">
+        <v>2.0798360362752146E-2</v>
+      </c>
+      <c r="L81" s="21">
+        <v>6.5000057220458984E-2</v>
+      </c>
+      <c r="M81" s="23">
+        <v>6.4732756868545308E-2</v>
+      </c>
+      <c r="N81" s="21">
+        <v>32.129576073807549</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18317,7 +18498,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22966,6 +23147,59 @@
         <v>31.264630905067875</v>
       </c>
     </row>
+    <row r="81" spans="1:17" ht="12.75">
+      <c r="A81" s="13">
+        <v>45230</v>
+      </c>
+      <c r="B81" s="18">
+        <v>1.1759999990463257</v>
+      </c>
+      <c r="C81" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D81" s="15">
+        <v>1700.6802734880059</v>
+      </c>
+      <c r="E81" s="15">
+        <v>142671.63188248433</v>
+      </c>
+      <c r="F81" s="15">
+        <v>167781.8389577393</v>
+      </c>
+      <c r="G81" s="15">
+        <v>163000</v>
+      </c>
+      <c r="H81" s="15">
+        <v>167781.8389577393</v>
+      </c>
+      <c r="I81" s="15">
+        <v>4781.8389577392954</v>
+      </c>
+      <c r="J81" s="15">
+        <v>1.2790000438690186</v>
+      </c>
+      <c r="K81" s="15">
+        <v>1.1299999952316284</v>
+      </c>
+      <c r="L81" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M81" s="19">
+        <v>1.1299999952316284</v>
+      </c>
+      <c r="N81" s="21">
+        <v>9.3495941806654201</v>
+      </c>
+      <c r="O81" s="21">
+        <v>35.8550162204183</v>
+      </c>
+      <c r="P81" s="21">
+        <v>50.637855678744891</v>
+      </c>
+      <c r="Q81" s="21">
+        <v>6.289337303765123</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +129,10 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -693,7 +705,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -930,6 +942,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -939,7 +957,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1176,6 +1194,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>158000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>162000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,7 +1242,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1455,6 +1479,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,7 +1494,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1701,6 +1731,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>161191.72879371172</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>167303.75877330403</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>169026.31000231727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,7 +1779,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1980,6 +2016,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1989,7 +2031,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2226,6 +2268,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>3191.7287937117217</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7303.7587733040273</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7026.3100023172738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2247,11 +2295,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518888448"/>
-        <c:axId val="518890624"/>
+        <c:axId val="534848640"/>
+        <c:axId val="534850176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518888448"/>
+        <c:axId val="534848640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2291,14 +2339,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518890624"/>
+        <c:crossAx val="534850176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518890624"/>
+        <c:axId val="534850176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2395,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518888448"/>
+        <c:crossAx val="534848640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2477,7 +2525,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2714,6 +2762,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2723,7 +2777,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2960,6 +3014,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>158000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>160000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>162000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2993,7 +3053,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3230,6 +3290,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3239,7 +3305,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3476,6 +3542,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>161191.72879371172</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>167303.75877330403</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>169026.31000231727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3509,7 +3581,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3746,6 +3818,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3755,7 +3833,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3992,6 +4070,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>3191.7287937117217</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7303.7587733040273</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7026.3100023172738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4013,11 +4097,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520808704"/>
-        <c:axId val="523128832"/>
+        <c:axId val="535147264"/>
+        <c:axId val="535149184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520808704"/>
+        <c:axId val="535147264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4027,14 +4111,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523128832"/>
+        <c:crossAx val="535149184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523128832"/>
+        <c:axId val="535149184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4045,7 +4129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520808704"/>
+        <c:crossAx val="535147264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4167,7 +4251,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4404,6 +4488,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4413,7 +4503,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4650,6 +4740,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>164000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>166000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>168000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4692,7 +4788,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4929,6 +5025,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4938,7 +5040,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5175,6 +5277,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>169463.35981916671</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>175786.40059324171</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>177494.88460365258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5217,7 +5325,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5454,6 +5562,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5463,7 +5577,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5700,6 +5814,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>5463.3598191667115</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9786.4005932417058</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9494.8846036525792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5721,11 +5841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603284224"/>
-        <c:axId val="603285760"/>
+        <c:axId val="439607296"/>
+        <c:axId val="439608832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="603284224"/>
+        <c:axId val="439607296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5765,14 +5885,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603285760"/>
+        <c:crossAx val="439608832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="603285760"/>
+        <c:axId val="439608832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5821,7 +5941,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603284224"/>
+        <c:crossAx val="439607296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5951,7 +6071,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6188,6 +6308,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6197,7 +6323,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6434,6 +6560,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>164000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>166000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>168000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6467,7 +6599,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6704,6 +6836,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6713,7 +6851,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6950,6 +7088,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>169463.35981916671</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>175786.40059324171</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>177494.88460365258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6983,7 +7127,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7220,6 +7364,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7229,7 +7379,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7466,6 +7616,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>5463.3598191667115</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9786.4005932417058</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9494.8846036525792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7487,11 +7643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603309184"/>
-        <c:axId val="603310720"/>
+        <c:axId val="439646848"/>
+        <c:axId val="439652736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="603309184"/>
+        <c:axId val="439646848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7501,14 +7657,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603310720"/>
+        <c:crossAx val="439652736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="603310720"/>
+        <c:axId val="439652736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7519,7 +7675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603309184"/>
+        <c:crossAx val="439646848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7641,7 +7797,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7878,6 +8034,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7887,7 +8049,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8124,6 +8286,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>163000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>168000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8166,7 +8334,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8403,6 +8571,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8412,7 +8586,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8649,6 +8823,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>167781.8389577393</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>174061.98383234572</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>176773.3275352972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8691,7 +8871,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8928,6 +9108,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8937,7 +9123,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9174,6 +9360,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>4781.8389577392954</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9061.9838323457225</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8773.3275352971978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9195,11 +9387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="605427584"/>
-        <c:axId val="605429120"/>
+        <c:axId val="442599296"/>
+        <c:axId val="442600832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="605427584"/>
+        <c:axId val="442599296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9239,14 +9431,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605429120"/>
+        <c:crossAx val="442600832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="605429120"/>
+        <c:axId val="442600832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9295,7 +9487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605427584"/>
+        <c:crossAx val="442599296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9425,7 +9617,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9662,6 +9854,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9671,7 +9869,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9908,6 +10106,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>163000</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>165000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>168000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9941,7 +10145,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10178,6 +10382,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10187,7 +10397,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10424,6 +10634,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>167781.8389577393</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>174061.98383234572</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>176773.3275352972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10457,7 +10673,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10694,6 +10910,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10703,7 +10925,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10940,6 +11162,12 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>4781.8389577392954</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9061.9838323457225</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8773.3275352971978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10961,11 +11189,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="605456640"/>
-        <c:axId val="605462528"/>
+        <c:axId val="442635008"/>
+        <c:axId val="442636544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="605456640"/>
+        <c:axId val="442635008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10975,14 +11203,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="605462528"/>
+        <c:crossAx val="442636544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="605462528"/>
+        <c:axId val="442636544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10993,7 +11221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="605456640"/>
+        <c:crossAx val="442635008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11520,7 +11748,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB81"/>
+  <dimension ref="A1:AB83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14372,6 +14600,64 @@
         <v>3191.7287937117217</v>
       </c>
     </row>
+    <row r="82" spans="1:9" ht="12.75">
+      <c r="A82" s="13">
+        <v>45260</v>
+      </c>
+      <c r="B82" s="18">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C82" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D82" s="15">
+        <v>1658.3748333565788</v>
+      </c>
+      <c r="E82" s="15">
+        <v>138726.17153780366</v>
+      </c>
+      <c r="F82" s="15">
+        <v>167303.75877330403</v>
+      </c>
+      <c r="G82" s="15">
+        <v>160000</v>
+      </c>
+      <c r="H82" s="15">
+        <v>167303.75877330403</v>
+      </c>
+      <c r="I82" s="15">
+        <v>7303.7587733040273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="12.75">
+      <c r="A83" s="13">
+        <v>45289</v>
+      </c>
+      <c r="B83" s="18">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C83" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D83" s="15">
+        <v>1661.1295733693576</v>
+      </c>
+      <c r="E83" s="15">
+        <v>140387.30111117303</v>
+      </c>
+      <c r="F83" s="15">
+        <v>169026.31000231727</v>
+      </c>
+      <c r="G83" s="15">
+        <v>162000</v>
+      </c>
+      <c r="H83" s="15">
+        <v>169026.31000231727</v>
+      </c>
+      <c r="I83" s="15">
+        <v>7026.3100023172738</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14383,7 +14669,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14419,13 +14705,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -14446,19 +14732,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -14468,7 +14754,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -18485,6 +18771,94 @@
       </c>
       <c r="N81" s="21">
         <v>32.129576073807549</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="12.75">
+      <c r="A82" s="13">
+        <v>45260</v>
+      </c>
+      <c r="B82" s="18">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C82" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D82" s="15">
+        <v>1658.3748333565788</v>
+      </c>
+      <c r="E82" s="15">
+        <v>145759.87139508501</v>
+      </c>
+      <c r="F82" s="15">
+        <v>175786.40059324171</v>
+      </c>
+      <c r="G82" s="15">
+        <v>166000</v>
+      </c>
+      <c r="H82" s="15">
+        <v>175786.40059324171</v>
+      </c>
+      <c r="I82" s="15">
+        <v>9786.4005932417058</v>
+      </c>
+      <c r="J82" s="21">
+        <v>2.9999971389770508E-2</v>
+      </c>
+      <c r="K82" s="21">
+        <v>2.2331962200588539E-2</v>
+      </c>
+      <c r="L82" s="21">
+        <v>2.9999971389770508E-2</v>
+      </c>
+      <c r="M82" s="23">
+        <v>5.8943959288749508E-2</v>
+      </c>
+      <c r="N82" s="21">
+        <v>37.886769857434714</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="12.75">
+      <c r="A83" s="13">
+        <v>45289</v>
+      </c>
+      <c r="B83" s="18">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C83" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D83" s="15">
+        <v>1661.1295733693576</v>
+      </c>
+      <c r="E83" s="15">
+        <v>147421.00096845438</v>
+      </c>
+      <c r="F83" s="15">
+        <v>177494.88460365258</v>
+      </c>
+      <c r="G83" s="15">
+        <v>168000</v>
+      </c>
+      <c r="H83" s="15">
+        <v>177494.88460365258</v>
+      </c>
+      <c r="I83" s="15">
+        <v>9494.8846036525792</v>
+      </c>
+      <c r="J83" s="21">
+        <v>0</v>
+      </c>
+      <c r="K83" s="21">
+        <v>1.8609968500490449E-2</v>
+      </c>
+      <c r="L83" s="21">
+        <v>1.999974250793457E-3</v>
+      </c>
+      <c r="M83" s="23">
+        <v>4.9453295115756829E-2</v>
+      </c>
+      <c r="N83" s="21">
+        <v>37.631402431181847</v>
       </c>
     </row>
   </sheetData>
@@ -18498,7 +18872,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18561,28 +18935,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -23200,6 +23574,112 @@
         <v>6.289337303765123</v>
       </c>
     </row>
+    <row r="82" spans="1:17" ht="12.75">
+      <c r="A82" s="13">
+        <v>45260</v>
+      </c>
+      <c r="B82" s="18">
+        <v>1.2059999704360962</v>
+      </c>
+      <c r="C82" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D82" s="15">
+        <v>1658.3748333565788</v>
+      </c>
+      <c r="E82" s="15">
+        <v>144330.00671584092</v>
+      </c>
+      <c r="F82" s="15">
+        <v>174061.98383234572</v>
+      </c>
+      <c r="G82" s="15">
+        <v>165000</v>
+      </c>
+      <c r="H82" s="15">
+        <v>174061.98383234572</v>
+      </c>
+      <c r="I82" s="15">
+        <v>9061.9838323457225</v>
+      </c>
+      <c r="J82" s="15">
+        <v>1.2760000228881836</v>
+      </c>
+      <c r="K82" s="15">
+        <v>1.1599999666213989</v>
+      </c>
+      <c r="L82" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M82" s="19">
+        <v>1.1299999952316284</v>
+      </c>
+      <c r="N82" s="21">
+        <v>15.447149282091519</v>
+      </c>
+      <c r="O82" s="21">
+        <v>29.052393907642706</v>
+      </c>
+      <c r="P82" s="21">
+        <v>43.442701755044162</v>
+      </c>
+      <c r="Q82" s="21">
+        <v>0.27177821283979142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="12.75">
+      <c r="A83" s="13">
+        <v>45289</v>
+      </c>
+      <c r="B83" s="18">
+        <v>1.2039999961853027</v>
+      </c>
+      <c r="C83" s="22">
+        <v>3000</v>
+      </c>
+      <c r="D83" s="15">
+        <v>2491.6943600540362</v>
+      </c>
+      <c r="E83" s="15">
+        <v>146821.70107589496</v>
+      </c>
+      <c r="F83" s="15">
+        <v>176773.3275352972</v>
+      </c>
+      <c r="G83" s="15">
+        <v>168000</v>
+      </c>
+      <c r="H83" s="15">
+        <v>176773.3275352972</v>
+      </c>
+      <c r="I83" s="15">
+        <v>8773.3275352971978</v>
+      </c>
+      <c r="J83" s="15">
+        <v>1.2690000534057617</v>
+      </c>
+      <c r="K83" s="15">
+        <v>1.1529999971389771</v>
+      </c>
+      <c r="L83" s="19">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="M83" s="19">
+        <v>1.1299999952316284</v>
+      </c>
+      <c r="N83" s="21">
+        <v>15.040650454569146</v>
+      </c>
+      <c r="O83" s="21">
+        <v>24.381812756618189</v>
+      </c>
+      <c r="P83" s="21">
+        <v>37.089072088902171</v>
+      </c>
+      <c r="Q83" s="21">
+        <v>-1.0327059079497758</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,14 +101,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -705,7 +697,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -948,6 +940,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,7 +952,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1200,6 +1195,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>162000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>164000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1242,7 +1240,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1485,6 +1483,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1494,7 +1495,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1737,6 +1738,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>169026.31000231727</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>138877.6219304878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1779,7 +1783,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2022,6 +2026,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2031,7 +2038,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2274,6 +2281,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>7026.3100023172738</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-25122.378069512197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2295,11 +2305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="534848640"/>
-        <c:axId val="534850176"/>
+        <c:axId val="459555584"/>
+        <c:axId val="459557504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534848640"/>
+        <c:axId val="459555584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,14 +2349,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534850176"/>
+        <c:crossAx val="459557504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534850176"/>
+        <c:axId val="459557504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2395,7 +2405,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534848640"/>
+        <c:crossAx val="459555584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2525,7 +2535,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2768,6 +2778,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2777,7 +2790,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3020,6 +3033,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>162000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>164000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3053,7 +3069,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3296,6 +3312,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3305,7 +3324,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3548,6 +3567,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>169026.31000231727</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>138877.6219304878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3581,7 +3603,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3824,6 +3846,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3833,7 +3858,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4076,6 +4101,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>7026.3100023172738</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-25122.378069512197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4097,11 +4125,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="535147264"/>
-        <c:axId val="535149184"/>
+        <c:axId val="459763072"/>
+        <c:axId val="459773824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="535147264"/>
+        <c:axId val="459763072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4111,14 +4139,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535149184"/>
+        <c:crossAx val="459773824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535149184"/>
+        <c:axId val="459773824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4129,7 +4157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535147264"/>
+        <c:crossAx val="459763072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4251,7 +4279,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4494,6 +4522,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4503,7 +4534,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4746,6 +4777,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>171000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4788,7 +4822,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5031,6 +5065,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5040,7 +5077,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5283,6 +5320,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>177494.88460365258</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>146735.47945903358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5325,7 +5365,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5568,6 +5608,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5577,7 +5620,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5820,6 +5863,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>9494.8846036525792</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-24264.52054096642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5841,11 +5887,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439607296"/>
-        <c:axId val="439608832"/>
+        <c:axId val="363478016"/>
+        <c:axId val="363492096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439607296"/>
+        <c:axId val="363478016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5885,14 +5931,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439608832"/>
+        <c:crossAx val="363492096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439608832"/>
+        <c:axId val="363492096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5941,7 +5987,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439607296"/>
+        <c:crossAx val="363478016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6071,7 +6117,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6314,6 +6360,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6323,7 +6372,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6566,6 +6615,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>171000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6599,7 +6651,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6842,6 +6894,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6851,7 +6906,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7094,6 +7149,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>177494.88460365258</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>146735.47945903358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7127,7 +7185,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7370,6 +7428,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7379,7 +7440,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7622,6 +7683,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>9494.8846036525792</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-24264.52054096642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7643,11 +7707,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439646848"/>
-        <c:axId val="439652736"/>
+        <c:axId val="363505536"/>
+        <c:axId val="363507072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439646848"/>
+        <c:axId val="363505536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7657,14 +7721,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439652736"/>
+        <c:crossAx val="363507072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439652736"/>
+        <c:axId val="363507072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7675,7 +7739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439646848"/>
+        <c:crossAx val="363505536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7797,7 +7861,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8040,6 +8104,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8049,7 +8116,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8292,6 +8359,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>171000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8334,7 +8404,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8577,6 +8647,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8586,7 +8659,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8829,6 +8902,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>176773.3275352972</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>146151.16204949972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8871,7 +8947,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9114,6 +9190,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9123,7 +9202,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9366,6 +9445,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>8773.3275352971978</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-24848.837950500281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9387,11 +9469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442599296"/>
-        <c:axId val="442600832"/>
+        <c:axId val="363652224"/>
+        <c:axId val="363653760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442599296"/>
+        <c:axId val="363652224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9431,14 +9513,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442600832"/>
+        <c:crossAx val="363653760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442600832"/>
+        <c:axId val="363653760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9487,7 +9569,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442599296"/>
+        <c:crossAx val="363652224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9617,7 +9699,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9860,6 +9942,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9869,7 +9954,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10112,6 +10197,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>171000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10145,7 +10233,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10388,6 +10476,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10397,7 +10488,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10640,6 +10731,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>176773.3275352972</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>146151.16204949972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10673,7 +10767,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10916,6 +11010,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10925,7 +11022,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11168,6 +11265,9 @@
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>8773.3275352971978</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-24848.837950500281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11189,11 +11289,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442635008"/>
-        <c:axId val="442636544"/>
+        <c:axId val="367030272"/>
+        <c:axId val="367031808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442635008"/>
+        <c:axId val="367030272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11203,14 +11303,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442636544"/>
+        <c:crossAx val="367031808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442636544"/>
+        <c:axId val="367031808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11221,7 +11321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="442635008"/>
+        <c:crossAx val="367030272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11263,7 +11363,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11301,7 +11401,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11342,7 +11442,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11380,7 +11480,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11423,7 +11523,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11461,7 +11561,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11739,7 +11839,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11748,7 +11848,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB83"/>
+  <dimension ref="A1:AB84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14658,6 +14758,35 @@
         <v>7026.3100023172738</v>
       </c>
     </row>
+    <row r="84" spans="1:9" ht="12.75">
+      <c r="A84" s="13">
+        <v>45322</v>
+      </c>
+      <c r="B84" s="18">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C84" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D84" s="15">
+        <v>2051.2820011216677</v>
+      </c>
+      <c r="E84" s="15">
+        <v>142438.5831122947</v>
+      </c>
+      <c r="F84" s="15">
+        <v>138877.6219304878</v>
+      </c>
+      <c r="G84" s="15">
+        <v>164000</v>
+      </c>
+      <c r="H84" s="15">
+        <v>138877.6219304878</v>
+      </c>
+      <c r="I84" s="15">
+        <v>-25122.378069512197</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14669,7 +14798,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH83"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14705,13 +14834,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -14732,19 +14861,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -14754,7 +14883,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -18859,6 +18988,50 @@
       </c>
       <c r="N83" s="21">
         <v>37.631402431181847</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="12.75">
+      <c r="A84" s="13">
+        <v>45322</v>
+      </c>
+      <c r="B84" s="18">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C84" s="22">
+        <v>3000</v>
+      </c>
+      <c r="D84" s="15">
+        <v>3076.9230016825013</v>
+      </c>
+      <c r="E84" s="15">
+        <v>150497.92397013688</v>
+      </c>
+      <c r="F84" s="15">
+        <v>146735.47945903358</v>
+      </c>
+      <c r="G84" s="15">
+        <v>171000</v>
+      </c>
+      <c r="H84" s="15">
+        <v>146735.47945903358</v>
+      </c>
+      <c r="I84" s="15">
+        <v>-24264.52054096642</v>
+      </c>
+      <c r="J84" s="21">
+        <v>0</v>
+      </c>
+      <c r="K84" s="21">
+        <v>1.550830708374204E-2</v>
+      </c>
+      <c r="L84" s="21">
+        <v>0.22899997234344482</v>
+      </c>
+      <c r="M84" s="23">
+        <v>7.9377741320371495E-2</v>
+      </c>
+      <c r="N84" s="21">
+        <v>19.537349924268998</v>
       </c>
     </row>
   </sheetData>
@@ -18872,7 +19045,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH83"/>
+  <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18935,28 +19108,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -23680,6 +23853,59 @@
         <v>-1.0327059079497758</v>
       </c>
     </row>
+    <row r="84" spans="1:17" ht="12.75">
+      <c r="A84" s="13">
+        <v>45322</v>
+      </c>
+      <c r="B84" s="18">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="C84" s="22">
+        <v>3000</v>
+      </c>
+      <c r="D84" s="15">
+        <v>3076.9230016825013</v>
+      </c>
+      <c r="E84" s="15">
+        <v>149898.62407757746</v>
+      </c>
+      <c r="F84" s="15">
+        <v>146151.16204949972</v>
+      </c>
+      <c r="G84" s="15">
+        <v>171000</v>
+      </c>
+      <c r="H84" s="15">
+        <v>146151.16204949972</v>
+      </c>
+      <c r="I84" s="15">
+        <v>-24848.837950500281</v>
+      </c>
+      <c r="J84" s="15">
+        <v>1.2109999656677246</v>
+      </c>
+      <c r="K84" s="15">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="L84" s="19">
+        <v>1.6160000562667847</v>
+      </c>
+      <c r="M84" s="19">
+        <v>0.97500002384185791</v>
+      </c>
+      <c r="N84" s="21">
+        <v>0</v>
+      </c>
+      <c r="O84" s="21">
+        <v>16.25454183774546</v>
+      </c>
+      <c r="P84" s="21">
+        <v>30.144228671849934</v>
+      </c>
+      <c r="Q84" s="21">
+        <v>-11.524831830463491</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,10 +129,6 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -157,6 +161,10 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -697,7 +705,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -943,6 +951,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,7 +963,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1198,6 +1209,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>164000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>166000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1240,7 +1254,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1486,6 +1500,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,7 +1512,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1741,6 +1758,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>138877.6219304878</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>171644.35031330268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1783,7 +1803,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2029,6 +2049,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2038,7 +2061,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2284,6 +2307,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-25122.378069512197</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5644.3503133026825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2305,11 +2331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459555584"/>
-        <c:axId val="459557504"/>
+        <c:axId val="464851328"/>
+        <c:axId val="465240064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="459555584"/>
+        <c:axId val="464851328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,14 +2375,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459557504"/>
+        <c:crossAx val="465240064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="459557504"/>
+        <c:axId val="465240064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,7 +2431,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459555584"/>
+        <c:crossAx val="464851328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2535,7 +2561,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2781,6 +2807,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,7 +2819,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3036,6 +3065,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>164000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>166000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3069,7 +3101,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3315,6 +3347,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3324,7 +3359,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3570,6 +3605,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>138877.6219304878</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>171644.35031330268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3603,7 +3641,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3849,6 +3887,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3858,7 +3899,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4104,6 +4145,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-25122.378069512197</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5644.3503133026825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4125,11 +4169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459763072"/>
-        <c:axId val="459773824"/>
+        <c:axId val="516864640"/>
+        <c:axId val="516879488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="459763072"/>
+        <c:axId val="516864640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4139,14 +4183,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459773824"/>
+        <c:crossAx val="516879488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="459773824"/>
+        <c:axId val="516879488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4157,7 +4201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="459763072"/>
+        <c:crossAx val="516864640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4279,7 +4323,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4525,6 +4569,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4534,7 +4581,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4780,6 +4827,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>171000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>173000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4822,7 +4872,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5068,6 +5118,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5077,7 +5130,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5323,6 +5376,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>146735.47945903358</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>181243.02515201695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5365,7 +5421,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5611,6 +5667,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5620,7 +5679,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5866,6 +5925,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-24264.52054096642</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8243.025152016955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5887,11 +5949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="363478016"/>
-        <c:axId val="363492096"/>
+        <c:axId val="524256000"/>
+        <c:axId val="524257536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="363478016"/>
+        <c:axId val="524256000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5931,14 +5993,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363492096"/>
+        <c:crossAx val="524257536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="363492096"/>
+        <c:axId val="524257536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5987,7 +6049,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363478016"/>
+        <c:crossAx val="524256000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6117,7 +6179,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6363,6 +6425,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6372,7 +6437,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6618,6 +6683,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>171000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>173000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6651,7 +6719,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6897,6 +6965,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6906,7 +6977,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7152,6 +7223,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>146735.47945903358</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>181243.02515201695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7185,7 +7259,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7431,6 +7505,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7440,7 +7517,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7686,6 +7763,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-24264.52054096642</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8243.025152016955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7707,11 +7787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="363505536"/>
-        <c:axId val="363507072"/>
+        <c:axId val="524279168"/>
+        <c:axId val="524280960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="363505536"/>
+        <c:axId val="524279168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7721,14 +7801,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363507072"/>
+        <c:crossAx val="524280960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="363507072"/>
+        <c:axId val="524280960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7739,7 +7819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363505536"/>
+        <c:crossAx val="524279168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7861,7 +7941,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8107,6 +8187,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8116,7 +8199,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8362,6 +8445,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>171000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>173000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8404,7 +8490,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8650,6 +8736,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8659,7 +8748,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8905,6 +8994,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>146151.16204949972</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>180529.25898912328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8947,7 +9039,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9193,6 +9285,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9202,7 +9297,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9448,6 +9543,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-24848.837950500281</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7529.2589891232783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9469,11 +9567,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="363652224"/>
-        <c:axId val="363653760"/>
+        <c:axId val="528382592"/>
+        <c:axId val="528384384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="363652224"/>
+        <c:axId val="528382592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9513,14 +9611,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363653760"/>
+        <c:crossAx val="528384384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="363653760"/>
+        <c:axId val="528384384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9569,7 +9667,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363652224"/>
+        <c:crossAx val="528382592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9699,7 +9797,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9945,6 +10043,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9954,7 +10055,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10200,6 +10301,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>171000</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>173000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10233,7 +10337,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10479,6 +10583,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10488,7 +10595,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10734,6 +10841,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>146151.16204949972</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>180529.25898912328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10767,7 +10877,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11013,6 +11123,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11022,7 +11135,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="82"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11268,6 +11381,9 @@
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>-24848.837950500281</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7529.2589891232783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11289,11 +11405,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="367030272"/>
-        <c:axId val="367031808"/>
+        <c:axId val="528414208"/>
+        <c:axId val="528415744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="367030272"/>
+        <c:axId val="528414208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11303,14 +11419,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="367031808"/>
+        <c:crossAx val="528415744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="367031808"/>
+        <c:axId val="528415744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11321,7 +11437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="367030272"/>
+        <c:crossAx val="528414208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11363,7 +11479,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11401,7 +11517,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11442,7 +11558,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11480,7 +11596,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11523,7 +11639,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11561,7 +11677,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11839,7 +11955,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11848,7 +11964,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB84"/>
+  <dimension ref="A1:AB85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14787,6 +14903,35 @@
         <v>-25122.378069512197</v>
       </c>
     </row>
+    <row r="85" spans="1:9" ht="12.75">
+      <c r="A85" s="13">
+        <v>45351</v>
+      </c>
+      <c r="B85" s="18">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C85" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D85" s="15">
+        <v>1679.2611466192204</v>
+      </c>
+      <c r="E85" s="15">
+        <v>144117.84425891392</v>
+      </c>
+      <c r="F85" s="15">
+        <v>171644.35031330268</v>
+      </c>
+      <c r="G85" s="15">
+        <v>166000</v>
+      </c>
+      <c r="H85" s="15">
+        <v>171644.35031330268</v>
+      </c>
+      <c r="I85" s="15">
+        <v>5644.3503133026825</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14798,7 +14943,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14834,10 +14979,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -14861,19 +15006,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -14883,7 +15028,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -19032,6 +19177,50 @@
       </c>
       <c r="N84" s="21">
         <v>19.537349924268998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="12.75">
+      <c r="A85" s="13">
+        <v>45351</v>
+      </c>
+      <c r="B85" s="18">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C85" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D85" s="15">
+        <v>1679.2611466192204</v>
+      </c>
+      <c r="E85" s="15">
+        <v>152177.1851167561</v>
+      </c>
+      <c r="F85" s="15">
+        <v>181243.02515201695</v>
+      </c>
+      <c r="G85" s="15">
+        <v>173000</v>
+      </c>
+      <c r="H85" s="15">
+        <v>181243.02515201695</v>
+      </c>
+      <c r="I85" s="15">
+        <v>8243.025152016955</v>
+      </c>
+      <c r="J85" s="21">
+        <v>0.21599996089935303</v>
+      </c>
+      <c r="K85" s="21">
+        <v>4.8923582719677207E-2</v>
+      </c>
+      <c r="L85" s="21">
+        <v>0.21599996089935303</v>
+      </c>
+      <c r="M85" s="23">
+        <v>0.10214811125020175</v>
+      </c>
+      <c r="N85" s="21">
+        <v>47.894750202325042</v>
       </c>
     </row>
   </sheetData>
@@ -19045,7 +19234,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH84"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19108,28 +19297,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -19139,7 +19328,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -23906,6 +24095,59 @@
         <v>-11.524831830463491</v>
       </c>
     </row>
+    <row r="85" spans="1:17" ht="12.75">
+      <c r="A85" s="13">
+        <v>45351</v>
+      </c>
+      <c r="B85" s="18">
+        <v>1.1909999847412109</v>
+      </c>
+      <c r="C85" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D85" s="15">
+        <v>1679.2611466192204</v>
+      </c>
+      <c r="E85" s="15">
+        <v>151577.88522419668</v>
+      </c>
+      <c r="F85" s="15">
+        <v>180529.25898912328</v>
+      </c>
+      <c r="G85" s="15">
+        <v>173000</v>
+      </c>
+      <c r="H85" s="15">
+        <v>180529.25898912328</v>
+      </c>
+      <c r="I85" s="15">
+        <v>7529.2589891232783</v>
+      </c>
+      <c r="J85" s="15">
+        <v>1.218000054359436</v>
+      </c>
+      <c r="K85" s="15">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="L85" s="19">
+        <v>1.6160000562667847</v>
+      </c>
+      <c r="M85" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N85" s="21">
+        <v>39.198850542858423</v>
+      </c>
+      <c r="O85" s="21">
+        <v>23.902644739449784</v>
+      </c>
+      <c r="P85" s="21">
+        <v>28.063700694383215</v>
+      </c>
+      <c r="Q85" s="21">
+        <v>15.580532829582921</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,7 +107,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人工智能产业LOF</t>
+    <t>买卖金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,6 +128,14 @@
   </si>
   <si>
     <t>RSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈利金额</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -705,7 +713,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -954,6 +962,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,7 +974,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1212,6 +1223,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>166000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>168000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,7 +1268,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1503,6 +1517,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,7 +1529,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1761,6 +1778,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>171644.35031330268</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>173788.47489219444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,7 +1823,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2052,6 +2072,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2061,7 +2084,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2310,6 +2333,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>5644.3503133026825</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5788.4748921944411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,11 +2357,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464851328"/>
-        <c:axId val="465240064"/>
+        <c:axId val="618171776"/>
+        <c:axId val="618235008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464851328"/>
+        <c:axId val="618171776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,14 +2401,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465240064"/>
+        <c:crossAx val="618235008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465240064"/>
+        <c:axId val="618235008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2431,7 +2457,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464851328"/>
+        <c:crossAx val="618171776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2561,7 +2587,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2810,6 +2836,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2819,7 +2848,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3068,6 +3097,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>166000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>168000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3101,7 +3133,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3350,6 +3382,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3359,7 +3394,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3608,6 +3643,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>171644.35031330268</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>173788.47489219444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3641,7 +3679,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3890,6 +3928,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3899,7 +3940,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4148,6 +4189,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>5644.3503133026825</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5788.4748921944411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4169,11 +4213,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516864640"/>
-        <c:axId val="516879488"/>
+        <c:axId val="631513856"/>
+        <c:axId val="631515392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516864640"/>
+        <c:axId val="631513856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,14 +4227,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516879488"/>
+        <c:crossAx val="631515392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516879488"/>
+        <c:axId val="631515392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4201,7 +4245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516864640"/>
+        <c:crossAx val="631513856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4323,7 +4367,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4572,6 +4616,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4581,7 +4628,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4830,6 +4877,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>173000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>175000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4872,7 +4922,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5121,6 +5171,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5130,7 +5183,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5379,6 +5432,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>181243.02515201695</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>183395.20944837987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5421,7 +5477,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5670,6 +5726,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5679,7 +5738,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5928,6 +5987,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>8243.025152016955</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8395.2094483798719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5949,11 +6011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524256000"/>
-        <c:axId val="524257536"/>
+        <c:axId val="634312192"/>
+        <c:axId val="634314112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524256000"/>
+        <c:axId val="634312192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5993,14 +6055,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524257536"/>
+        <c:crossAx val="634314112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524257536"/>
+        <c:axId val="634314112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6049,7 +6111,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524256000"/>
+        <c:crossAx val="634312192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6179,7 +6241,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6428,6 +6490,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6437,7 +6502,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6686,6 +6751,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>173000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>175000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6719,7 +6787,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6968,6 +7036,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6977,7 +7048,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7226,6 +7297,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>181243.02515201695</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>183395.20944837987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7259,7 +7333,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7508,6 +7582,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7517,7 +7594,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7766,6 +7843,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>8243.025152016955</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8395.2094483798719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7787,11 +7867,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524279168"/>
-        <c:axId val="524280960"/>
+        <c:axId val="635227520"/>
+        <c:axId val="635375616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524279168"/>
+        <c:axId val="635227520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7801,14 +7881,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524280960"/>
+        <c:crossAx val="635375616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524280960"/>
+        <c:axId val="635375616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7819,7 +7899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524279168"/>
+        <c:crossAx val="635227520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7941,7 +8021,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8190,6 +8270,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8199,7 +8282,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8448,6 +8531,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>173000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>175000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8490,7 +8576,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8739,6 +8825,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8748,7 +8837,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8997,6 +9086,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>180529.25898912328</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>182680.84395758834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9039,7 +9131,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9288,6 +9380,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9297,7 +9392,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9546,6 +9641,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>7529.2589891232783</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7680.8439575883385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9567,11 +9665,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528382592"/>
-        <c:axId val="528384384"/>
+        <c:axId val="491841792"/>
+        <c:axId val="491843584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528382592"/>
+        <c:axId val="491841792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9611,14 +9709,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528384384"/>
+        <c:crossAx val="491843584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528384384"/>
+        <c:axId val="491843584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9667,7 +9765,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528382592"/>
+        <c:crossAx val="491841792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9797,7 +9895,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10046,6 +10144,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10055,7 +10156,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10304,6 +10405,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>173000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>175000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10337,7 +10441,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10586,6 +10690,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10595,7 +10702,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10844,6 +10951,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>180529.25898912328</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>182680.84395758834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10877,7 +10987,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11126,6 +11236,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11135,7 +11248,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11384,6 +11497,9 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>7529.2589891232783</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7680.8439575883385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11405,11 +11521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528414208"/>
-        <c:axId val="528415744"/>
+        <c:axId val="498746496"/>
+        <c:axId val="498748032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528414208"/>
+        <c:axId val="498746496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11419,14 +11535,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528415744"/>
+        <c:crossAx val="498748032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528415744"/>
+        <c:axId val="498748032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11437,7 +11553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528414208"/>
+        <c:crossAx val="498746496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11964,7 +12080,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB85"/>
+  <dimension ref="A1:AB86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14932,6 +15048,35 @@
         <v>5644.3503133026825</v>
       </c>
     </row>
+    <row r="86" spans="1:9" ht="12.75">
+      <c r="A86" s="13">
+        <v>45380</v>
+      </c>
+      <c r="B86" s="18">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C86" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="15">
+        <v>1677.8523046945356</v>
+      </c>
+      <c r="E86" s="15">
+        <v>145795.69656360845</v>
+      </c>
+      <c r="F86" s="15">
+        <v>173788.47489219444</v>
+      </c>
+      <c r="G86" s="15">
+        <v>168000</v>
+      </c>
+      <c r="H86" s="15">
+        <v>173788.47489219444</v>
+      </c>
+      <c r="I86" s="15">
+        <v>5788.4748921944411</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14943,7 +15088,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14982,10 +15127,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -15089,7 +15234,7 @@
         <v>12</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W3" s="26" t="s">
         <v>14</v>
@@ -19221,6 +19366,50 @@
       </c>
       <c r="N85" s="21">
         <v>47.894750202325042</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="12.75">
+      <c r="A86" s="13">
+        <v>45380</v>
+      </c>
+      <c r="B86" s="18">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C86" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="15">
+        <v>1677.8523046945356</v>
+      </c>
+      <c r="E86" s="15">
+        <v>153855.03742145063</v>
+      </c>
+      <c r="F86" s="15">
+        <v>183395.20944837987</v>
+      </c>
+      <c r="G86" s="15">
+        <v>175000</v>
+      </c>
+      <c r="H86" s="15">
+        <v>183395.20944837987</v>
+      </c>
+      <c r="I86" s="15">
+        <v>8395.2094483798719</v>
+      </c>
+      <c r="J86" s="21">
+        <v>1.0000467300415039E-3</v>
+      </c>
+      <c r="K86" s="21">
+        <v>4.0936326721404591E-2</v>
+      </c>
+      <c r="L86" s="21">
+        <v>1.0000467300415039E-3</v>
+      </c>
+      <c r="M86" s="23">
+        <v>8.5290100496841714E-2</v>
+      </c>
+      <c r="N86" s="21">
+        <v>47.99657461175164</v>
       </c>
     </row>
   </sheetData>
@@ -19234,7 +19423,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH85"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19270,7 +19459,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -19297,28 +19486,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -19328,7 +19517,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -19405,7 +19594,7 @@
         <v>12</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="W3" s="26" t="s">
         <v>14</v>
@@ -24146,6 +24335,59 @@
       </c>
       <c r="Q85" s="21">
         <v>15.580532829582921</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="12.75">
+      <c r="A86" s="13">
+        <v>45380</v>
+      </c>
+      <c r="B86" s="18">
+        <v>1.1920000314712524</v>
+      </c>
+      <c r="C86" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D86" s="15">
+        <v>1677.8523046945356</v>
+      </c>
+      <c r="E86" s="15">
+        <v>153255.73752889122</v>
+      </c>
+      <c r="F86" s="15">
+        <v>182680.84395758834</v>
+      </c>
+      <c r="G86" s="15">
+        <v>175000</v>
+      </c>
+      <c r="H86" s="15">
+        <v>182680.84395758834</v>
+      </c>
+      <c r="I86" s="15">
+        <v>7680.8439575883385</v>
+      </c>
+      <c r="J86" s="15">
+        <v>1.284000039100647</v>
+      </c>
+      <c r="K86" s="15">
+        <v>1.1699999570846558</v>
+      </c>
+      <c r="L86" s="19">
+        <v>1.4780000448226929</v>
+      </c>
+      <c r="M86" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N86" s="21">
+        <v>49.019609926414297</v>
+      </c>
+      <c r="O86" s="21">
+        <v>32.274966468437952</v>
+      </c>
+      <c r="P86" s="21">
+        <v>29.467455952401462</v>
+      </c>
+      <c r="Q86" s="21">
+        <v>37.889987500510934</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,7 +103,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
+    <t>人工智能产业LOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -131,8 +131,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>盈利金额</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <t>单位：元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
@@ -169,10 +169,6 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -713,7 +709,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -965,6 +961,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,7 +973,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1226,6 +1225,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>170000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1268,7 +1270,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1520,6 +1522,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,7 +1534,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1781,6 +1786,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>173788.47489219444</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>179870.75397885064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,7 +1831,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2075,6 +2083,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,7 +2095,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2336,6 +2347,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>5788.4748921944411</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9870.7539788506401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,11 +2371,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618171776"/>
-        <c:axId val="618235008"/>
+        <c:axId val="510372864"/>
+        <c:axId val="510374656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618171776"/>
+        <c:axId val="510372864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,14 +2415,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618235008"/>
+        <c:crossAx val="510374656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618235008"/>
+        <c:axId val="510374656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,7 +2471,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618171776"/>
+        <c:crossAx val="510372864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2587,7 +2601,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2839,6 +2853,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2848,7 +2865,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3100,6 +3117,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>170000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3133,7 +3153,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3385,6 +3405,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3394,7 +3417,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3646,6 +3669,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>173788.47489219444</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>179870.75397885064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3679,7 +3705,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3931,6 +3957,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3940,7 +3969,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4192,6 +4221,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>5788.4748921944411</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9870.7539788506401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4213,11 +4245,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="631513856"/>
-        <c:axId val="631515392"/>
+        <c:axId val="585011200"/>
+        <c:axId val="585013120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="631513856"/>
+        <c:axId val="585011200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4227,14 +4259,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631515392"/>
+        <c:crossAx val="585013120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="631515392"/>
+        <c:axId val="585013120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4245,7 +4277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631513856"/>
+        <c:crossAx val="585011200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4367,7 +4399,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4619,6 +4651,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4628,7 +4663,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4880,6 +4915,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>177000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4922,7 +4960,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5174,6 +5212,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5183,7 +5224,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5435,6 +5476,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>183395.20944837987</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>189703.15005599771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5477,7 +5521,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5729,6 +5773,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5738,7 +5785,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5990,6 +6037,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>8395.2094483798719</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12703.150055997714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6011,11 +6061,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="634312192"/>
-        <c:axId val="634314112"/>
+        <c:axId val="584924544"/>
+        <c:axId val="584930432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="634312192"/>
+        <c:axId val="584924544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6055,14 +6105,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634314112"/>
+        <c:crossAx val="584930432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="634314112"/>
+        <c:axId val="584930432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6111,7 +6161,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634312192"/>
+        <c:crossAx val="584924544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6241,7 +6291,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6493,6 +6543,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6502,7 +6555,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6754,6 +6807,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>177000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6787,7 +6843,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7039,6 +7095,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7048,7 +7107,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7300,6 +7359,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>183395.20944837987</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>189703.15005599771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7333,7 +7395,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7585,6 +7647,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7594,7 +7659,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7846,6 +7911,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>8395.2094483798719</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12703.150055997714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7867,11 +7935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635227520"/>
-        <c:axId val="635375616"/>
+        <c:axId val="584960256"/>
+        <c:axId val="584966144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="635227520"/>
+        <c:axId val="584960256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7881,14 +7949,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635375616"/>
+        <c:crossAx val="584966144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="635375616"/>
+        <c:axId val="584966144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7899,7 +7967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635227520"/>
+        <c:crossAx val="584960256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8021,7 +8089,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8273,6 +8341,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8282,7 +8353,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8534,6 +8605,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>177000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8576,7 +8650,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8828,6 +8902,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8837,7 +8914,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9089,6 +9166,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>182680.84395758834</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>188972.0041699291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9131,7 +9211,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9383,6 +9463,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9392,7 +9475,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9644,6 +9727,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>7680.8439575883385</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11972.004169929103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9665,11 +9751,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491841792"/>
-        <c:axId val="491843584"/>
+        <c:axId val="585016832"/>
+        <c:axId val="585018368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491841792"/>
+        <c:axId val="585016832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9709,14 +9795,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491843584"/>
+        <c:crossAx val="585018368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491843584"/>
+        <c:axId val="585018368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9765,7 +9851,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491841792"/>
+        <c:crossAx val="585016832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9895,7 +9981,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10147,6 +10233,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10156,7 +10245,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10408,6 +10497,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>175000</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>177000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10441,7 +10533,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10693,6 +10785,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10702,7 +10797,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10954,6 +11049,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>182680.84395758834</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>188972.0041699291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10987,7 +11085,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11239,6 +11337,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11248,7 +11349,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11500,6 +11601,9 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>7680.8439575883385</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11972.004169929103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11521,11 +11625,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498746496"/>
-        <c:axId val="498748032"/>
+        <c:axId val="585048448"/>
+        <c:axId val="585049984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="498746496"/>
+        <c:axId val="585048448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11535,14 +11639,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498748032"/>
+        <c:crossAx val="585049984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="498748032"/>
+        <c:axId val="585049984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11553,7 +11657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498746496"/>
+        <c:crossAx val="585048448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11595,7 +11699,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11633,7 +11737,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11674,7 +11778,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11712,7 +11816,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11755,7 +11859,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11793,7 +11897,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12071,7 +12175,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12080,7 +12184,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB86"/>
+  <dimension ref="A1:AB87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15077,6 +15181,35 @@
         <v>5788.4748921944411</v>
       </c>
     </row>
+    <row r="87" spans="1:9" ht="12.75">
+      <c r="A87" s="13">
+        <v>45412</v>
+      </c>
+      <c r="B87" s="18">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C87" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D87" s="15">
+        <v>1639.3442238508078</v>
+      </c>
+      <c r="E87" s="15">
+        <v>147435.04078745926</v>
+      </c>
+      <c r="F87" s="15">
+        <v>179870.75397885064</v>
+      </c>
+      <c r="G87" s="15">
+        <v>170000</v>
+      </c>
+      <c r="H87" s="15">
+        <v>179870.75397885064</v>
+      </c>
+      <c r="I87" s="15">
+        <v>9870.7539788506401</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15088,7 +15221,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15124,10 +15257,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>18</v>
@@ -15173,7 +15306,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -15234,7 +15367,7 @@
         <v>12</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="W3" s="26" t="s">
         <v>14</v>
@@ -19410,6 +19543,50 @@
       </c>
       <c r="N86" s="21">
         <v>47.99657461175164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="12.75">
+      <c r="A87" s="13">
+        <v>45412</v>
+      </c>
+      <c r="B87" s="18">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C87" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D87" s="15">
+        <v>1639.3442238508078</v>
+      </c>
+      <c r="E87" s="15">
+        <v>155494.38164530144</v>
+      </c>
+      <c r="F87" s="15">
+        <v>189703.15005599771</v>
+      </c>
+      <c r="G87" s="15">
+        <v>177000</v>
+      </c>
+      <c r="H87" s="15">
+        <v>189703.15005599771</v>
+      </c>
+      <c r="I87" s="15">
+        <v>12703.150055997714</v>
+      </c>
+      <c r="J87" s="21">
+        <v>2.7999997138977051E-2</v>
+      </c>
+      <c r="K87" s="21">
+        <v>3.8780271791E-2</v>
+      </c>
+      <c r="L87" s="21">
+        <v>2.7999997138977051E-2</v>
+      </c>
+      <c r="M87" s="23">
+        <v>7.5741749937197608E-2</v>
+      </c>
+      <c r="N87" s="21">
+        <v>51.200654623315721</v>
       </c>
     </row>
   </sheetData>
@@ -19423,7 +19600,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH86"/>
+  <dimension ref="A1:AH87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19517,7 +19694,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -19594,7 +19771,7 @@
         <v>12</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="W3" s="26" t="s">
         <v>14</v>
@@ -24388,6 +24565,59 @@
       </c>
       <c r="Q86" s="21">
         <v>37.889987500510934</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="12.75">
+      <c r="A87" s="13">
+        <v>45412</v>
+      </c>
+      <c r="B87" s="18">
+        <v>1.2200000286102295</v>
+      </c>
+      <c r="C87" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D87" s="15">
+        <v>1639.3442238508078</v>
+      </c>
+      <c r="E87" s="15">
+        <v>154895.08175274203</v>
+      </c>
+      <c r="F87" s="15">
+        <v>188972.0041699291</v>
+      </c>
+      <c r="G87" s="15">
+        <v>177000</v>
+      </c>
+      <c r="H87" s="15">
+        <v>188972.0041699291</v>
+      </c>
+      <c r="I87" s="15">
+        <v>11972.004169929103</v>
+      </c>
+      <c r="J87" s="15">
+        <v>1.2300000190734863</v>
+      </c>
+      <c r="K87" s="15">
+        <v>1.093999981880188</v>
+      </c>
+      <c r="L87" s="19">
+        <v>1.4390000104904175</v>
+      </c>
+      <c r="M87" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N87" s="21">
+        <v>58.045981670772953</v>
+      </c>
+      <c r="O87" s="21">
+        <v>40.865304869216288</v>
+      </c>
+      <c r="P87" s="21">
+        <v>33.266738924673071</v>
+      </c>
+      <c r="Q87" s="21">
+        <v>56.062436758302724</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,11 +103,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
+    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -133,10 +129,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -709,7 +701,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -964,6 +956,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,7 +968,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1228,6 +1223,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>172000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,7 +1268,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1525,6 +1523,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,7 +1535,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1789,6 +1790,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>179870.75397885064</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>171697.7353208859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1831,7 +1835,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2086,6 +2090,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2095,7 +2102,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2350,6 +2357,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>9870.7539788506401</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-302.26467911410145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2371,11 +2381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510372864"/>
-        <c:axId val="510374656"/>
+        <c:axId val="477482368"/>
+        <c:axId val="477660288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510372864"/>
+        <c:axId val="477482368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,14 +2425,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510374656"/>
+        <c:crossAx val="477660288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510374656"/>
+        <c:axId val="477660288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2471,7 +2481,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510372864"/>
+        <c:crossAx val="477482368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2601,7 +2611,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2856,6 +2866,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2865,7 +2878,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3120,6 +3133,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>170000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>172000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,7 +3169,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3408,6 +3424,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3417,7 +3436,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3672,6 +3691,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>179870.75397885064</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>171697.7353208859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3705,7 +3727,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3960,6 +3982,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3969,7 +3994,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4224,6 +4249,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>9870.7539788506401</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-302.26467911410145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4245,11 +4273,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585011200"/>
-        <c:axId val="585013120"/>
+        <c:axId val="477859840"/>
+        <c:axId val="477861760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585011200"/>
+        <c:axId val="477859840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4259,14 +4287,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="585013120"/>
+        <c:crossAx val="477861760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585013120"/>
+        <c:axId val="477861760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4277,7 +4305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="585011200"/>
+        <c:crossAx val="477859840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4399,7 +4427,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4654,6 +4682,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4663,7 +4694,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4918,6 +4949,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>177000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>179000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4960,7 +4994,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5215,6 +5249,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5224,7 +5261,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5479,6 +5516,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>189703.15005599771</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>180974.03683272592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5521,7 +5561,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5776,6 +5816,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5785,7 +5828,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6040,6 +6083,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>12703.150055997714</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1974.0368327259202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6061,11 +6107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584924544"/>
-        <c:axId val="584930432"/>
+        <c:axId val="574334080"/>
+        <c:axId val="574335616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584924544"/>
+        <c:axId val="574334080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6105,14 +6151,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584930432"/>
+        <c:crossAx val="574335616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584930432"/>
+        <c:axId val="574335616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6161,7 +6207,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584924544"/>
+        <c:crossAx val="574334080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6291,7 +6337,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6546,6 +6592,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6555,7 +6604,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6810,6 +6859,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>177000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>179000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6843,7 +6895,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7098,6 +7150,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7107,7 +7162,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7362,6 +7417,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>189703.15005599771</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>180974.03683272592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7395,7 +7453,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7650,6 +7708,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7659,7 +7720,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7914,6 +7975,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>12703.150055997714</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1974.0368327259202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7935,11 +7999,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584960256"/>
-        <c:axId val="584966144"/>
+        <c:axId val="759835264"/>
+        <c:axId val="787980672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584960256"/>
+        <c:axId val="759835264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7949,14 +8013,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584966144"/>
+        <c:crossAx val="787980672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584966144"/>
+        <c:axId val="787980672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7967,7 +8031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584960256"/>
+        <c:crossAx val="759835264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8089,7 +8153,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8344,6 +8408,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8353,7 +8420,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8608,6 +8675,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>177000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>179000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8650,7 +8720,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8905,6 +8975,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8914,7 +8987,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9169,6 +9242,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>188972.0041699291</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>180284.24264267314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9211,7 +9287,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9466,6 +9542,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9475,7 +9554,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9730,6 +9809,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>11972.004169929103</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1284.2426426731399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9751,11 +9833,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585016832"/>
-        <c:axId val="585018368"/>
+        <c:axId val="495488384"/>
+        <c:axId val="495494272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585016832"/>
+        <c:axId val="495488384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9795,14 +9877,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585018368"/>
+        <c:crossAx val="495494272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585018368"/>
+        <c:axId val="495494272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9851,7 +9933,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585016832"/>
+        <c:crossAx val="495488384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9981,7 +10063,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10236,6 +10318,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10245,7 +10330,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10500,6 +10585,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>177000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>179000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10533,7 +10621,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10788,6 +10876,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10797,7 +10888,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11052,6 +11143,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>188972.0041699291</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>180284.24264267314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11085,7 +11179,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11340,6 +11434,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11349,7 +11446,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11604,6 +11701,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>11972.004169929103</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1284.2426426731399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11625,11 +11725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585048448"/>
-        <c:axId val="585049984"/>
+        <c:axId val="496244992"/>
+        <c:axId val="496250880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585048448"/>
+        <c:axId val="496244992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11639,14 +11739,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="585049984"/>
+        <c:crossAx val="496250880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585049984"/>
+        <c:axId val="496250880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11657,7 +11757,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="585048448"/>
+        <c:crossAx val="496244992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11699,7 +11799,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11737,7 +11837,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11778,7 +11878,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11816,7 +11916,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11859,7 +11959,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11897,7 +11997,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12175,7 +12275,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12184,7 +12284,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB87"/>
+  <dimension ref="A1:AB88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12246,6 +12346,7 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:28" ht="14.1" customHeight="1">
       <c r="A2" s="4"/>
@@ -12768,6 +12869,16 @@
         <f t="shared" ref="Y9:Y14" si="6">-X9</f>
         <v>-18000</v>
       </c>
+      <c r="Z9" s="8">
+        <v>43098</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>18000</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" ref="AB9:AB15" si="7">-AA9</f>
+        <v>-18000</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="14.1" customHeight="1">
       <c r="A10" s="13">
@@ -12798,6 +12909,27 @@
         <v>346.838799995101</v>
       </c>
       <c r="J10" s="3"/>
+      <c r="L10" s="8">
+        <v>45289</v>
+      </c>
+      <c r="M10" s="5">
+        <v>24000</v>
+      </c>
+      <c r="N10" s="9">
+        <v>162000</v>
+      </c>
+      <c r="O10" s="9">
+        <v>169026.31000231727</v>
+      </c>
+      <c r="P10" s="9">
+        <v>7026.3100023172738</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>4.3372283964921446E-2</v>
+      </c>
+      <c r="R10" s="11">
+        <v>1.091929616280618E-2</v>
+      </c>
       <c r="T10" s="8">
         <v>43462</v>
       </c>
@@ -12818,6 +12950,16 @@
         <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
+      <c r="Z10" s="8">
+        <v>43462</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="11" spans="1:28" ht="14.1" customHeight="1">
       <c r="A11" s="13">
@@ -12868,6 +13010,16 @@
         <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
+      <c r="Z11" s="8">
+        <v>43830</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="12" spans="1:28" ht="14.1" customHeight="1">
       <c r="A12" s="13">
@@ -12918,6 +13070,16 @@
         <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
+      <c r="Z12" s="8">
+        <v>44196</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="13" spans="1:28" ht="14.1" customHeight="1">
       <c r="A13" s="13">
@@ -12968,6 +13130,16 @@
         <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
+      <c r="Z13" s="8">
+        <v>44561</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="14" spans="1:28" ht="14.1" customHeight="1">
       <c r="A14" s="13">
@@ -13014,6 +13186,16 @@
         <f t="shared" si="6"/>
         <v>-24000</v>
       </c>
+      <c r="Z14" s="8">
+        <v>44925</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="15" spans="1:28" ht="14.1" customHeight="1">
       <c r="A15" s="13">
@@ -13053,6 +13235,16 @@
       <c r="Y15" s="2">
         <v>133607.30544846162</v>
       </c>
+      <c r="Z15" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="16" spans="1:28" ht="14.1" customHeight="1">
       <c r="A16" s="13">
@@ -13086,8 +13278,14 @@
       <c r="Y16" s="24">
         <v>-9.5303314706246534E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.1" customHeight="1">
+      <c r="Z16" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>169026.31000231727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="14.1" customHeight="1">
       <c r="A17" s="13">
         <v>43280</v>
       </c>
@@ -13116,8 +13314,11 @@
         <v>-3098.0107870352113</v>
       </c>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.1" customHeight="1">
+      <c r="AB17" s="24">
+        <v>1.091929616280618E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="14.1" customHeight="1">
       <c r="A18" s="13">
         <v>43312</v>
       </c>
@@ -13147,7 +13348,7 @@
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:12" ht="14.1" customHeight="1">
+    <row r="19" spans="1:28" ht="14.1" customHeight="1">
       <c r="A19" s="13">
         <v>43343</v>
       </c>
@@ -13175,9 +13376,9 @@
       <c r="I19" s="15">
         <v>-4901.9066203802577</v>
       </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.1" customHeight="1">
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:28" ht="14.1" customHeight="1">
       <c r="A20" s="13">
         <v>43371</v>
       </c>
@@ -13205,9 +13406,9 @@
       <c r="I20" s="15">
         <v>-5911.0890497312321</v>
       </c>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.1" customHeight="1">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:28" ht="14.1" customHeight="1">
       <c r="A21" s="13">
         <v>43404</v>
       </c>
@@ -13237,7 +13438,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:12" ht="14.1" customHeight="1">
+    <row r="22" spans="1:28" ht="14.1" customHeight="1">
       <c r="A22" s="13">
         <v>43434</v>
       </c>
@@ -13267,7 +13468,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:12" ht="14.1" customHeight="1">
+    <row r="23" spans="1:28" ht="14.1" customHeight="1">
       <c r="A23" s="13">
         <v>43462</v>
       </c>
@@ -13298,7 +13499,7 @@
       <c r="J23" s="3"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="14.1" customHeight="1">
+    <row r="24" spans="1:28" ht="14.1" customHeight="1">
       <c r="A24" s="13">
         <v>43496</v>
       </c>
@@ -13328,7 +13529,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:12" ht="14.1" customHeight="1">
+    <row r="25" spans="1:28" ht="14.1" customHeight="1">
       <c r="A25" s="13">
         <v>43524</v>
       </c>
@@ -13358,7 +13559,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="14.1" customHeight="1">
+    <row r="26" spans="1:28" ht="14.1" customHeight="1">
       <c r="A26" s="13">
         <v>43553</v>
       </c>
@@ -13388,7 +13589,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="14.1" customHeight="1">
+    <row r="27" spans="1:28" ht="14.1" customHeight="1">
       <c r="A27" s="13">
         <v>43585</v>
       </c>
@@ -13418,7 +13619,7 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="14.1" customHeight="1">
+    <row r="28" spans="1:28" ht="14.1" customHeight="1">
       <c r="A28" s="13">
         <v>43616</v>
       </c>
@@ -13448,7 +13649,7 @@
       </c>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="14.1" customHeight="1">
+    <row r="29" spans="1:28" ht="14.1" customHeight="1">
       <c r="A29" s="13">
         <v>43644</v>
       </c>
@@ -13478,7 +13679,7 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="14.1" customHeight="1">
+    <row r="30" spans="1:28" ht="14.1" customHeight="1">
       <c r="A30" s="13">
         <v>43677</v>
       </c>
@@ -13508,7 +13709,7 @@
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="14.1" customHeight="1">
+    <row r="31" spans="1:28" ht="14.1" customHeight="1">
       <c r="A31" s="13">
         <v>43707</v>
       </c>
@@ -13538,7 +13739,7 @@
       </c>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="14.1" customHeight="1">
+    <row r="32" spans="1:28" ht="14.1" customHeight="1">
       <c r="A32" s="13">
         <v>43738</v>
       </c>
@@ -14860,7 +15061,6 @@
       <c r="I75" s="15">
         <v>35238.948960354406</v>
       </c>
-      <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:12" ht="12.75">
       <c r="A76" s="13">
@@ -15208,6 +15408,35 @@
       </c>
       <c r="I87" s="15">
         <v>9870.7539788506401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="12.75">
+      <c r="A88" s="13">
+        <v>45443</v>
+      </c>
+      <c r="B88" s="18">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C88" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D88" s="15">
+        <v>1737.6194267845765</v>
+      </c>
+      <c r="E88" s="15">
+        <v>149172.66021424384</v>
+      </c>
+      <c r="F88" s="15">
+        <v>171697.7353208859</v>
+      </c>
+      <c r="G88" s="15">
+        <v>172000</v>
+      </c>
+      <c r="H88" s="15">
+        <v>171697.7353208859</v>
+      </c>
+      <c r="I88" s="15">
+        <v>-302.26467911410145</v>
       </c>
     </row>
   </sheetData>
@@ -15221,7 +15450,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15257,13 +15486,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -15284,19 +15513,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -15306,7 +15535,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -15932,6 +16161,16 @@
         <f t="shared" ref="AE9:AE14" si="3">-AD9</f>
         <v>-19000</v>
       </c>
+      <c r="AF9" s="8">
+        <v>43098</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>19000</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" ref="AH9:AH15" si="4">-AG9</f>
+        <v>-19000</v>
+      </c>
     </row>
     <row r="10" spans="1:34" ht="14.1" customHeight="1">
       <c r="A10" s="13">
@@ -15979,6 +16218,27 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21"/>
+      <c r="R10" s="8">
+        <v>45289</v>
+      </c>
+      <c r="S10" s="5">
+        <v>24000</v>
+      </c>
+      <c r="T10" s="9">
+        <v>168000</v>
+      </c>
+      <c r="U10" s="9">
+        <v>177494.88460365258</v>
+      </c>
+      <c r="V10" s="9">
+        <v>9494.8846036525792</v>
+      </c>
+      <c r="W10" s="11">
+        <v>5.6517170259836783E-2</v>
+      </c>
+      <c r="X10" s="11">
+        <v>1.3933863862292117E-2</v>
+      </c>
       <c r="Z10" s="8">
         <v>43462</v>
       </c>
@@ -15997,6 +16257,16 @@
       </c>
       <c r="AE10" s="2">
         <f t="shared" si="3"/>
+        <v>-28000</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>43462</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>28000</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="4"/>
         <v>-28000</v>
       </c>
     </row>
@@ -16066,6 +16336,16 @@
         <f t="shared" si="3"/>
         <v>-24000</v>
       </c>
+      <c r="AF11" s="8">
+        <v>43830</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="4"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="13">
@@ -16133,6 +16413,16 @@
         <f t="shared" si="3"/>
         <v>-24000</v>
       </c>
+      <c r="AF12" s="8">
+        <v>44196</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="4"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="13">
@@ -16200,6 +16490,16 @@
         <f t="shared" si="3"/>
         <v>-24000</v>
       </c>
+      <c r="AF13" s="8">
+        <v>44561</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="4"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="13">
@@ -16263,6 +16563,16 @@
         <f t="shared" si="3"/>
         <v>-25000</v>
       </c>
+      <c r="AF14" s="8">
+        <v>44925</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>25000</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="4"/>
+        <v>-25000</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="13">
@@ -16319,6 +16629,16 @@
       <c r="AE15" s="2">
         <v>141309.20699342049</v>
       </c>
+      <c r="AF15" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="4"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="16" spans="1:34" ht="14.1" customHeight="1">
       <c r="A16" s="13">
@@ -16369,8 +16689,14 @@
       <c r="AE16" s="24">
         <v>-5.4846057597317532E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="14.1" customHeight="1">
+      <c r="AF16" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>177494.88460365258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="13">
         <v>43280</v>
       </c>
@@ -16416,8 +16742,11 @@
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
-    </row>
-    <row r="18" spans="1:18" ht="14.1" customHeight="1">
+      <c r="AH17" s="24">
+        <v>1.3933863862292117E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="13">
         <v>43312</v>
       </c>
@@ -16464,7 +16793,7 @@
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
     </row>
-    <row r="19" spans="1:18" ht="14.1" customHeight="1">
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="13">
         <v>43343</v>
       </c>
@@ -16511,7 +16840,7 @@
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
     </row>
-    <row r="20" spans="1:18" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="13">
         <v>43371</v>
       </c>
@@ -16558,7 +16887,7 @@
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
     </row>
-    <row r="21" spans="1:18" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="13">
         <v>43404</v>
       </c>
@@ -16605,7 +16934,7 @@
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
     </row>
-    <row r="22" spans="1:18" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="13">
         <v>43434</v>
       </c>
@@ -16652,7 +16981,7 @@
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
     </row>
-    <row r="23" spans="1:18" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="13">
         <v>43462</v>
       </c>
@@ -16700,7 +17029,7 @@
       <c r="Q23" s="21"/>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="13">
         <v>43496</v>
       </c>
@@ -16747,7 +17076,7 @@
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
     </row>
-    <row r="25" spans="1:18" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="13">
         <v>43524</v>
       </c>
@@ -16794,7 +17123,7 @@
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
     </row>
-    <row r="26" spans="1:18" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="13">
         <v>43553</v>
       </c>
@@ -16841,7 +17170,7 @@
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
     </row>
-    <row r="27" spans="1:18" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="13">
         <v>43585</v>
       </c>
@@ -16888,7 +17217,7 @@
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
     </row>
-    <row r="28" spans="1:18" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="13">
         <v>43616</v>
       </c>
@@ -16935,7 +17264,7 @@
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
     </row>
-    <row r="29" spans="1:18" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="13">
         <v>43644</v>
       </c>
@@ -16982,7 +17311,7 @@
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
     </row>
-    <row r="30" spans="1:18" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="13">
         <v>43677</v>
       </c>
@@ -17029,7 +17358,7 @@
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
     </row>
-    <row r="31" spans="1:18" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="13">
         <v>43707</v>
       </c>
@@ -17076,7 +17405,7 @@
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
     </row>
-    <row r="32" spans="1:18" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="13">
         <v>43738</v>
       </c>
@@ -19587,6 +19916,50 @@
       </c>
       <c r="N87" s="21">
         <v>51.200654623315721</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="12.75">
+      <c r="A88" s="13">
+        <v>45443</v>
+      </c>
+      <c r="B88" s="18">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C88" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D88" s="15">
+        <v>1737.6194267845765</v>
+      </c>
+      <c r="E88" s="15">
+        <v>157232.00107208602</v>
+      </c>
+      <c r="F88" s="15">
+        <v>180974.03683272592</v>
+      </c>
+      <c r="G88" s="15">
+        <v>179000</v>
+      </c>
+      <c r="H88" s="15">
+        <v>180974.03683272592</v>
+      </c>
+      <c r="I88" s="15">
+        <v>1974.0368327259202</v>
+      </c>
+      <c r="J88" s="21">
+        <v>0</v>
+      </c>
+      <c r="K88" s="21">
+        <v>3.2316893159166665E-2</v>
+      </c>
+      <c r="L88" s="21">
+        <v>6.9000005722045898E-2</v>
+      </c>
+      <c r="M88" s="23">
+        <v>7.4618125901338997E-2</v>
+      </c>
+      <c r="N88" s="21">
+        <v>43.309708959853076</v>
       </c>
     </row>
   </sheetData>
@@ -19600,7 +19973,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH87"/>
+  <dimension ref="A1:AH88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19636,7 +20009,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -19663,28 +20036,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -20372,6 +20745,16 @@
         <f t="shared" ref="AE9:AE14" si="5">-AD9</f>
         <v>-18000</v>
       </c>
+      <c r="AF9" s="8">
+        <v>43098</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>18000</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" ref="AH9:AH15" si="6">-AG9</f>
+        <v>-18000</v>
+      </c>
     </row>
     <row r="10" spans="1:34" ht="14.1" customHeight="1">
       <c r="A10" s="13">
@@ -20425,6 +20808,27 @@
       <c r="Q10" s="21">
         <v>55.924844300476877</v>
       </c>
+      <c r="R10" s="8">
+        <v>45289</v>
+      </c>
+      <c r="S10" s="5">
+        <v>25000</v>
+      </c>
+      <c r="T10" s="9">
+        <v>168000</v>
+      </c>
+      <c r="U10" s="9">
+        <v>176773.3275352972</v>
+      </c>
+      <c r="V10" s="9">
+        <v>8773.3275352971978</v>
+      </c>
+      <c r="W10" s="11">
+        <v>5.2222187710102369E-2</v>
+      </c>
+      <c r="X10" s="11">
+        <v>1.3097767436198504E-2</v>
+      </c>
       <c r="Z10" s="8">
         <v>43462</v>
       </c>
@@ -20445,6 +20849,16 @@
         <f t="shared" si="5"/>
         <v>-27000</v>
       </c>
+      <c r="AF10" s="8">
+        <v>43462</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>27000</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="6"/>
+        <v>-27000</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="13">
@@ -20518,6 +20932,16 @@
         <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
+      <c r="AF11" s="8">
+        <v>43830</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="6"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="13">
@@ -20591,6 +21015,16 @@
         <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
+      <c r="AF12" s="8">
+        <v>44196</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="6"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="13">
@@ -20664,6 +21098,16 @@
         <f t="shared" si="5"/>
         <v>-24000</v>
       </c>
+      <c r="AF13" s="8">
+        <v>44561</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="6"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="13">
@@ -20733,6 +21177,16 @@
         <f t="shared" si="5"/>
         <v>-26000</v>
       </c>
+      <c r="AF14" s="8">
+        <v>44925</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>26000</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="6"/>
+        <v>-26000</v>
+      </c>
     </row>
     <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="13">
@@ -20795,6 +21249,16 @@
       <c r="AE15" s="2">
         <v>139743.50512873946</v>
       </c>
+      <c r="AF15" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>25000</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="6"/>
+        <v>-25000</v>
+      </c>
     </row>
     <row r="16" spans="1:34" ht="14.1" customHeight="1">
       <c r="A16" s="13">
@@ -20851,8 +21315,14 @@
       <c r="AE16" s="24">
         <v>-6.7880447167628644E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="14.1" customHeight="1">
+      <c r="AF16" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>176773.3275352972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="14.1" customHeight="1">
       <c r="A17" s="13">
         <v>43280</v>
       </c>
@@ -20904,8 +21374,11 @@
       <c r="Q17" s="21">
         <v>16.287311161230534</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="14.1" customHeight="1">
+      <c r="AH17" s="24">
+        <v>1.3097767436198504E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="14.1" customHeight="1">
       <c r="A18" s="13">
         <v>43312</v>
       </c>
@@ -20958,7 +21431,7 @@
         <v>5.8427539252576537</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="14.1" customHeight="1">
+    <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="13">
         <v>43343</v>
       </c>
@@ -21011,7 +21484,7 @@
         <v>-4.3867379984749704</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="14.1" customHeight="1">
+    <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="13">
         <v>43371</v>
       </c>
@@ -21064,7 +21537,7 @@
         <v>-8.5165169023150256</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="14.1" customHeight="1">
+    <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="13">
         <v>43404</v>
       </c>
@@ -21117,7 +21590,7 @@
         <v>-4.7259157195168626</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.1" customHeight="1">
+    <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="13">
         <v>43434</v>
       </c>
@@ -21170,7 +21643,7 @@
         <v>5.4096563797217456</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="14.1" customHeight="1">
+    <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="13">
         <v>43462</v>
       </c>
@@ -21224,7 +21697,7 @@
       </c>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" ht="14.1" customHeight="1">
+    <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="13">
         <v>43496</v>
       </c>
@@ -21277,7 +21750,7 @@
         <v>9.3879340641525388</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="14.1" customHeight="1">
+    <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="13">
         <v>43524</v>
       </c>
@@ -21330,7 +21803,7 @@
         <v>58.875528906141291</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="14.1" customHeight="1">
+    <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="13">
         <v>43553</v>
       </c>
@@ -21383,7 +21856,7 @@
         <v>80.67260204345024</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="14.1" customHeight="1">
+    <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="13">
         <v>43585</v>
       </c>
@@ -21436,7 +21909,7 @@
         <v>82.245824555416519</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="14.1" customHeight="1">
+    <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="13">
         <v>43616</v>
       </c>
@@ -21489,7 +21962,7 @@
         <v>70.480353417634802</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="14.1" customHeight="1">
+    <row r="29" spans="1:34" ht="14.1" customHeight="1">
       <c r="A29" s="13">
         <v>43644</v>
       </c>
@@ -21542,7 +22015,7 @@
         <v>65.818311878760838</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="14.1" customHeight="1">
+    <row r="30" spans="1:34" ht="14.1" customHeight="1">
       <c r="A30" s="13">
         <v>43677</v>
       </c>
@@ -21595,7 +22068,7 @@
         <v>69.576294834845427</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="14.1" customHeight="1">
+    <row r="31" spans="1:34" ht="14.1" customHeight="1">
       <c r="A31" s="13">
         <v>43707</v>
       </c>
@@ -21648,7 +22121,7 @@
         <v>77.216161991546201</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="14.1" customHeight="1">
+    <row r="32" spans="1:34" ht="14.1" customHeight="1">
       <c r="A32" s="13">
         <v>43738</v>
       </c>
@@ -24618,6 +25091,59 @@
       </c>
       <c r="Q87" s="21">
         <v>56.062436758302724</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="12.75">
+      <c r="A88" s="13">
+        <v>45443</v>
+      </c>
+      <c r="B88" s="18">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="C88" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D88" s="15">
+        <v>1737.6194267845765</v>
+      </c>
+      <c r="E88" s="15">
+        <v>156632.7011795266</v>
+      </c>
+      <c r="F88" s="15">
+        <v>180284.24264267314</v>
+      </c>
+      <c r="G88" s="15">
+        <v>179000</v>
+      </c>
+      <c r="H88" s="15">
+        <v>180284.24264267314</v>
+      </c>
+      <c r="I88" s="15">
+        <v>1284.2426426731399</v>
+      </c>
+      <c r="J88" s="15">
+        <v>1.2450000047683716</v>
+      </c>
+      <c r="K88" s="15">
+        <v>1.1390000581741333</v>
+      </c>
+      <c r="L88" s="19">
+        <v>1.3070000410079956</v>
+      </c>
+      <c r="M88" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N88" s="21">
+        <v>60</v>
+      </c>
+      <c r="O88" s="21">
+        <v>47.243536579477528</v>
+      </c>
+      <c r="P88" s="21">
+        <v>37.925671476274552</v>
+      </c>
+      <c r="Q88" s="21">
+        <v>65.879266785883473</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -701,7 +697,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -959,6 +955,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -968,7 +967,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1226,6 +1225,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>172000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>174000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1268,7 +1270,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1526,6 +1528,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1535,7 +1540,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1793,6 +1798,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>171697.7353208859</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>174443.59791064644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1835,7 +1843,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2093,6 +2101,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2102,7 +2113,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2360,6 +2371,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>-302.26467911410145</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>443.5979106464365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,11 +2395,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477482368"/>
-        <c:axId val="477660288"/>
+        <c:axId val="538706688"/>
+        <c:axId val="538708224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477482368"/>
+        <c:axId val="538706688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,14 +2439,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477660288"/>
+        <c:crossAx val="538708224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477660288"/>
+        <c:axId val="538708224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2481,7 +2495,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477482368"/>
+        <c:crossAx val="538706688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2611,7 +2625,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2869,6 +2883,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2878,7 +2895,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3136,6 +3153,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>172000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>174000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3169,7 +3189,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3427,6 +3447,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3436,7 +3459,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3694,6 +3717,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>171697.7353208859</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>174443.59791064644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3727,7 +3753,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3985,6 +4011,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3994,7 +4023,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4252,6 +4281,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>-302.26467911410145</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>443.5979106464365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4273,11 +4305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477859840"/>
-        <c:axId val="477861760"/>
+        <c:axId val="538969600"/>
+        <c:axId val="538971136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477859840"/>
+        <c:axId val="538969600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4287,14 +4319,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="477861760"/>
+        <c:crossAx val="538971136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477861760"/>
+        <c:axId val="538971136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4305,7 +4337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="477859840"/>
+        <c:crossAx val="538969600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4427,7 +4459,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4685,6 +4717,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4694,7 +4729,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4952,6 +4987,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>179000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>181000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4994,7 +5032,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5252,6 +5290,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5261,7 +5302,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5519,6 +5560,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>180974.03683272592</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>183760.19608834572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5561,7 +5605,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5819,6 +5863,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5828,7 +5875,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6086,6 +6133,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1974.0368327259202</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2760.1960883457214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6107,11 +6157,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574334080"/>
-        <c:axId val="574335616"/>
+        <c:axId val="540421504"/>
+        <c:axId val="596340096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574334080"/>
+        <c:axId val="540421504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6151,14 +6201,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574335616"/>
+        <c:crossAx val="596340096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574335616"/>
+        <c:axId val="596340096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6207,7 +6257,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574334080"/>
+        <c:crossAx val="540421504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6337,7 +6387,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6595,6 +6645,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6604,7 +6657,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6862,6 +6915,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>179000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>181000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6895,7 +6951,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7153,6 +7209,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7162,7 +7221,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7420,6 +7479,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>180974.03683272592</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>183760.19608834572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7453,7 +7515,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7711,6 +7773,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7720,7 +7785,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7978,6 +8043,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1974.0368327259202</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2760.1960883457214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7999,11 +8067,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="759835264"/>
-        <c:axId val="787980672"/>
+        <c:axId val="595392768"/>
+        <c:axId val="595394560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="759835264"/>
+        <c:axId val="595392768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8013,14 +8081,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="787980672"/>
+        <c:crossAx val="595394560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="787980672"/>
+        <c:axId val="595394560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8031,7 +8099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="759835264"/>
+        <c:crossAx val="595392768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8153,7 +8221,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8411,6 +8479,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8420,7 +8491,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8678,6 +8749,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>179000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>181000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8720,7 +8794,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8978,6 +9052,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8987,7 +9064,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9245,6 +9322,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>180284.24264267314</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>183067.40540168784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9287,7 +9367,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9545,6 +9625,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9554,7 +9637,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9812,6 +9895,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1284.2426426731399</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2067.4054016878363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9833,11 +9919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495488384"/>
-        <c:axId val="495494272"/>
+        <c:axId val="595797504"/>
+        <c:axId val="595799040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495488384"/>
+        <c:axId val="595797504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9877,14 +9963,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495494272"/>
+        <c:crossAx val="595799040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495494272"/>
+        <c:axId val="595799040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9933,7 +10019,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495488384"/>
+        <c:crossAx val="595797504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10063,7 +10149,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10321,6 +10407,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10330,7 +10419,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10588,6 +10677,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>179000</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>181000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10621,7 +10713,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10879,6 +10971,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10888,7 +10983,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11146,6 +11241,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>180284.24264267314</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>183067.40540168784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11179,7 +11277,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11437,6 +11535,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11446,7 +11547,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="87"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11704,6 +11805,9 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>1284.2426426731399</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2067.4054016878363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11725,11 +11829,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496244992"/>
-        <c:axId val="496250880"/>
+        <c:axId val="595837312"/>
+        <c:axId val="595838848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496244992"/>
+        <c:axId val="595837312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11739,14 +11843,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496250880"/>
+        <c:crossAx val="595838848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496250880"/>
+        <c:axId val="595838848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11757,7 +11861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496244992"/>
+        <c:crossAx val="595837312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11799,7 +11903,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11837,7 +11941,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11878,7 +11982,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11916,7 +12020,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11959,7 +12063,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11997,7 +12101,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12275,7 +12379,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12284,7 +12388,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB88"/>
+  <dimension ref="A1:AB89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15439,6 +15543,35 @@
         <v>-302.26467911410145</v>
       </c>
     </row>
+    <row r="89" spans="1:9" ht="12.75">
+      <c r="A89" s="13">
+        <v>45471</v>
+      </c>
+      <c r="B89" s="18">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C89" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D89" s="15">
+        <v>1730.1037791097274</v>
+      </c>
+      <c r="E89" s="15">
+        <v>150902.76399335355</v>
+      </c>
+      <c r="F89" s="15">
+        <v>174443.59791064644</v>
+      </c>
+      <c r="G89" s="15">
+        <v>174000</v>
+      </c>
+      <c r="H89" s="15">
+        <v>174443.59791064644</v>
+      </c>
+      <c r="I89" s="15">
+        <v>443.5979106464365</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15450,7 +15583,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15486,7 +15619,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -15513,19 +15646,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -15535,7 +15668,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -19960,6 +20093,50 @@
       </c>
       <c r="N88" s="21">
         <v>43.309708959853076</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="12.75">
+      <c r="A89" s="13">
+        <v>45471</v>
+      </c>
+      <c r="B89" s="18">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C89" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D89" s="15">
+        <v>1730.1037791097274</v>
+      </c>
+      <c r="E89" s="15">
+        <v>158962.10485119573</v>
+      </c>
+      <c r="F89" s="15">
+        <v>183760.19608834572</v>
+      </c>
+      <c r="G89" s="15">
+        <v>181000</v>
+      </c>
+      <c r="H89" s="15">
+        <v>183760.19608834572</v>
+      </c>
+      <c r="I89" s="15">
+        <v>2760.1960883457214</v>
+      </c>
+      <c r="J89" s="21">
+        <v>4.999995231628418E-3</v>
+      </c>
+      <c r="K89" s="21">
+        <v>2.7764076837910292E-2</v>
+      </c>
+      <c r="L89" s="21">
+        <v>4.999995231628418E-3</v>
+      </c>
+      <c r="M89" s="23">
+        <v>6.3015104123053903E-2</v>
+      </c>
+      <c r="N89" s="21">
+        <v>44.05940008238894</v>
       </c>
     </row>
   </sheetData>
@@ -19973,7 +20150,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH88"/>
+  <dimension ref="A1:AH89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20036,28 +20213,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -25146,6 +25323,59 @@
         <v>65.879266785883473</v>
       </c>
     </row>
+    <row r="89" spans="1:17" ht="12.75">
+      <c r="A89" s="13">
+        <v>45471</v>
+      </c>
+      <c r="B89" s="18">
+        <v>1.156000018119812</v>
+      </c>
+      <c r="C89" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D89" s="15">
+        <v>1730.1037791097274</v>
+      </c>
+      <c r="E89" s="15">
+        <v>158362.80495863632</v>
+      </c>
+      <c r="F89" s="15">
+        <v>183067.40540168784</v>
+      </c>
+      <c r="G89" s="15">
+        <v>181000</v>
+      </c>
+      <c r="H89" s="15">
+        <v>183067.40540168784</v>
+      </c>
+      <c r="I89" s="15">
+        <v>2067.4054016878363</v>
+      </c>
+      <c r="J89" s="15">
+        <v>1.2339999675750732</v>
+      </c>
+      <c r="K89" s="15">
+        <v>1.1360000371932983</v>
+      </c>
+      <c r="L89" s="19">
+        <v>1.284000039100647</v>
+      </c>
+      <c r="M89" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N89" s="21">
+        <v>65.122614210687615</v>
+      </c>
+      <c r="O89" s="21">
+        <v>53.203229123214221</v>
+      </c>
+      <c r="P89" s="21">
+        <v>43.018190691921113</v>
+      </c>
+      <c r="Q89" s="21">
+        <v>73.573305985800445</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="17280" windowHeight="8880" tabRatio="612" activeTab="2"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="15600" windowHeight="8880" tabRatio="612" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,18 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -697,7 +709,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -958,6 +970,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -967,7 +982,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1228,6 +1243,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>174000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>176000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,7 +1288,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1531,6 +1549,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,7 +1561,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1801,6 +1822,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>174443.59791064644</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>175085.46353650829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1843,7 +1867,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2104,6 +2128,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2113,7 +2140,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2374,6 +2401,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>443.5979106464365</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-914.53646349170594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2395,11 +2425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538706688"/>
-        <c:axId val="538708224"/>
+        <c:axId val="533949824"/>
+        <c:axId val="533957248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538706688"/>
+        <c:axId val="533949824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,14 +2469,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538708224"/>
+        <c:crossAx val="533957248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538708224"/>
+        <c:axId val="533957248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,7 +2525,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538706688"/>
+        <c:crossAx val="533949824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2625,7 +2655,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2886,6 +2916,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2895,7 +2928,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3156,6 +3189,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>174000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>176000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3189,7 +3225,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3450,6 +3486,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3459,7 +3498,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3720,6 +3759,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>174443.59791064644</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>175085.46353650829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3753,7 +3795,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4014,6 +4056,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4023,7 +4068,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4284,6 +4329,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>443.5979106464365</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-914.53646349170594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4305,11 +4353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538969600"/>
-        <c:axId val="538971136"/>
+        <c:axId val="534078592"/>
+        <c:axId val="534080128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538969600"/>
+        <c:axId val="534078592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4319,14 +4367,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538971136"/>
+        <c:crossAx val="534080128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538971136"/>
+        <c:axId val="534080128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4337,7 +4385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538969600"/>
+        <c:crossAx val="534078592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4459,7 +4507,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4720,6 +4768,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4729,7 +4780,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4990,6 +5041,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>181000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>183000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5032,7 +5086,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5293,6 +5347,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5302,7 +5359,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5563,6 +5620,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>183760.19608834572</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>184329.52713921192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5605,7 +5665,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5866,6 +5926,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5875,7 +5938,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6136,6 +6199,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2760.1960883457214</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1329.5271392119175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6157,11 +6223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540421504"/>
-        <c:axId val="596340096"/>
+        <c:axId val="562592768"/>
+        <c:axId val="563995392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540421504"/>
+        <c:axId val="562592768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6201,14 +6267,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596340096"/>
+        <c:crossAx val="563995392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="596340096"/>
+        <c:axId val="563995392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6257,7 +6323,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540421504"/>
+        <c:crossAx val="562592768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6387,7 +6453,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6648,6 +6714,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6657,7 +6726,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6918,6 +6987,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>181000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>183000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6951,7 +7023,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7212,6 +7284,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7221,7 +7296,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7482,6 +7557,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>183760.19608834572</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>184329.52713921192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7515,7 +7593,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7776,6 +7854,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7785,7 +7866,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8046,6 +8127,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2760.1960883457214</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1329.5271392119175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8067,11 +8151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="595392768"/>
-        <c:axId val="595394560"/>
+        <c:axId val="495946368"/>
+        <c:axId val="495952256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="595392768"/>
+        <c:axId val="495946368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8081,14 +8165,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="595394560"/>
+        <c:crossAx val="495952256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595394560"/>
+        <c:axId val="495952256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8099,7 +8183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="595392768"/>
+        <c:crossAx val="495946368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8221,7 +8305,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8482,6 +8566,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8491,7 +8578,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8752,6 +8839,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>181000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>183000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8794,7 +8884,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9055,6 +9145,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9064,7 +9157,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9325,6 +9418,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>183067.40540168784</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>183642.13018930849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9367,7 +9463,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9628,6 +9724,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9637,7 +9736,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9898,6 +9997,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2067.4054016878363</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>642.13018930848921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9919,11 +10021,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="595797504"/>
-        <c:axId val="595799040"/>
+        <c:axId val="496183168"/>
+        <c:axId val="496184704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="595797504"/>
+        <c:axId val="496183168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9963,14 +10065,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595799040"/>
+        <c:crossAx val="496184704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595799040"/>
+        <c:axId val="496184704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10019,7 +10121,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595797504"/>
+        <c:crossAx val="496183168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10149,7 +10251,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10410,6 +10512,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10419,7 +10524,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10680,6 +10785,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>181000</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>183000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10713,7 +10821,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10974,6 +11082,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10983,7 +11094,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11244,6 +11355,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>183067.40540168784</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>183642.13018930849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11277,7 +11391,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11538,6 +11652,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11547,7 +11664,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11808,6 +11925,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>2067.4054016878363</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>642.13018930848921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11829,11 +11949,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="595837312"/>
-        <c:axId val="595838848"/>
+        <c:axId val="496227072"/>
+        <c:axId val="496228608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="595837312"/>
+        <c:axId val="496227072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11843,14 +11963,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="595838848"/>
+        <c:crossAx val="496228608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="595838848"/>
+        <c:axId val="496228608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11861,7 +11981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="595837312"/>
+        <c:crossAx val="496227072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11903,7 +12023,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11941,7 +12061,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11982,7 +12102,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12020,7 +12140,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12063,7 +12183,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12101,7 +12221,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12379,7 +12499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12388,7 +12508,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB89"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15572,6 +15692,35 @@
         <v>443.5979106464365</v>
       </c>
     </row>
+    <row r="90" spans="1:9" ht="12.75">
+      <c r="A90" s="13">
+        <v>45504</v>
+      </c>
+      <c r="B90" s="18">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C90" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D90" s="15">
+        <v>1743.6792311738436</v>
+      </c>
+      <c r="E90" s="15">
+        <v>152646.44322452741</v>
+      </c>
+      <c r="F90" s="15">
+        <v>175085.46353650829</v>
+      </c>
+      <c r="G90" s="15">
+        <v>176000</v>
+      </c>
+      <c r="H90" s="15">
+        <v>175085.46353650829</v>
+      </c>
+      <c r="I90" s="15">
+        <v>-914.53646349170594</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15583,7 +15732,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20139,6 +20288,50 @@
         <v>44.05940008238894</v>
       </c>
     </row>
+    <row r="90" spans="1:14" ht="12.75">
+      <c r="A90" s="13">
+        <v>45504</v>
+      </c>
+      <c r="B90" s="18">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C90" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D90" s="15">
+        <v>1743.6792311738436</v>
+      </c>
+      <c r="E90" s="15">
+        <v>160705.78408236959</v>
+      </c>
+      <c r="F90" s="15">
+        <v>184329.52713921192</v>
+      </c>
+      <c r="G90" s="15">
+        <v>183000</v>
+      </c>
+      <c r="H90" s="15">
+        <v>184329.52713921192</v>
+      </c>
+      <c r="I90" s="15">
+        <v>1329.5271392119175</v>
+      </c>
+      <c r="J90" s="21">
+        <v>0</v>
+      </c>
+      <c r="K90" s="21">
+        <v>2.3136730698258574E-2</v>
+      </c>
+      <c r="L90" s="21">
+        <v>9.0000629425048828E-3</v>
+      </c>
+      <c r="M90" s="23">
+        <v>5.4012597259629064E-2</v>
+      </c>
+      <c r="N90" s="21">
+        <v>42.83580474207595</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20150,7 +20343,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH89"/>
+  <dimension ref="A1:AH90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20186,13 +20379,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -20213,28 +20406,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -25376,6 +25569,59 @@
         <v>73.573305985800445</v>
       </c>
     </row>
+    <row r="90" spans="1:17" ht="12.75">
+      <c r="A90" s="13">
+        <v>45504</v>
+      </c>
+      <c r="B90" s="18">
+        <v>1.1469999551773071</v>
+      </c>
+      <c r="C90" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D90" s="15">
+        <v>1743.6792311738436</v>
+      </c>
+      <c r="E90" s="15">
+        <v>160106.48418981017</v>
+      </c>
+      <c r="F90" s="15">
+        <v>183642.13018930849</v>
+      </c>
+      <c r="G90" s="15">
+        <v>183000</v>
+      </c>
+      <c r="H90" s="15">
+        <v>183642.13018930849</v>
+      </c>
+      <c r="I90" s="15">
+        <v>642.13018930848921</v>
+      </c>
+      <c r="J90" s="15">
+        <v>1.1890000104904175</v>
+      </c>
+      <c r="K90" s="15">
+        <v>1.1180000305175781</v>
+      </c>
+      <c r="L90" s="19">
+        <v>1.284000039100647</v>
+      </c>
+      <c r="M90" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N90" s="21">
+        <v>62.67028127379821</v>
+      </c>
+      <c r="O90" s="21">
+        <v>56.358913173408887</v>
+      </c>
+      <c r="P90" s="21">
+        <v>47.465098185750371</v>
+      </c>
+      <c r="Q90" s="21">
+        <v>74.146543148725911</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,18 +129,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -709,7 +701,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -973,6 +965,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,7 +977,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1246,6 +1241,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>176000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>178000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,7 +1286,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1552,6 +1550,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,7 +1562,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1825,6 +1826,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>175085.46353650829</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>161210.23766283222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1867,7 +1871,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2131,6 +2135,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2140,7 +2147,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2404,6 +2411,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>-914.53646349170594</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-16789.762337167776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,11 +2435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533949824"/>
-        <c:axId val="533957248"/>
+        <c:axId val="494011136"/>
+        <c:axId val="494013056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533949824"/>
+        <c:axId val="494011136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,14 +2479,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533957248"/>
+        <c:crossAx val="494013056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533957248"/>
+        <c:axId val="494013056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2525,7 +2535,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533949824"/>
+        <c:crossAx val="494011136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2655,7 +2665,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2919,6 +2929,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2928,7 +2941,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3192,6 +3205,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>176000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>178000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3225,7 +3241,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3489,6 +3505,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3498,7 +3517,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3762,6 +3781,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>175085.46353650829</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>161210.23766283222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3795,7 +3817,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4059,6 +4081,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4068,7 +4093,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4332,6 +4357,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>-914.53646349170594</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-16789.762337167776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4353,11 +4381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="534078592"/>
-        <c:axId val="534080128"/>
+        <c:axId val="683906560"/>
+        <c:axId val="683908096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534078592"/>
+        <c:axId val="683906560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4367,14 +4395,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534080128"/>
+        <c:crossAx val="683908096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534080128"/>
+        <c:axId val="683908096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4385,7 +4413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534078592"/>
+        <c:crossAx val="683906560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4507,7 +4535,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4771,6 +4799,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4780,7 +4811,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5044,6 +5075,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>183000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>185000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5086,7 +5120,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5350,6 +5384,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5359,7 +5396,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5623,6 +5660,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>184329.52713921192</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>169616.13003921387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5665,7 +5705,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5929,6 +5969,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5938,7 +5981,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6202,6 +6245,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1329.5271392119175</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-15383.869960786134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6223,11 +6269,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562592768"/>
-        <c:axId val="563995392"/>
+        <c:axId val="696913920"/>
+        <c:axId val="696915456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562592768"/>
+        <c:axId val="696913920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6267,14 +6313,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563995392"/>
+        <c:crossAx val="696915456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563995392"/>
+        <c:axId val="696915456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6323,7 +6369,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562592768"/>
+        <c:crossAx val="696913920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6453,7 +6499,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6717,6 +6763,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6726,7 +6775,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6990,6 +7039,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>183000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>185000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7023,7 +7075,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7287,6 +7339,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7296,7 +7351,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7560,6 +7615,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>184329.52713921192</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>169616.13003921387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7593,7 +7651,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7857,6 +7915,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7866,7 +7927,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8130,6 +8191,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1329.5271392119175</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-15383.869960786134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8151,11 +8215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495946368"/>
-        <c:axId val="495952256"/>
+        <c:axId val="489032704"/>
+        <c:axId val="489034496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="495946368"/>
+        <c:axId val="489032704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8165,14 +8229,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495952256"/>
+        <c:crossAx val="489034496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="495952256"/>
+        <c:axId val="489034496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8183,7 +8247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="495946368"/>
+        <c:crossAx val="489032704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8305,7 +8369,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8569,6 +8633,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8578,7 +8645,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8842,6 +8909,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>183000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>185000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8884,7 +8954,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9148,6 +9218,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9157,7 +9230,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9421,6 +9494,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>183642.13018930849</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>168991.06026156206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9463,7 +9539,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9727,6 +9803,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9736,7 +9815,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10000,6 +10079,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>642.13018930848921</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-16008.939738437941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10021,11 +10103,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496183168"/>
-        <c:axId val="496184704"/>
+        <c:axId val="489093376"/>
+        <c:axId val="489099264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496183168"/>
+        <c:axId val="489093376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10065,14 +10147,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496184704"/>
+        <c:crossAx val="489099264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496184704"/>
+        <c:axId val="489099264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10121,7 +10203,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496183168"/>
+        <c:crossAx val="489093376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10251,7 +10333,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10515,6 +10597,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10524,7 +10609,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10788,6 +10873,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>183000</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>185000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10821,7 +10909,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11085,6 +11173,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11094,7 +11185,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11358,6 +11449,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>183642.13018930849</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>168991.06026156206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11391,7 +11485,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11655,6 +11749,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11664,7 +11761,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11928,6 +12025,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>642.13018930848921</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-16008.939738437941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11949,11 +12049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496227072"/>
-        <c:axId val="496228608"/>
+        <c:axId val="489116800"/>
+        <c:axId val="489118336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496227072"/>
+        <c:axId val="489116800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11963,14 +12063,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496228608"/>
+        <c:crossAx val="489118336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496228608"/>
+        <c:axId val="489118336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11981,7 +12081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496227072"/>
+        <c:crossAx val="489116800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12023,7 +12123,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12061,7 +12161,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12102,7 +12202,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12140,7 +12240,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12183,7 +12283,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12221,7 +12321,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12499,7 +12599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12508,7 +12608,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB90"/>
+  <dimension ref="A1:AB91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15721,6 +15821,35 @@
         <v>-914.53646349170594</v>
       </c>
     </row>
+    <row r="91" spans="1:9" ht="12.75">
+      <c r="A91" s="13">
+        <v>45534</v>
+      </c>
+      <c r="B91" s="18">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C91" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D91" s="15">
+        <v>1917.5455732663963</v>
+      </c>
+      <c r="E91" s="15">
+        <v>154563.98879779381</v>
+      </c>
+      <c r="F91" s="15">
+        <v>161210.23766283222</v>
+      </c>
+      <c r="G91" s="15">
+        <v>178000</v>
+      </c>
+      <c r="H91" s="15">
+        <v>161210.23766283222</v>
+      </c>
+      <c r="I91" s="15">
+        <v>-16789.762337167776</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15732,7 +15861,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15768,7 +15897,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -15795,19 +15924,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -15817,7 +15946,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -20330,6 +20459,50 @@
       </c>
       <c r="N90" s="21">
         <v>42.83580474207595</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="12.75">
+      <c r="A91" s="13">
+        <v>45534</v>
+      </c>
+      <c r="B91" s="18">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C91" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D91" s="15">
+        <v>1917.5455732663963</v>
+      </c>
+      <c r="E91" s="15">
+        <v>162623.32965563599</v>
+      </c>
+      <c r="F91" s="15">
+        <v>169616.13003921387</v>
+      </c>
+      <c r="G91" s="15">
+        <v>185000</v>
+      </c>
+      <c r="H91" s="15">
+        <v>169616.13003921387</v>
+      </c>
+      <c r="I91" s="15">
+        <v>-15383.869960786134</v>
+      </c>
+      <c r="J91" s="21">
+        <v>0</v>
+      </c>
+      <c r="K91" s="21">
+        <v>1.9280608915215477E-2</v>
+      </c>
+      <c r="L91" s="21">
+        <v>0.10399997234344482</v>
+      </c>
+      <c r="M91" s="23">
+        <v>6.2343826440265017E-2</v>
+      </c>
+      <c r="N91" s="21">
+        <v>30.926252070346163</v>
       </c>
     </row>
   </sheetData>
@@ -20343,7 +20516,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH90"/>
+  <dimension ref="A1:AH91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20379,13 +20552,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -20406,28 +20579,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -25622,6 +25795,59 @@
         <v>74.146543148725911</v>
       </c>
     </row>
+    <row r="91" spans="1:17" ht="12.75">
+      <c r="A91" s="13">
+        <v>45534</v>
+      </c>
+      <c r="B91" s="18">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="C91" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D91" s="15">
+        <v>1917.5455732663963</v>
+      </c>
+      <c r="E91" s="15">
+        <v>162024.02976307657</v>
+      </c>
+      <c r="F91" s="15">
+        <v>168991.06026156206</v>
+      </c>
+      <c r="G91" s="15">
+        <v>185000</v>
+      </c>
+      <c r="H91" s="15">
+        <v>168991.06026156206</v>
+      </c>
+      <c r="I91" s="15">
+        <v>-16008.939738437941</v>
+      </c>
+      <c r="J91" s="15">
+        <v>1.159000039100647</v>
+      </c>
+      <c r="K91" s="15">
+        <v>1</v>
+      </c>
+      <c r="L91" s="19">
+        <v>1.284000039100647</v>
+      </c>
+      <c r="M91" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N91" s="21">
+        <v>34.332417500766169</v>
+      </c>
+      <c r="O91" s="21">
+        <v>49.016747949194645</v>
+      </c>
+      <c r="P91" s="21">
+        <v>47.982314773565129</v>
+      </c>
+      <c r="Q91" s="21">
+        <v>51.085614300453685</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -701,7 +697,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -968,6 +964,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,7 +976,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1244,6 +1243,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>178000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>180000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,7 +1288,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1553,6 +1555,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,7 +1567,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1829,6 +1834,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>161210.23766283222</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>202624.05406925111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1871,7 +1879,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2138,6 +2146,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,7 +2158,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2414,6 +2425,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-16789.762337167776</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22624.054069251113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2435,11 +2449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494011136"/>
-        <c:axId val="494013056"/>
+        <c:axId val="472424832"/>
+        <c:axId val="472427904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494011136"/>
+        <c:axId val="472424832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,14 +2493,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494013056"/>
+        <c:crossAx val="472427904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494013056"/>
+        <c:axId val="472427904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,7 +2549,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494011136"/>
+        <c:crossAx val="472424832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2665,7 +2679,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2932,6 +2946,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2941,7 +2958,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3208,6 +3225,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>178000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>180000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3241,7 +3261,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3508,6 +3528,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3517,7 +3540,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3784,6 +3807,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>161210.23766283222</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>202624.05406925111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3817,7 +3843,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4084,6 +4110,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4093,7 +4122,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4360,6 +4389,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-16789.762337167776</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>22624.054069251113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4381,11 +4413,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="683906560"/>
-        <c:axId val="683908096"/>
+        <c:axId val="472670592"/>
+        <c:axId val="472672512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="683906560"/>
+        <c:axId val="472670592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4395,14 +4427,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683908096"/>
+        <c:crossAx val="472672512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="683908096"/>
+        <c:axId val="472672512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4413,7 +4445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="683906560"/>
+        <c:crossAx val="472670592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4535,7 +4567,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4802,6 +4834,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4811,7 +4846,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5078,6 +5113,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>187000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5120,7 +5158,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5387,6 +5425,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5396,7 +5437,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5663,6 +5704,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>169616.13003921387</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>213085.07832595258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5705,7 +5749,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5972,6 +6016,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5981,7 +6028,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6248,6 +6295,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-15383.869960786134</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26085.078325952578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6269,11 +6319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="696913920"/>
-        <c:axId val="696915456"/>
+        <c:axId val="559153920"/>
+        <c:axId val="559155456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="696913920"/>
+        <c:axId val="559153920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6313,14 +6363,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696915456"/>
+        <c:crossAx val="559155456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="696915456"/>
+        <c:axId val="559155456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6369,7 +6419,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696913920"/>
+        <c:crossAx val="559153920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6499,7 +6549,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6766,6 +6816,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6775,7 +6828,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7042,6 +7095,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>187000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7075,7 +7131,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7342,6 +7398,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7351,7 +7410,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7618,6 +7677,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>169616.13003921387</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>213085.07832595258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7651,7 +7713,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7918,6 +7980,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7927,7 +7992,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8194,6 +8259,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-15383.869960786134</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26085.078325952578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8215,11 +8283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489032704"/>
-        <c:axId val="489034496"/>
+        <c:axId val="559189376"/>
+        <c:axId val="559199360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489032704"/>
+        <c:axId val="559189376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8229,14 +8297,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489034496"/>
+        <c:crossAx val="559199360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489034496"/>
+        <c:axId val="559199360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8247,7 +8315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489032704"/>
+        <c:crossAx val="559189376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8369,7 +8437,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8636,6 +8704,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8645,7 +8716,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8912,6 +8983,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>187000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8954,7 +9028,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9221,6 +9295,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9230,7 +9307,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9497,6 +9574,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>168991.06026156206</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>212307.18707855581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9539,7 +9619,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9806,6 +9886,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9815,7 +9898,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10082,6 +10165,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-16008.939738437941</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25307.187078555813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10103,11 +10189,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489093376"/>
-        <c:axId val="489099264"/>
+        <c:axId val="559282816"/>
+        <c:axId val="559292800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489093376"/>
+        <c:axId val="559282816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10147,14 +10233,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489099264"/>
+        <c:crossAx val="559292800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489099264"/>
+        <c:axId val="559292800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10203,7 +10289,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489093376"/>
+        <c:crossAx val="559282816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10333,7 +10419,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10600,6 +10686,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10609,7 +10698,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10876,6 +10965,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>185000</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>187000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10909,7 +11001,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11176,6 +11268,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11185,7 +11280,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11452,6 +11547,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>168991.06026156206</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>212307.18707855581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11485,7 +11583,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11752,6 +11850,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11761,7 +11862,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="90"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12028,6 +12129,9 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-16008.939738437941</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25307.187078555813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12049,11 +12153,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489116800"/>
-        <c:axId val="489118336"/>
+        <c:axId val="559326720"/>
+        <c:axId val="559328256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489116800"/>
+        <c:axId val="559326720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12063,14 +12167,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489118336"/>
+        <c:crossAx val="559328256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489118336"/>
+        <c:axId val="559328256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12081,7 +12185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489116800"/>
+        <c:crossAx val="559326720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12123,7 +12227,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12161,7 +12265,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12202,7 +12306,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12240,7 +12344,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12283,7 +12387,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12321,7 +12425,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12599,7 +12703,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12608,7 +12712,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB91"/>
+  <dimension ref="A1:AB92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15850,6 +15954,35 @@
         <v>-16789.762337167776</v>
       </c>
     </row>
+    <row r="92" spans="1:9" ht="12.75">
+      <c r="A92" s="13">
+        <v>45565</v>
+      </c>
+      <c r="B92" s="18">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C92" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D92" s="15">
+        <v>1540.8320753446806</v>
+      </c>
+      <c r="E92" s="15">
+        <v>156104.82087313849</v>
+      </c>
+      <c r="F92" s="15">
+        <v>202624.05406925111</v>
+      </c>
+      <c r="G92" s="15">
+        <v>180000</v>
+      </c>
+      <c r="H92" s="15">
+        <v>202624.05406925111</v>
+      </c>
+      <c r="I92" s="15">
+        <v>22624.054069251113</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15861,7 +15994,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15897,7 +16030,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -15924,19 +16057,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -15946,7 +16079,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -20503,6 +20636,50 @@
       </c>
       <c r="N91" s="21">
         <v>30.926252070346163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="12.75">
+      <c r="A92" s="13">
+        <v>45565</v>
+      </c>
+      <c r="B92" s="18">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C92" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D92" s="15">
+        <v>1540.8320753446806</v>
+      </c>
+      <c r="E92" s="15">
+        <v>164164.16173098068</v>
+      </c>
+      <c r="F92" s="15">
+        <v>213085.07832595258</v>
+      </c>
+      <c r="G92" s="15">
+        <v>187000</v>
+      </c>
+      <c r="H92" s="15">
+        <v>213085.07832595258</v>
+      </c>
+      <c r="I92" s="15">
+        <v>26085.078325952578</v>
+      </c>
+      <c r="J92" s="21">
+        <v>0.25499999523162842</v>
+      </c>
+      <c r="K92" s="21">
+        <v>5.8567173301284303E-2</v>
+      </c>
+      <c r="L92" s="21">
+        <v>0.25499999523162842</v>
+      </c>
+      <c r="M92" s="23">
+        <v>9.4453187905492245E-2</v>
+      </c>
+      <c r="N92" s="21">
+        <v>62.006560710142793</v>
       </c>
     </row>
   </sheetData>
@@ -20516,7 +20693,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH91"/>
+  <dimension ref="A1:AH92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20552,7 +20729,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -20579,28 +20756,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -25848,6 +26025,59 @@
         <v>51.085614300453685</v>
       </c>
     </row>
+    <row r="92" spans="1:17" ht="12.75">
+      <c r="A92" s="13">
+        <v>45565</v>
+      </c>
+      <c r="B92" s="18">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="C92" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D92" s="15">
+        <v>1540.8320753446806</v>
+      </c>
+      <c r="E92" s="15">
+        <v>163564.86183842126</v>
+      </c>
+      <c r="F92" s="15">
+        <v>212307.18707855581</v>
+      </c>
+      <c r="G92" s="15">
+        <v>187000</v>
+      </c>
+      <c r="H92" s="15">
+        <v>212307.18707855581</v>
+      </c>
+      <c r="I92" s="15">
+        <v>25307.187078555813</v>
+      </c>
+      <c r="J92" s="15">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="K92" s="15">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="L92" s="19">
+        <v>1.2979999780654907</v>
+      </c>
+      <c r="M92" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N92" s="21">
+        <v>100</v>
+      </c>
+      <c r="O92" s="21">
+        <v>66.011165299463087</v>
+      </c>
+      <c r="P92" s="21">
+        <v>53.991931615531115</v>
+      </c>
+      <c r="Q92" s="21">
+        <v>90.049632667327046</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -697,7 +701,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -967,6 +971,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -976,7 +983,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1246,6 +1253,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>182000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1288,7 +1298,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1558,6 +1568,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1567,7 +1580,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1837,6 +1850,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>202624.05406925111</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>222107.79222056473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,7 +1895,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2149,6 +2165,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2158,7 +2177,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2428,6 +2447,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>22624.054069251113</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40107.792220564734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2449,11 +2471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472424832"/>
-        <c:axId val="472427904"/>
+        <c:axId val="511773312"/>
+        <c:axId val="511775488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472424832"/>
+        <c:axId val="511773312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,14 +2515,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472427904"/>
+        <c:crossAx val="511775488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472427904"/>
+        <c:axId val="511775488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,7 +2571,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472424832"/>
+        <c:crossAx val="511773312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2679,7 +2701,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2949,6 +2971,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,7 +2983,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3228,6 +3253,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>180000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>182000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3261,7 +3289,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3531,6 +3559,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3540,7 +3571,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3810,6 +3841,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>202624.05406925111</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>222107.79222056473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3843,7 +3877,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4113,6 +4147,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4122,7 +4159,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4392,6 +4429,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>22624.054069251113</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40107.792220564734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4413,11 +4453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472670592"/>
-        <c:axId val="472672512"/>
+        <c:axId val="511967616"/>
+        <c:axId val="511969536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472670592"/>
+        <c:axId val="511967616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4427,14 +4467,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472672512"/>
+        <c:crossAx val="511969536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472672512"/>
+        <c:axId val="511969536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4445,7 +4485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472670592"/>
+        <c:crossAx val="511967616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4567,7 +4607,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4837,6 +4877,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4846,7 +4889,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5116,6 +5159,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>187000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>189000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5158,7 +5204,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5428,6 +5474,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5437,7 +5486,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5707,6 +5756,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>213085.07832595258</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>233471.46256111268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5749,7 +5801,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6019,6 +6071,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6028,7 +6083,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6298,6 +6353,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>26085.078325952578</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44471.462561112683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6319,11 +6377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559153920"/>
-        <c:axId val="559155456"/>
+        <c:axId val="539217920"/>
+        <c:axId val="539219456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559153920"/>
+        <c:axId val="539217920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6363,14 +6421,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559155456"/>
+        <c:crossAx val="539219456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559155456"/>
+        <c:axId val="539219456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6419,7 +6477,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559153920"/>
+        <c:crossAx val="539217920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6549,7 +6607,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6819,6 +6877,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6828,7 +6889,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7098,6 +7159,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>187000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>189000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7131,7 +7195,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7401,6 +7465,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7410,7 +7477,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7680,6 +7747,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>213085.07832595258</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>233471.46256111268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7713,7 +7783,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7983,6 +8053,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7992,7 +8065,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8262,6 +8335,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>26085.078325952578</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44471.462561112683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8283,11 +8359,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559189376"/>
-        <c:axId val="559199360"/>
+        <c:axId val="539830912"/>
+        <c:axId val="539836800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559189376"/>
+        <c:axId val="539830912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8297,14 +8373,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="559199360"/>
+        <c:crossAx val="539836800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559199360"/>
+        <c:axId val="539836800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8315,7 +8391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="559189376"/>
+        <c:crossAx val="539830912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8437,7 +8513,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8707,6 +8783,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8716,7 +8795,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8986,6 +9065,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>187000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>189000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9028,7 +9110,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9298,6 +9380,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9307,7 +9392,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9577,6 +9662,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>212307.18707855581</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>232626.4497326077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9619,7 +9707,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9889,6 +9977,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9898,7 +9989,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10168,6 +10259,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>25307.187078555813</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43626.449732607696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10189,11 +10283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559282816"/>
-        <c:axId val="559292800"/>
+        <c:axId val="540346240"/>
+        <c:axId val="540347776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559282816"/>
+        <c:axId val="540346240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10233,14 +10327,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559292800"/>
+        <c:crossAx val="540347776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559292800"/>
+        <c:axId val="540347776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10289,7 +10383,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559282816"/>
+        <c:crossAx val="540346240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10419,7 +10513,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10689,6 +10783,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10698,7 +10795,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10968,6 +11065,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>187000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>189000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11001,7 +11101,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11271,6 +11371,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11280,7 +11383,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11550,6 +11653,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>212307.18707855581</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>232626.4497326077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11583,7 +11689,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11853,6 +11959,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11862,7 +11971,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12132,6 +12241,9 @@
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>25307.187078555813</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43626.449732607696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12153,11 +12265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559326720"/>
-        <c:axId val="559328256"/>
+        <c:axId val="540381952"/>
+        <c:axId val="540383488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559326720"/>
+        <c:axId val="540381952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12167,14 +12279,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="559328256"/>
+        <c:crossAx val="540383488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559328256"/>
+        <c:axId val="540383488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12185,7 +12297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="559326720"/>
+        <c:crossAx val="540381952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12227,7 +12339,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12265,7 +12377,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12306,7 +12418,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12344,7 +12456,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12387,7 +12499,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12425,7 +12537,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12703,7 +12815,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12712,7 +12824,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB92"/>
+  <dimension ref="A1:AB93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15983,6 +16095,35 @@
         <v>22624.054069251113</v>
       </c>
     </row>
+    <row r="93" spans="1:9" ht="12.75">
+      <c r="A93" s="13">
+        <v>45596</v>
+      </c>
+      <c r="B93" s="18">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C93" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D93" s="15">
+        <v>1418.43974989045</v>
+      </c>
+      <c r="E93" s="15">
+        <v>157523.26062302894</v>
+      </c>
+      <c r="F93" s="15">
+        <v>222107.79222056473</v>
+      </c>
+      <c r="G93" s="15">
+        <v>182000</v>
+      </c>
+      <c r="H93" s="15">
+        <v>222107.79222056473</v>
+      </c>
+      <c r="I93" s="15">
+        <v>40107.792220564734</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15994,7 +16135,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16030,7 +16171,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -16057,19 +16198,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -16079,7 +16220,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -20680,6 +20821,50 @@
       </c>
       <c r="N92" s="21">
         <v>62.006560710142793</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="12.75">
+      <c r="A93" s="13">
+        <v>45596</v>
+      </c>
+      <c r="B93" s="18">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C93" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D93" s="15">
+        <v>1418.43974989045</v>
+      </c>
+      <c r="E93" s="15">
+        <v>165582.60148087112</v>
+      </c>
+      <c r="F93" s="15">
+        <v>233471.46256111268</v>
+      </c>
+      <c r="G93" s="15">
+        <v>189000</v>
+      </c>
+      <c r="H93" s="15">
+        <v>233471.46256111268</v>
+      </c>
+      <c r="I93" s="15">
+        <v>44471.462561112683</v>
+      </c>
+      <c r="J93" s="21">
+        <v>0.1119999885559082</v>
+      </c>
+      <c r="K93" s="21">
+        <v>6.7472642510388287E-2</v>
+      </c>
+      <c r="L93" s="21">
+        <v>0.1119999885559082</v>
+      </c>
+      <c r="M93" s="23">
+        <v>9.7377654680561573E-2</v>
+      </c>
+      <c r="N93" s="21">
+        <v>69.289656576476474</v>
       </c>
     </row>
   </sheetData>
@@ -20693,7 +20878,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20729,7 +20914,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -20756,28 +20941,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -26078,6 +26263,59 @@
         <v>90.049632667327046</v>
       </c>
     </row>
+    <row r="93" spans="1:17" ht="12.75">
+      <c r="A93" s="13">
+        <v>45596</v>
+      </c>
+      <c r="B93" s="18">
+        <v>1.4099999666213989</v>
+      </c>
+      <c r="C93" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D93" s="15">
+        <v>1418.43974989045</v>
+      </c>
+      <c r="E93" s="15">
+        <v>164983.3015883117</v>
+      </c>
+      <c r="F93" s="15">
+        <v>232626.4497326077</v>
+      </c>
+      <c r="G93" s="15">
+        <v>189000</v>
+      </c>
+      <c r="H93" s="15">
+        <v>232626.4497326077</v>
+      </c>
+      <c r="I93" s="15">
+        <v>43626.449732607696</v>
+      </c>
+      <c r="J93" s="15">
+        <v>1.5360000133514404</v>
+      </c>
+      <c r="K93" s="15">
+        <v>1.2710000276565552</v>
+      </c>
+      <c r="L93" s="19">
+        <v>1.5360000133514404</v>
+      </c>
+      <c r="M93" s="19">
+        <v>0.91699999570846558</v>
+      </c>
+      <c r="N93" s="21">
+        <v>79.644581076132468</v>
+      </c>
+      <c r="O93" s="21">
+        <v>70.555637225019552</v>
+      </c>
+      <c r="P93" s="21">
+        <v>59.513166818693925</v>
+      </c>
+      <c r="Q93" s="21">
+        <v>92.640578037670807</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -107,6 +107,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +129,6 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -701,7 +701,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -974,6 +974,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,7 +986,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1256,6 +1259,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>182000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>184000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,7 +1304,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1571,6 +1577,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,7 +1589,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1853,6 +1862,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>222107.79222056473</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>230251.2047929948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,7 +1907,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2168,6 +2180,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,7 +2192,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2450,6 +2465,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>40107.792220564734</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46251.204792994802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2471,11 +2489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511773312"/>
-        <c:axId val="511775488"/>
+        <c:axId val="544620928"/>
+        <c:axId val="544622464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511773312"/>
+        <c:axId val="544620928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2515,14 +2533,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511775488"/>
+        <c:crossAx val="544622464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511775488"/>
+        <c:axId val="544622464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,7 +2589,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511773312"/>
+        <c:crossAx val="544620928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2701,7 +2719,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2974,6 +2992,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2983,7 +3004,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3256,6 +3277,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>182000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>184000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3289,7 +3313,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3562,6 +3586,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3571,7 +3598,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3844,6 +3871,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>222107.79222056473</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>230251.2047929948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3877,7 +3907,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4150,6 +4180,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4159,7 +4192,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4432,6 +4465,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>40107.792220564734</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46251.204792994802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4453,11 +4489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511967616"/>
-        <c:axId val="511969536"/>
+        <c:axId val="545782784"/>
+        <c:axId val="546277632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511967616"/>
+        <c:axId val="545782784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4467,14 +4503,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511969536"/>
+        <c:crossAx val="546277632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511969536"/>
+        <c:axId val="546277632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4485,7 +4521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511967616"/>
+        <c:crossAx val="545782784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4607,7 +4643,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4880,6 +4916,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4889,7 +4928,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5162,6 +5201,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>189000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>191000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5204,7 +5246,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5477,6 +5519,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5486,7 +5531,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5759,6 +5804,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>233471.46256111268</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>241929.18970369411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5801,7 +5849,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6074,6 +6122,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6083,7 +6134,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6356,6 +6407,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>44471.462561112683</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50929.189703694108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6377,11 +6431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539217920"/>
-        <c:axId val="539219456"/>
+        <c:axId val="567952896"/>
+        <c:axId val="567954432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539217920"/>
+        <c:axId val="567952896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6421,14 +6475,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539219456"/>
+        <c:crossAx val="567954432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539219456"/>
+        <c:axId val="567954432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6477,7 +6531,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539217920"/>
+        <c:crossAx val="567952896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6607,7 +6661,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6880,6 +6934,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6889,7 +6946,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7162,6 +7219,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>189000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>191000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7195,7 +7255,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7468,6 +7528,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7477,7 +7540,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7750,6 +7813,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>233471.46256111268</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>241929.18970369411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7783,7 +7849,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8056,6 +8122,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8065,7 +8134,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8338,6 +8407,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>44471.462561112683</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50929.189703694108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8359,11 +8431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539830912"/>
-        <c:axId val="539836800"/>
+        <c:axId val="567976320"/>
+        <c:axId val="567977856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539830912"/>
+        <c:axId val="567976320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8373,14 +8445,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539836800"/>
+        <c:crossAx val="567977856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539836800"/>
+        <c:axId val="567977856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8391,7 +8463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539830912"/>
+        <c:crossAx val="567976320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8513,7 +8585,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8786,6 +8858,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8795,7 +8870,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9068,6 +9143,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>189000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>191000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9110,7 +9188,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9383,6 +9461,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9392,7 +9473,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9665,6 +9746,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>232626.4497326077</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>241060.80415880398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9707,7 +9791,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9980,6 +10064,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9989,7 +10076,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10262,6 +10349,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>43626.449732607696</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50060.804158803978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10283,11 +10373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540346240"/>
-        <c:axId val="540347776"/>
+        <c:axId val="568274304"/>
+        <c:axId val="568288384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540346240"/>
+        <c:axId val="568274304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10327,14 +10417,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540347776"/>
+        <c:crossAx val="568288384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540347776"/>
+        <c:axId val="568288384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10383,7 +10473,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="540346240"/>
+        <c:crossAx val="568274304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10513,7 +10603,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10786,6 +10876,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10795,7 +10888,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11068,6 +11161,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>189000</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>191000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11101,7 +11197,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11374,6 +11470,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11383,7 +11482,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11656,6 +11755,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>232626.4497326077</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>241060.80415880398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11689,7 +11791,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11962,6 +12064,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11971,7 +12076,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12244,6 +12349,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>43626.449732607696</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50060.804158803978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12265,11 +12373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="540381952"/>
-        <c:axId val="540383488"/>
+        <c:axId val="568322304"/>
+        <c:axId val="568324096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="540381952"/>
+        <c:axId val="568322304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12279,14 +12387,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540383488"/>
+        <c:crossAx val="568324096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="540383488"/>
+        <c:axId val="568324096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12297,7 +12405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540381952"/>
+        <c:crossAx val="568322304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12339,7 +12447,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12377,7 +12485,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12418,7 +12526,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12456,7 +12564,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12499,7 +12607,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12537,7 +12645,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12815,7 +12923,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12824,7 +12932,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB93"/>
+  <dimension ref="A1:AB94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16124,6 +16232,35 @@
         <v>40107.792220564734</v>
       </c>
     </row>
+    <row r="94" spans="1:9" ht="12.75">
+      <c r="A94" s="13">
+        <v>45625</v>
+      </c>
+      <c r="B94" s="18">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C94" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D94" s="15">
+        <v>1380.2622489190333</v>
+      </c>
+      <c r="E94" s="15">
+        <v>158903.52287194796</v>
+      </c>
+      <c r="F94" s="15">
+        <v>230251.2047929948</v>
+      </c>
+      <c r="G94" s="15">
+        <v>184000</v>
+      </c>
+      <c r="H94" s="15">
+        <v>230251.2047929948</v>
+      </c>
+      <c r="I94" s="15">
+        <v>46251.204792994802</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16135,7 +16272,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16174,7 +16311,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -16198,19 +16335,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -16220,7 +16357,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -20865,6 +21002,50 @@
       </c>
       <c r="N93" s="21">
         <v>69.289656576476474</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="12.75">
+      <c r="A94" s="13">
+        <v>45625</v>
+      </c>
+      <c r="B94" s="18">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C94" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D94" s="15">
+        <v>1380.2622489190333</v>
+      </c>
+      <c r="E94" s="15">
+        <v>166962.86372979014</v>
+      </c>
+      <c r="F94" s="15">
+        <v>241929.18970369411</v>
+      </c>
+      <c r="G94" s="15">
+        <v>191000</v>
+      </c>
+      <c r="H94" s="15">
+        <v>241929.18970369411</v>
+      </c>
+      <c r="I94" s="15">
+        <v>50929.189703694108</v>
+      </c>
+      <c r="J94" s="21">
+        <v>3.9000034332275391E-2</v>
+      </c>
+      <c r="K94" s="21">
+        <v>6.2727207814036137E-2</v>
+      </c>
+      <c r="L94" s="21">
+        <v>3.9000034332275391E-2</v>
+      </c>
+      <c r="M94" s="23">
+        <v>8.7648051289180559E-2</v>
+      </c>
+      <c r="N94" s="21">
+        <v>71.567144838255288</v>
       </c>
     </row>
   </sheetData>
@@ -20878,7 +21059,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AH94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20914,7 +21095,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -26316,6 +26497,59 @@
         <v>92.640578037670807</v>
       </c>
     </row>
+    <row r="94" spans="1:17" ht="12.75">
+      <c r="A94" s="13">
+        <v>45625</v>
+      </c>
+      <c r="B94" s="18">
+        <v>1.4490000009536743</v>
+      </c>
+      <c r="C94" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D94" s="15">
+        <v>1380.2622489190333</v>
+      </c>
+      <c r="E94" s="15">
+        <v>166363.56383723073</v>
+      </c>
+      <c r="F94" s="15">
+        <v>241060.80415880398</v>
+      </c>
+      <c r="G94" s="15">
+        <v>191000</v>
+      </c>
+      <c r="H94" s="15">
+        <v>241060.80415880398</v>
+      </c>
+      <c r="I94" s="15">
+        <v>50060.804158803978</v>
+      </c>
+      <c r="J94" s="15">
+        <v>1.562000036239624</v>
+      </c>
+      <c r="K94" s="15">
+        <v>1.3519999980926514</v>
+      </c>
+      <c r="L94" s="19">
+        <v>1.562000036239624</v>
+      </c>
+      <c r="M94" s="19">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="N94" s="21">
+        <v>79.964533123378445</v>
+      </c>
+      <c r="O94" s="21">
+        <v>73.691935857805845</v>
+      </c>
+      <c r="P94" s="21">
+        <v>64.239423165064565</v>
+      </c>
+      <c r="Q94" s="21">
+        <v>92.596961243288405</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业LOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -701,7 +697,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -977,6 +973,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,7 +985,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1262,6 +1261,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>184000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>186000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,7 +1306,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1580,6 +1582,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,7 +1594,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1865,6 +1870,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>230251.2047929948</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>233204.63259808367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1907,7 +1915,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2183,6 +2191,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2192,7 +2203,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2468,6 +2479,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>46251.204792994802</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>47204.63259808367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2489,11 +2503,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="544620928"/>
-        <c:axId val="544622464"/>
+        <c:axId val="461765248"/>
+        <c:axId val="461816192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="544620928"/>
+        <c:axId val="461765248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2533,14 +2547,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544622464"/>
+        <c:crossAx val="461816192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544622464"/>
+        <c:axId val="461816192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,7 +2603,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544620928"/>
+        <c:crossAx val="461765248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2719,7 +2733,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2995,6 +3009,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3004,7 +3021,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3280,6 +3297,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>184000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>186000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3313,7 +3333,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3589,6 +3609,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3598,7 +3621,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3874,6 +3897,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>230251.2047929948</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>233204.63259808367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3907,7 +3933,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4183,6 +4209,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4192,7 +4221,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4468,6 +4497,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>46251.204792994802</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>47204.63259808367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4489,11 +4521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545782784"/>
-        <c:axId val="546277632"/>
+        <c:axId val="462016896"/>
+        <c:axId val="462019200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545782784"/>
+        <c:axId val="462016896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4503,14 +4535,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546277632"/>
+        <c:crossAx val="462019200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="546277632"/>
+        <c:axId val="462019200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4521,7 +4553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="545782784"/>
+        <c:crossAx val="462016896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4643,7 +4675,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4919,6 +4951,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4928,7 +4963,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5204,6 +5239,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>191000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>193000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5246,7 +5284,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5522,6 +5560,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5531,7 +5572,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5807,6 +5848,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>241929.18970369411</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>244930.97389211343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5849,7 +5893,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6125,6 +6169,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6134,7 +6181,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6410,6 +6457,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>50929.189703694108</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51930.973892113427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6431,11 +6481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567952896"/>
-        <c:axId val="567954432"/>
+        <c:axId val="462300288"/>
+        <c:axId val="462302208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567952896"/>
+        <c:axId val="462300288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6475,14 +6525,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567954432"/>
+        <c:crossAx val="462302208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567954432"/>
+        <c:axId val="462302208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6531,7 +6581,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567952896"/>
+        <c:crossAx val="462300288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6661,7 +6711,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6937,6 +6987,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6946,7 +6999,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7222,6 +7275,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>191000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>193000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7255,7 +7311,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7531,6 +7587,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7540,7 +7599,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7816,6 +7875,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>241929.18970369411</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>244930.97389211343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7849,7 +7911,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8125,6 +8187,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8134,7 +8199,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8410,6 +8475,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>50929.189703694108</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51930.973892113427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8431,11 +8499,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="567976320"/>
-        <c:axId val="567977856"/>
+        <c:axId val="522526720"/>
+        <c:axId val="522528256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="567976320"/>
+        <c:axId val="522526720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8445,14 +8513,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567977856"/>
+        <c:crossAx val="522528256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="567977856"/>
+        <c:axId val="522528256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8463,7 +8531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567976320"/>
+        <c:crossAx val="522526720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8585,7 +8653,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8861,6 +8929,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8870,7 +8941,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9146,6 +9217,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>191000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>193000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9188,7 +9262,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9464,6 +9538,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9473,7 +9550,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9749,6 +9826,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>241060.80415880398</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>244058.99252272033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9791,7 +9871,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10067,6 +10147,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10076,7 +10159,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10352,6 +10435,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>50060.804158803978</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51058.992522720335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10373,11 +10459,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568274304"/>
-        <c:axId val="568288384"/>
+        <c:axId val="523787264"/>
+        <c:axId val="523797248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="568274304"/>
+        <c:axId val="523787264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10417,14 +10503,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568288384"/>
+        <c:crossAx val="523797248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="568288384"/>
+        <c:axId val="523797248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10473,7 +10559,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568274304"/>
+        <c:crossAx val="523787264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10603,7 +10689,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10879,6 +10965,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10888,7 +10977,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11164,6 +11253,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>191000</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>193000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11197,7 +11289,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11473,6 +11565,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11482,7 +11577,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11758,6 +11853,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>241060.80415880398</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>244058.99252272033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11791,7 +11889,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12067,6 +12165,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12076,7 +12177,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="93"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12352,6 +12453,9 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>50060.804158803978</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51058.992522720335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12373,11 +12477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568322304"/>
-        <c:axId val="568324096"/>
+        <c:axId val="523822976"/>
+        <c:axId val="523824512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="568322304"/>
+        <c:axId val="523822976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12387,14 +12491,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="568324096"/>
+        <c:crossAx val="523824512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="568324096"/>
+        <c:axId val="523824512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12405,7 +12509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="568322304"/>
+        <c:crossAx val="523822976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12932,7 +13036,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB94"/>
+  <dimension ref="A1:AB95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13638,6 +13742,27 @@
         <v>-128.53831332558548</v>
       </c>
       <c r="J11" s="3"/>
+      <c r="L11" s="8">
+        <v>45657</v>
+      </c>
+      <c r="M11" s="5">
+        <v>24000</v>
+      </c>
+      <c r="N11" s="9">
+        <v>186000</v>
+      </c>
+      <c r="O11" s="9">
+        <v>233204.63259808367</v>
+      </c>
+      <c r="P11" s="9">
+        <v>47204.63259808367</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>0.25378834730152511</v>
+      </c>
+      <c r="R11" s="11">
+        <v>5.1396186951795375E-2</v>
+      </c>
       <c r="T11" s="8">
         <v>43830</v>
       </c>
@@ -13995,6 +14120,16 @@
         <v>-3272.8882900447315</v>
       </c>
       <c r="J18" s="3"/>
+      <c r="T18" s="8">
+        <v>43098</v>
+      </c>
+      <c r="U18" s="2">
+        <v>18000</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" ref="V18:V25" si="8">-U18</f>
+        <v>-18000</v>
+      </c>
     </row>
     <row r="19" spans="1:28" ht="14.1" customHeight="1">
       <c r="A19" s="13">
@@ -14025,6 +14160,16 @@
         <v>-4901.9066203802577</v>
       </c>
       <c r="J19" s="12"/>
+      <c r="T19" s="8">
+        <v>43462</v>
+      </c>
+      <c r="U19" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V19" s="2">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="20" spans="1:28" ht="14.1" customHeight="1">
       <c r="A20" s="13">
@@ -14055,6 +14200,16 @@
         <v>-5911.0890497312321</v>
       </c>
       <c r="J20" s="3"/>
+      <c r="T20" s="8">
+        <v>43830</v>
+      </c>
+      <c r="U20" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V20" s="2">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="21" spans="1:28" ht="14.1" customHeight="1">
       <c r="A21" s="13">
@@ -14085,6 +14240,16 @@
         <v>-9910.9323018028881</v>
       </c>
       <c r="J21" s="3"/>
+      <c r="T21" s="8">
+        <v>44196</v>
+      </c>
+      <c r="U21" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V21" s="2">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="22" spans="1:28" ht="14.1" customHeight="1">
       <c r="A22" s="13">
@@ -14115,6 +14280,16 @@
         <v>-8397.8471633640947</v>
       </c>
       <c r="J22" s="3"/>
+      <c r="T22" s="8">
+        <v>44561</v>
+      </c>
+      <c r="U22" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V22" s="2">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="23" spans="1:28" ht="14.1" customHeight="1">
       <c r="A23" s="13">
@@ -14146,6 +14321,16 @@
       </c>
       <c r="J23" s="3"/>
       <c r="L23" s="10"/>
+      <c r="T23" s="8">
+        <v>44925</v>
+      </c>
+      <c r="U23" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V23" s="2">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="24" spans="1:28" ht="14.1" customHeight="1">
       <c r="A24" s="13">
@@ -14176,6 +14361,16 @@
         <v>-9267.7271591519821</v>
       </c>
       <c r="J24" s="3"/>
+      <c r="T24" s="8">
+        <v>45289</v>
+      </c>
+      <c r="U24" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V24" s="2">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="25" spans="1:28" ht="14.1" customHeight="1">
       <c r="A25" s="13">
@@ -14206,6 +14401,16 @@
         <v>-549.50482663141884</v>
       </c>
       <c r="J25" s="3"/>
+      <c r="T25" s="8">
+        <v>45657</v>
+      </c>
+      <c r="U25" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" si="8"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="26" spans="1:28" ht="14.1" customHeight="1">
       <c r="A26" s="13">
@@ -14236,6 +14441,12 @@
         <v>4255.4018907257705</v>
       </c>
       <c r="J26" s="3"/>
+      <c r="T26" s="8">
+        <v>45657</v>
+      </c>
+      <c r="V26" s="2">
+        <v>233204.63259808367</v>
+      </c>
     </row>
     <row r="27" spans="1:28" ht="14.1" customHeight="1">
       <c r="A27" s="13">
@@ -14266,6 +14477,9 @@
         <v>2012.2431754165664</v>
       </c>
       <c r="J27" s="3"/>
+      <c r="V27" s="24">
+        <v>5.1396186951795375E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:28" ht="14.1" customHeight="1">
       <c r="A28" s="13">
@@ -16259,6 +16473,35 @@
       </c>
       <c r="I94" s="15">
         <v>46251.204792994802</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="12.75">
+      <c r="A95" s="13">
+        <v>45657</v>
+      </c>
+      <c r="B95" s="18">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C95" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D95" s="15">
+        <v>1374.5704061923284</v>
+      </c>
+      <c r="E95" s="15">
+        <v>160278.0932781403</v>
+      </c>
+      <c r="F95" s="15">
+        <v>233204.63259808367</v>
+      </c>
+      <c r="G95" s="15">
+        <v>186000</v>
+      </c>
+      <c r="H95" s="15">
+        <v>233204.63259808367</v>
+      </c>
+      <c r="I95" s="15">
+        <v>47204.63259808367</v>
       </c>
     </row>
   </sheetData>
@@ -16272,7 +16515,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16311,7 +16554,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -16335,19 +16578,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -17138,6 +17381,27 @@
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
       <c r="Q11" s="21"/>
+      <c r="R11" s="8">
+        <v>45657</v>
+      </c>
+      <c r="S11" s="5">
+        <v>25000</v>
+      </c>
+      <c r="T11" s="9">
+        <v>193000</v>
+      </c>
+      <c r="U11" s="9">
+        <v>244930.97389211343</v>
+      </c>
+      <c r="V11" s="9">
+        <v>51930.973892113427</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0.26907240358607992</v>
+      </c>
+      <c r="X11" s="11">
+        <v>5.3546422145481998E-2</v>
+      </c>
       <c r="Z11" s="8">
         <v>43830</v>
       </c>
@@ -17614,6 +17878,16 @@
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
+      <c r="Z18" s="8">
+        <v>43098</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>19000</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" ref="AB18:AB25" si="5">-AA18</f>
+        <v>-19000</v>
+      </c>
     </row>
     <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="13">
@@ -17661,6 +17935,16 @@
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
+      <c r="Z19" s="8">
+        <v>43462</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>28000</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="5"/>
+        <v>-28000</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="13">
@@ -17708,6 +17992,16 @@
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
+      <c r="Z20" s="8">
+        <v>43830</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB20" s="2">
+        <f t="shared" si="5"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="13">
@@ -17755,6 +18049,16 @@
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
+      <c r="Z21" s="8">
+        <v>44196</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="5"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="13">
@@ -17802,6 +18106,16 @@
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
+      <c r="Z22" s="8">
+        <v>44561</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB22" s="2">
+        <f t="shared" si="5"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="13">
@@ -17850,6 +18164,16 @@
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="10"/>
+      <c r="Z23" s="8">
+        <v>44925</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>25000</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" si="5"/>
+        <v>-25000</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="13">
@@ -17897,6 +18221,16 @@
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
+      <c r="Z24" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" si="5"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="13">
@@ -17944,6 +18278,16 @@
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
+      <c r="Z25" s="8">
+        <v>45657</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>25000</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="5"/>
+        <v>-25000</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="13">
@@ -17991,6 +18335,12 @@
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
+      <c r="Z26" s="8">
+        <v>45657</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>244930.97389211343</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="13">
@@ -18038,6 +18388,9 @@
       <c r="O27" s="21"/>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
+      <c r="AB27" s="24">
+        <v>5.3546422145481998E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="13">
@@ -21046,6 +21399,50 @@
       </c>
       <c r="N94" s="21">
         <v>71.567144838255288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="12.75">
+      <c r="A95" s="13">
+        <v>45657</v>
+      </c>
+      <c r="B95" s="18">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C95" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D95" s="15">
+        <v>1374.5704061923284</v>
+      </c>
+      <c r="E95" s="15">
+        <v>168337.43413598248</v>
+      </c>
+      <c r="F95" s="15">
+        <v>244930.97389211343</v>
+      </c>
+      <c r="G95" s="15">
+        <v>193000</v>
+      </c>
+      <c r="H95" s="15">
+        <v>244930.97389211343</v>
+      </c>
+      <c r="I95" s="15">
+        <v>51930.973892113427</v>
+      </c>
+      <c r="J95" s="21">
+        <v>6.0000419616699219E-3</v>
+      </c>
+      <c r="K95" s="21">
+        <v>5.3272680171975097E-2</v>
+      </c>
+      <c r="L95" s="21">
+        <v>6.0000419616699219E-3</v>
+      </c>
+      <c r="M95" s="23">
+        <v>7.4040049734595451E-2</v>
+      </c>
+      <c r="N95" s="21">
+        <v>71.951167459958171</v>
       </c>
     </row>
   </sheetData>
@@ -21059,7 +21456,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH94"/>
+  <dimension ref="A1:AH95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21122,28 +21519,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -21998,6 +22395,27 @@
       <c r="Q11" s="21">
         <v>33.909222155092408</v>
       </c>
+      <c r="R11" s="8">
+        <v>45657</v>
+      </c>
+      <c r="S11" s="5">
+        <v>25000</v>
+      </c>
+      <c r="T11" s="9">
+        <v>193000</v>
+      </c>
+      <c r="U11" s="9">
+        <v>244058.99252272033</v>
+      </c>
+      <c r="V11" s="9">
+        <v>51058.992522720335</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0.26455436540269606</v>
+      </c>
+      <c r="X11" s="11">
+        <v>5.3367386499293845E-2</v>
+      </c>
       <c r="Z11" s="8">
         <v>43830</v>
       </c>
@@ -22516,6 +22934,16 @@
       <c r="Q18" s="21">
         <v>5.8427539252576537</v>
       </c>
+      <c r="Z18" s="8">
+        <v>43098</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>18000</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" ref="AB18:AB25" si="7">-AA18</f>
+        <v>-18000</v>
+      </c>
     </row>
     <row r="19" spans="1:34" ht="14.1" customHeight="1">
       <c r="A19" s="13">
@@ -22569,6 +22997,16 @@
       <c r="Q19" s="21">
         <v>-4.3867379984749704</v>
       </c>
+      <c r="Z19" s="8">
+        <v>43462</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>27000</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="7"/>
+        <v>-27000</v>
+      </c>
     </row>
     <row r="20" spans="1:34" ht="14.1" customHeight="1">
       <c r="A20" s="13">
@@ -22622,6 +23060,16 @@
       <c r="Q20" s="21">
         <v>-8.5165169023150256</v>
       </c>
+      <c r="Z20" s="8">
+        <v>43830</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB20" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="21" spans="1:34" ht="14.1" customHeight="1">
       <c r="A21" s="13">
@@ -22675,6 +23123,16 @@
       <c r="Q21" s="21">
         <v>-4.7259157195168626</v>
       </c>
+      <c r="Z21" s="8">
+        <v>44196</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="14.1" customHeight="1">
       <c r="A22" s="13">
@@ -22728,6 +23186,16 @@
       <c r="Q22" s="21">
         <v>5.4096563797217456</v>
       </c>
+      <c r="Z22" s="8">
+        <v>44561</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>24000</v>
+      </c>
+      <c r="AB22" s="2">
+        <f t="shared" si="7"/>
+        <v>-24000</v>
+      </c>
     </row>
     <row r="23" spans="1:34" ht="14.1" customHeight="1">
       <c r="A23" s="13">
@@ -22782,6 +23250,16 @@
         <v>5.0191538285458392</v>
       </c>
       <c r="R23" s="10"/>
+      <c r="Z23" s="8">
+        <v>44925</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>26000</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" si="7"/>
+        <v>-26000</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="14.1" customHeight="1">
       <c r="A24" s="13">
@@ -22835,6 +23313,16 @@
       <c r="Q24" s="21">
         <v>9.3879340641525388</v>
       </c>
+      <c r="Z24" s="8">
+        <v>45289</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>25000</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" si="7"/>
+        <v>-25000</v>
+      </c>
     </row>
     <row r="25" spans="1:34" ht="14.1" customHeight="1">
       <c r="A25" s="13">
@@ -22888,6 +23376,16 @@
       <c r="Q25" s="21">
         <v>58.875528906141291</v>
       </c>
+      <c r="Z25" s="8">
+        <v>45657</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>25000</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="7"/>
+        <v>-25000</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="14.1" customHeight="1">
       <c r="A26" s="13">
@@ -22941,6 +23439,12 @@
       <c r="Q26" s="21">
         <v>80.67260204345024</v>
       </c>
+      <c r="Z26" s="8">
+        <v>45657</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>244058.99252272033</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="14.1" customHeight="1">
       <c r="A27" s="13">
@@ -22994,6 +23498,9 @@
       <c r="Q27" s="21">
         <v>82.245824555416519</v>
       </c>
+      <c r="AB27" s="24">
+        <v>5.3367386499293845E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="14.1" customHeight="1">
       <c r="A28" s="13">
@@ -26548,6 +27055,59 @@
       </c>
       <c r="Q94" s="21">
         <v>92.596961243288405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="12.75">
+      <c r="A95" s="13">
+        <v>45657</v>
+      </c>
+      <c r="B95" s="18">
+        <v>1.4550000429153442</v>
+      </c>
+      <c r="C95" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D95" s="15">
+        <v>1374.5704061923284</v>
+      </c>
+      <c r="E95" s="15">
+        <v>167738.13424342306</v>
+      </c>
+      <c r="F95" s="15">
+        <v>244058.99252272033</v>
+      </c>
+      <c r="G95" s="15">
+        <v>193000</v>
+      </c>
+      <c r="H95" s="15">
+        <v>244058.99252272033</v>
+      </c>
+      <c r="I95" s="15">
+        <v>51058.992522720335</v>
+      </c>
+      <c r="J95" s="15">
+        <v>1.5520000457763672</v>
+      </c>
+      <c r="K95" s="15">
+        <v>1.4220000505447388</v>
+      </c>
+      <c r="L95" s="19">
+        <v>1.562000036239624</v>
+      </c>
+      <c r="M95" s="19">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="N95" s="21">
+        <v>81.028370330837475</v>
+      </c>
+      <c r="O95" s="21">
+        <v>76.13741401548306</v>
+      </c>
+      <c r="P95" s="21">
+        <v>68.205420115204063</v>
+      </c>
+      <c r="Q95" s="21">
+        <v>92.001401816041067</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,6 +133,10 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -157,6 +169,10 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2503,11 +2519,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461765248"/>
-        <c:axId val="461816192"/>
+        <c:axId val="479121408"/>
+        <c:axId val="479123328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461765248"/>
+        <c:axId val="479121408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,14 +2563,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461816192"/>
+        <c:crossAx val="479123328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461816192"/>
+        <c:axId val="479123328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +2619,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461765248"/>
+        <c:crossAx val="479121408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4521,11 +4537,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462016896"/>
-        <c:axId val="462019200"/>
+        <c:axId val="479279360"/>
+        <c:axId val="479356032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462016896"/>
+        <c:axId val="479279360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4535,14 +4551,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462019200"/>
+        <c:crossAx val="479356032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462019200"/>
+        <c:axId val="479356032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4553,7 +4569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462016896"/>
+        <c:crossAx val="479279360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6481,11 +6497,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462300288"/>
-        <c:axId val="462302208"/>
+        <c:axId val="479587712"/>
+        <c:axId val="479602176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462300288"/>
+        <c:axId val="479587712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6525,14 +6541,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462302208"/>
+        <c:crossAx val="479602176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462302208"/>
+        <c:axId val="479602176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6581,7 +6597,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462300288"/>
+        <c:crossAx val="479587712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8499,11 +8515,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="522526720"/>
-        <c:axId val="522528256"/>
+        <c:axId val="520376320"/>
+        <c:axId val="520377856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="522526720"/>
+        <c:axId val="520376320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8513,14 +8529,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="522528256"/>
+        <c:crossAx val="520377856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="522528256"/>
+        <c:axId val="520377856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8531,7 +8547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="522526720"/>
+        <c:crossAx val="520376320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10459,11 +10475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523787264"/>
-        <c:axId val="523797248"/>
+        <c:axId val="521042944"/>
+        <c:axId val="521057024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523787264"/>
+        <c:axId val="521042944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10503,14 +10519,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523797248"/>
+        <c:crossAx val="521057024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523797248"/>
+        <c:axId val="521057024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10559,7 +10575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523787264"/>
+        <c:crossAx val="521042944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12477,11 +12493,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523822976"/>
-        <c:axId val="523824512"/>
+        <c:axId val="521734016"/>
+        <c:axId val="521735552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523822976"/>
+        <c:axId val="521734016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12491,14 +12507,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523824512"/>
+        <c:crossAx val="521735552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523824512"/>
+        <c:axId val="521735552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12509,7 +12525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="523822976"/>
+        <c:crossAx val="521734016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16554,10 +16570,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -16578,19 +16594,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -16600,7 +16616,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -21519,28 +21535,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -21615,7 +21631,7 @@
         <v>83.333333333333343</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>10</v>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,14 +104,6 @@
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -713,7 +705,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -992,6 +984,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,7 +996,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1280,6 +1275,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>186000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>188000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,7 +1320,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1601,6 +1599,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1610,7 +1611,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1889,6 +1890,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>233204.63259808367</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>233762.11967027574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1931,7 +1935,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2210,6 +2214,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2219,7 +2226,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2498,6 +2505,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>47204.63259808367</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45762.119670275744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2519,11 +2529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479121408"/>
-        <c:axId val="479123328"/>
+        <c:axId val="550841728"/>
+        <c:axId val="550843520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479121408"/>
+        <c:axId val="550841728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2563,14 +2573,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479123328"/>
+        <c:crossAx val="550843520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479123328"/>
+        <c:axId val="550843520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2619,7 +2629,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479121408"/>
+        <c:crossAx val="550841728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2749,7 +2759,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3028,6 +3038,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3037,7 +3050,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3316,6 +3329,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>186000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>188000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3349,7 +3365,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3628,6 +3644,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3637,7 +3656,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3916,6 +3935,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>233204.63259808367</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>233762.11967027574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3949,7 +3971,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4228,6 +4250,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4237,7 +4262,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4516,6 +4541,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>47204.63259808367</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45762.119670275744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4537,11 +4565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479279360"/>
-        <c:axId val="479356032"/>
+        <c:axId val="551064320"/>
+        <c:axId val="551066240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479279360"/>
+        <c:axId val="551064320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4551,14 +4579,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479356032"/>
+        <c:crossAx val="551066240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479356032"/>
+        <c:axId val="551066240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4569,7 +4597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479279360"/>
+        <c:crossAx val="551064320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4691,7 +4719,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4970,6 +4998,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4979,7 +5010,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5258,6 +5289,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>193000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>195000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5300,7 +5334,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5579,6 +5613,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5588,7 +5625,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5867,6 +5904,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>244930.97389211343</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>245415.92638930981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5909,7 +5949,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6188,6 +6228,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6197,7 +6240,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6476,6 +6519,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>51930.973892113427</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>50415.92638930981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6497,11 +6543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479587712"/>
-        <c:axId val="479602176"/>
+        <c:axId val="592333824"/>
+        <c:axId val="613905152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479587712"/>
+        <c:axId val="592333824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6541,14 +6587,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479602176"/>
+        <c:crossAx val="613905152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="479602176"/>
+        <c:axId val="613905152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6597,7 +6643,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479587712"/>
+        <c:crossAx val="592333824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6727,7 +6773,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7006,6 +7052,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7015,7 +7064,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7294,6 +7343,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>193000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>195000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7327,7 +7379,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7606,6 +7658,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7615,7 +7670,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7894,6 +7949,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>244930.97389211343</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>245415.92638930981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7927,7 +7985,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8206,6 +8264,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8215,7 +8276,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8494,6 +8555,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>51930.973892113427</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>50415.92638930981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8515,11 +8579,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520376320"/>
-        <c:axId val="520377856"/>
+        <c:axId val="613926784"/>
+        <c:axId val="613928320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520376320"/>
+        <c:axId val="613926784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8529,14 +8593,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520377856"/>
+        <c:crossAx val="613928320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520377856"/>
+        <c:axId val="613928320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8547,7 +8611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520376320"/>
+        <c:crossAx val="613926784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8669,7 +8733,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8948,6 +9012,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8957,7 +9024,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9236,6 +9303,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>193000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>195000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9278,7 +9348,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9557,6 +9627,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9566,7 +9639,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9845,6 +9918,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>244058.99252272033</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>244549.33875667118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9887,7 +9963,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10166,6 +10242,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10175,7 +10254,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10454,6 +10533,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>51058.992522720335</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>49549.338756671175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10475,11 +10557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521042944"/>
-        <c:axId val="521057024"/>
+        <c:axId val="615126144"/>
+        <c:axId val="615127680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521042944"/>
+        <c:axId val="615126144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10519,14 +10601,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521057024"/>
+        <c:crossAx val="615127680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521057024"/>
+        <c:axId val="615127680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10575,7 +10657,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521042944"/>
+        <c:crossAx val="615126144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10705,7 +10787,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10984,6 +11066,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10993,7 +11078,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11272,6 +11357,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>193000</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>195000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11305,7 +11393,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11584,6 +11672,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11593,7 +11684,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11872,6 +11963,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>244058.99252272033</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>244549.33875667118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11905,7 +11999,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12184,6 +12278,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12193,7 +12290,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="93"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12472,6 +12569,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>51058.992522720335</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>49549.338756671175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12493,11 +12593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521734016"/>
-        <c:axId val="521735552"/>
+        <c:axId val="615165952"/>
+        <c:axId val="615167488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521734016"/>
+        <c:axId val="615165952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12507,14 +12607,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521735552"/>
+        <c:crossAx val="615167488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521735552"/>
+        <c:axId val="615167488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12525,7 +12625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521734016"/>
+        <c:crossAx val="615165952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12567,7 +12667,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12605,7 +12705,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12646,7 +12746,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12684,7 +12784,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12727,7 +12827,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12765,7 +12865,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13043,7 +13143,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13052,7 +13152,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB95"/>
+  <dimension ref="A1:AB96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16520,6 +16620,35 @@
         <v>47204.63259808367</v>
       </c>
     </row>
+    <row r="96" spans="1:9" ht="12.75">
+      <c r="A96" s="13">
+        <v>45684</v>
+      </c>
+      <c r="B96" s="18">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C96" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D96" s="15">
+        <v>1383.1258836100167</v>
+      </c>
+      <c r="E96" s="15">
+        <v>161661.21916175031</v>
+      </c>
+      <c r="F96" s="15">
+        <v>233762.11967027574</v>
+      </c>
+      <c r="G96" s="15">
+        <v>188000</v>
+      </c>
+      <c r="H96" s="15">
+        <v>233762.11967027574</v>
+      </c>
+      <c r="I96" s="15">
+        <v>45762.119670275744</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16531,7 +16660,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16570,10 +16699,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -16594,19 +16723,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -16616,7 +16745,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -21459,6 +21588,50 @@
       </c>
       <c r="N95" s="21">
         <v>71.951167459958171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="12.75">
+      <c r="A96" s="13">
+        <v>45684</v>
+      </c>
+      <c r="B96" s="18">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C96" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D96" s="15">
+        <v>1383.1258836100167</v>
+      </c>
+      <c r="E96" s="15">
+        <v>169720.56001959249</v>
+      </c>
+      <c r="F96" s="15">
+        <v>245415.92638930981</v>
+      </c>
+      <c r="G96" s="15">
+        <v>195000</v>
+      </c>
+      <c r="H96" s="15">
+        <v>245415.92638930981</v>
+      </c>
+      <c r="I96" s="15">
+        <v>50415.92638930981</v>
+      </c>
+      <c r="J96" s="21">
+        <v>0</v>
+      </c>
+      <c r="K96" s="21">
+        <v>4.4393900143312577E-2</v>
+      </c>
+      <c r="L96" s="21">
+        <v>9.0000629425048828E-3</v>
+      </c>
+      <c r="M96" s="23">
+        <v>6.3200051935913687E-2</v>
+      </c>
+      <c r="N96" s="21">
+        <v>70.243455160968878</v>
       </c>
     </row>
   </sheetData>
@@ -21472,7 +21645,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21535,28 +21708,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -21631,7 +21804,7 @@
         <v>83.333333333333343</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>10</v>
@@ -27124,6 +27297,59 @@
       </c>
       <c r="Q95" s="21">
         <v>92.001401816041067</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="12.75">
+      <c r="A96" s="13">
+        <v>45684</v>
+      </c>
+      <c r="B96" s="18">
+        <v>1.4459999799728394</v>
+      </c>
+      <c r="C96" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D96" s="15">
+        <v>1383.1258836100167</v>
+      </c>
+      <c r="E96" s="15">
+        <v>169121.26012703308</v>
+      </c>
+      <c r="F96" s="15">
+        <v>244549.33875667118</v>
+      </c>
+      <c r="G96" s="15">
+        <v>195000</v>
+      </c>
+      <c r="H96" s="15">
+        <v>244549.33875667118</v>
+      </c>
+      <c r="I96" s="15">
+        <v>49549.338756671175</v>
+      </c>
+      <c r="J96" s="15">
+        <v>1.4950000047683716</v>
+      </c>
+      <c r="K96" s="15">
+        <v>1.3459999561309814</v>
+      </c>
+      <c r="L96" s="19">
+        <v>1.562000036239624</v>
+      </c>
+      <c r="M96" s="19">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="N96" s="21">
+        <v>79.432614519648922</v>
+      </c>
+      <c r="O96" s="21">
+        <v>77.235814183538352</v>
+      </c>
+      <c r="P96" s="21">
+        <v>71.215551471315493</v>
+      </c>
+      <c r="Q96" s="21">
+        <v>89.276339607984056</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,8 +123,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -705,7 +701,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -987,6 +983,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,7 +995,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1278,6 +1277,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>188000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>190000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,7 +1322,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1602,6 +1604,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,7 +1616,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1893,6 +1898,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>233762.11967027574</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>264052.84458649351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1935,7 +1943,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2217,6 +2225,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2226,7 +2237,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2508,6 +2519,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45762.119670275744</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>74052.844586493506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2529,11 +2543,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550841728"/>
-        <c:axId val="550843520"/>
+        <c:axId val="462518144"/>
+        <c:axId val="462520704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550841728"/>
+        <c:axId val="462518144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,14 +2587,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550843520"/>
+        <c:crossAx val="462520704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550843520"/>
+        <c:axId val="462520704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,7 +2643,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550841728"/>
+        <c:crossAx val="462518144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2759,7 +2773,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3041,6 +3055,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3050,7 +3067,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3332,6 +3349,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>188000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>190000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3365,7 +3385,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3647,6 +3667,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3656,7 +3679,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3938,6 +3961,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>233762.11967027574</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>264052.84458649351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3971,7 +3997,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4253,6 +4279,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4262,7 +4291,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4544,6 +4573,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45762.119670275744</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>74052.844586493506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4565,11 +4597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="551064320"/>
-        <c:axId val="551066240"/>
+        <c:axId val="462767616"/>
+        <c:axId val="462769152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="551064320"/>
+        <c:axId val="462767616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4579,14 +4611,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551066240"/>
+        <c:crossAx val="462769152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="551066240"/>
+        <c:axId val="462769152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4597,7 +4629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551064320"/>
+        <c:crossAx val="462767616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4719,7 +4751,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5001,6 +5033,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5010,7 +5045,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5292,6 +5327,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>197000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5334,7 +5372,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5616,6 +5654,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5625,7 +5666,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5907,6 +5948,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>245415.92638930981</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>277117.03653209889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5949,7 +5993,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6231,6 +6275,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6240,7 +6287,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6522,6 +6569,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>50415.92638930981</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>80117.036532098893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6543,11 +6593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="592333824"/>
-        <c:axId val="613905152"/>
+        <c:axId val="514552192"/>
+        <c:axId val="514553728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="592333824"/>
+        <c:axId val="514552192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6587,14 +6637,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613905152"/>
+        <c:crossAx val="514553728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613905152"/>
+        <c:axId val="514553728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6643,7 +6693,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592333824"/>
+        <c:crossAx val="514552192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6773,7 +6823,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7055,6 +7105,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7064,7 +7117,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7346,6 +7399,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>197000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7379,7 +7435,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7661,6 +7717,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7670,7 +7729,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7952,6 +8011,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>245415.92638930981</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>277117.03653209889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7985,7 +8047,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8267,6 +8329,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8276,7 +8341,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8558,6 +8623,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>50415.92638930981</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>80117.036532098893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8579,11 +8647,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613926784"/>
-        <c:axId val="613928320"/>
+        <c:axId val="514575360"/>
+        <c:axId val="514581248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613926784"/>
+        <c:axId val="514575360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8593,14 +8661,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613928320"/>
+        <c:crossAx val="514581248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="613928320"/>
+        <c:axId val="514581248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8611,7 +8679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="613926784"/>
+        <c:crossAx val="514575360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8733,7 +8801,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9015,6 +9083,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9024,7 +9095,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9306,6 +9377,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>197000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9348,7 +9422,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9630,6 +9704,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9639,7 +9716,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9921,6 +9998,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>244549.33875667118</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>276145.57137539709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9963,7 +10043,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10245,6 +10325,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10254,7 +10337,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10536,6 +10619,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>49549.338756671175</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>79145.571375397092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10557,11 +10643,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615126144"/>
-        <c:axId val="615127680"/>
+        <c:axId val="514676992"/>
+        <c:axId val="514686976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615126144"/>
+        <c:axId val="514676992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10601,14 +10687,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615127680"/>
+        <c:crossAx val="514686976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615127680"/>
+        <c:axId val="514686976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10657,7 +10743,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615126144"/>
+        <c:crossAx val="514676992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10787,7 +10873,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11069,6 +11155,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11078,7 +11167,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11360,6 +11449,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>195000</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>197000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11393,7 +11485,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11675,6 +11767,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11684,7 +11779,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11966,6 +12061,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>244549.33875667118</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>276145.57137539709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11999,7 +12097,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12281,6 +12379,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12290,7 +12391,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="95"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12572,6 +12673,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>49549.338756671175</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>79145.571375397092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12593,11 +12697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615165952"/>
-        <c:axId val="615167488"/>
+        <c:axId val="514716800"/>
+        <c:axId val="514718336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615165952"/>
+        <c:axId val="514716800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12607,14 +12711,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="615167488"/>
+        <c:crossAx val="514718336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615167488"/>
+        <c:axId val="514718336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12625,7 +12729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="615165952"/>
+        <c:crossAx val="514716800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12667,7 +12771,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12705,7 +12809,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12746,7 +12850,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12784,7 +12888,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12827,7 +12931,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12865,7 +12969,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13143,7 +13247,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13152,7 +13256,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB96"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16649,6 +16753,35 @@
         <v>45762.119670275744</v>
       </c>
     </row>
+    <row r="97" spans="1:9" ht="12.75">
+      <c r="A97" s="13">
+        <v>45716</v>
+      </c>
+      <c r="B97" s="18">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C97" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D97" s="15">
+        <v>1233.8062532146428</v>
+      </c>
+      <c r="E97" s="15">
+        <v>162895.02541496494</v>
+      </c>
+      <c r="F97" s="15">
+        <v>264052.84458649351</v>
+      </c>
+      <c r="G97" s="15">
+        <v>190000</v>
+      </c>
+      <c r="H97" s="15">
+        <v>264052.84458649351</v>
+      </c>
+      <c r="I97" s="15">
+        <v>74052.844586493506</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16660,7 +16793,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16696,7 +16829,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -16723,19 +16856,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -16745,7 +16878,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -21632,6 +21765,50 @@
       </c>
       <c r="N96" s="21">
         <v>70.243455160968878</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="12.75">
+      <c r="A97" s="13">
+        <v>45716</v>
+      </c>
+      <c r="B97" s="18">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C97" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D97" s="15">
+        <v>1233.8062532146428</v>
+      </c>
+      <c r="E97" s="15">
+        <v>170954.36627280712</v>
+      </c>
+      <c r="F97" s="15">
+        <v>277117.03653209889</v>
+      </c>
+      <c r="G97" s="15">
+        <v>197000</v>
+      </c>
+      <c r="H97" s="15">
+        <v>277117.03653209889</v>
+      </c>
+      <c r="I97" s="15">
+        <v>80117.036532098893</v>
+      </c>
+      <c r="J97" s="21">
+        <v>0.17500007152557373</v>
+      </c>
+      <c r="K97" s="21">
+        <v>6.616159537368943E-2</v>
+      </c>
+      <c r="L97" s="21">
+        <v>0.17500007152557373</v>
+      </c>
+      <c r="M97" s="23">
+        <v>8.1833388534190366E-2</v>
+      </c>
+      <c r="N97" s="21">
+        <v>80.849145512344037</v>
       </c>
     </row>
   </sheetData>
@@ -21645,7 +21822,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21681,7 +21858,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -21708,28 +21885,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -21804,7 +21981,7 @@
         <v>83.333333333333343</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>10</v>
@@ -27350,6 +27527,59 @@
       </c>
       <c r="Q96" s="21">
         <v>89.276339607984056</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="12.75">
+      <c r="A97" s="13">
+        <v>45716</v>
+      </c>
+      <c r="B97" s="18">
+        <v>1.6210000514984131</v>
+      </c>
+      <c r="C97" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D97" s="15">
+        <v>1233.8062532146428</v>
+      </c>
+      <c r="E97" s="15">
+        <v>170355.06638024771</v>
+      </c>
+      <c r="F97" s="15">
+        <v>276145.57137539709</v>
+      </c>
+      <c r="G97" s="15">
+        <v>197000</v>
+      </c>
+      <c r="H97" s="15">
+        <v>276145.57137539709</v>
+      </c>
+      <c r="I97" s="15">
+        <v>79145.571375397092</v>
+      </c>
+      <c r="J97" s="15">
+        <v>1.7549999952316284</v>
+      </c>
+      <c r="K97" s="15">
+        <v>1.4650000333786011</v>
+      </c>
+      <c r="L97" s="19">
+        <v>1.7549999952316284</v>
+      </c>
+      <c r="M97" s="19">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="N97" s="21">
+        <v>82.298553614891929</v>
+      </c>
+      <c r="O97" s="21">
+        <v>78.923393993989535</v>
+      </c>
+      <c r="P97" s="21">
+        <v>73.784832312206845</v>
+      </c>
+      <c r="Q97" s="21">
+        <v>89.200517357554929</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,8 +135,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>单位：元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -157,10 +169,6 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -701,7 +709,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -986,6 +994,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,7 +1006,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1280,6 +1291,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>192000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,7 +1336,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1607,6 +1621,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1616,7 +1633,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1901,6 +1918,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>264052.84458649351</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>250414.90987410149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,7 +1963,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2228,6 +2248,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2237,7 +2260,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2522,6 +2545,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>74052.844586493506</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>58414.90987410149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2543,11 +2569,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462518144"/>
-        <c:axId val="462520704"/>
+        <c:axId val="509787136"/>
+        <c:axId val="510239872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462518144"/>
+        <c:axId val="509787136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,14 +2613,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462520704"/>
+        <c:crossAx val="510239872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462520704"/>
+        <c:axId val="510239872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2643,7 +2669,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462518144"/>
+        <c:crossAx val="509787136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2773,7 +2799,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3058,6 +3084,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3067,7 +3096,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3352,6 +3381,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>192000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3385,7 +3417,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3670,6 +3702,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3679,7 +3714,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3964,6 +3999,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>264052.84458649351</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>250414.90987410149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3997,7 +4035,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4282,6 +4320,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4291,7 +4332,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4576,6 +4617,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>74052.844586493506</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>58414.90987410149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4597,11 +4641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462767616"/>
-        <c:axId val="462769152"/>
+        <c:axId val="555147264"/>
+        <c:axId val="555148800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462767616"/>
+        <c:axId val="555147264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4611,14 +4655,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462769152"/>
+        <c:crossAx val="555148800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462769152"/>
+        <c:axId val="555148800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4629,7 +4673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462767616"/>
+        <c:crossAx val="555147264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4751,7 +4795,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5036,6 +5080,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5045,7 +5092,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5330,6 +5377,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>197000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>199000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5372,7 +5422,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5657,6 +5707,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5666,7 +5719,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5951,6 +6004,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>277117.03653209889</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>262705.40449016116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5993,7 +6049,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6278,6 +6334,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6287,7 +6346,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6572,6 +6631,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>80117.036532098893</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>63705.404490161163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6593,11 +6655,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514552192"/>
-        <c:axId val="514553728"/>
+        <c:axId val="555678720"/>
+        <c:axId val="629670656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="514552192"/>
+        <c:axId val="555678720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6637,14 +6699,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514553728"/>
+        <c:crossAx val="629670656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="514553728"/>
+        <c:axId val="629670656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6693,7 +6755,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514552192"/>
+        <c:crossAx val="555678720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6823,7 +6885,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7108,6 +7170,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7117,7 +7182,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7402,6 +7467,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>197000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>199000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7435,7 +7503,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7720,6 +7788,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7729,7 +7800,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8014,6 +8085,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>277117.03653209889</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>262705.40449016116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8047,7 +8121,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8332,6 +8406,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8341,7 +8418,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8626,6 +8703,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>80117.036532098893</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>63705.404490161163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8647,11 +8727,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514575360"/>
-        <c:axId val="514581248"/>
+        <c:axId val="629696384"/>
+        <c:axId val="629697920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="514575360"/>
+        <c:axId val="629696384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8661,14 +8741,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514581248"/>
+        <c:crossAx val="629697920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="514581248"/>
+        <c:axId val="629697920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8679,7 +8759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514575360"/>
+        <c:crossAx val="629696384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8801,7 +8881,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9086,6 +9166,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9095,7 +9178,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9380,6 +9463,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>197000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>199000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9422,7 +9508,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9707,6 +9793,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9716,7 +9805,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10001,6 +10090,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>276145.57137539709</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>261791.47216829649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10043,7 +10135,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10328,6 +10420,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10337,7 +10432,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10622,6 +10717,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>79145.571375397092</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>62791.472168296488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10643,11 +10741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514676992"/>
-        <c:axId val="514686976"/>
+        <c:axId val="632296576"/>
+        <c:axId val="632298112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="514676992"/>
+        <c:axId val="632296576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10687,14 +10785,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514686976"/>
+        <c:crossAx val="632298112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="514686976"/>
+        <c:axId val="632298112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10743,7 +10841,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514676992"/>
+        <c:crossAx val="632296576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10873,7 +10971,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11158,6 +11256,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11167,7 +11268,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11452,6 +11553,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>197000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>199000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11485,7 +11589,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11770,6 +11874,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11779,7 +11886,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12064,6 +12171,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>276145.57137539709</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>261791.47216829649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12097,7 +12207,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12382,6 +12492,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12391,7 +12504,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="96"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12676,6 +12789,9 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>79145.571375397092</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>62791.472168296488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12697,11 +12813,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514716800"/>
-        <c:axId val="514718336"/>
+        <c:axId val="632336384"/>
+        <c:axId val="632337920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="514716800"/>
+        <c:axId val="632336384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12711,14 +12827,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514718336"/>
+        <c:crossAx val="632337920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="514718336"/>
+        <c:axId val="632337920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12729,7 +12845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="514716800"/>
+        <c:crossAx val="632336384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12771,7 +12887,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12809,7 +12925,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12850,7 +12966,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12888,7 +13004,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12931,7 +13047,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12969,7 +13085,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13247,7 +13363,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13256,7 +13372,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB97"/>
+  <dimension ref="A1:AB98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16782,6 +16898,35 @@
         <v>74052.844586493506</v>
       </c>
     </row>
+    <row r="98" spans="1:9" ht="12.75">
+      <c r="A98" s="13">
+        <v>45747</v>
+      </c>
+      <c r="B98" s="18">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C98" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D98" s="15">
+        <v>1311.4754303396792</v>
+      </c>
+      <c r="E98" s="15">
+        <v>164206.50084530463</v>
+      </c>
+      <c r="F98" s="15">
+        <v>250414.90987410149</v>
+      </c>
+      <c r="G98" s="15">
+        <v>192000</v>
+      </c>
+      <c r="H98" s="15">
+        <v>250414.90987410149</v>
+      </c>
+      <c r="I98" s="15">
+        <v>58414.90987410149</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16793,7 +16938,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16829,13 +16974,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -16856,19 +17001,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -16878,7 +17023,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -21809,6 +21954,50 @@
       </c>
       <c r="N97" s="21">
         <v>80.849145512344037</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="12.75">
+      <c r="A98" s="13">
+        <v>45747</v>
+      </c>
+      <c r="B98" s="18">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C98" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D98" s="15">
+        <v>1311.4754303396792</v>
+      </c>
+      <c r="E98" s="15">
+        <v>172265.84170314681</v>
+      </c>
+      <c r="F98" s="15">
+        <v>262705.40449016116</v>
+      </c>
+      <c r="G98" s="15">
+        <v>199000</v>
+      </c>
+      <c r="H98" s="15">
+        <v>262705.40449016116</v>
+      </c>
+      <c r="I98" s="15">
+        <v>63705.404490161163</v>
+      </c>
+      <c r="J98" s="21">
+        <v>0</v>
+      </c>
+      <c r="K98" s="21">
+        <v>5.5134662811407859E-2</v>
+      </c>
+      <c r="L98" s="21">
+        <v>9.6000075340270996E-2</v>
+      </c>
+      <c r="M98" s="23">
+        <v>8.419450300187048E-2</v>
+      </c>
+      <c r="N98" s="21">
+        <v>65.484872343961669</v>
       </c>
     </row>
   </sheetData>
@@ -21822,7 +22011,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH97"/>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21858,7 +22047,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -21885,28 +22074,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -21981,7 +22170,7 @@
         <v>83.333333333333343</v>
       </c>
       <c r="R3" s="25" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>10</v>
@@ -27580,6 +27769,59 @@
       </c>
       <c r="Q97" s="21">
         <v>89.200517357554929</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="12.75">
+      <c r="A98" s="13">
+        <v>45747</v>
+      </c>
+      <c r="B98" s="18">
+        <v>1.5249999761581421</v>
+      </c>
+      <c r="C98" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D98" s="15">
+        <v>1311.4754303396792</v>
+      </c>
+      <c r="E98" s="15">
+        <v>171666.5418105874</v>
+      </c>
+      <c r="F98" s="15">
+        <v>261791.47216829649</v>
+      </c>
+      <c r="G98" s="15">
+        <v>199000</v>
+      </c>
+      <c r="H98" s="15">
+        <v>261791.47216829649</v>
+      </c>
+      <c r="I98" s="15">
+        <v>62791.472168296488</v>
+      </c>
+      <c r="J98" s="15">
+        <v>1.7000000476837158</v>
+      </c>
+      <c r="K98" s="15">
+        <v>1.4960000514984131</v>
+      </c>
+      <c r="L98" s="19">
+        <v>1.7549999952316284</v>
+      </c>
+      <c r="M98" s="19">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="N98" s="21">
+        <v>69.616905106252176</v>
+      </c>
+      <c r="O98" s="21">
+        <v>75.82123103141042</v>
+      </c>
+      <c r="P98" s="21">
+        <v>74.463631885274708</v>
+      </c>
+      <c r="Q98" s="21">
+        <v>78.53642932368183</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,14 +104,6 @@
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -709,7 +701,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -997,6 +989,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,7 +1001,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1294,6 +1289,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>192000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>194000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1336,7 +1334,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1624,6 +1622,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1633,7 +1634,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1921,6 +1922,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>250414.90987410149</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>242069.90627162918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,7 +1967,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2251,6 +2255,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,7 +2267,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2548,6 +2555,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>58414.90987410149</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48069.906271629181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,11 +2579,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509787136"/>
-        <c:axId val="510239872"/>
+        <c:axId val="472341504"/>
+        <c:axId val="472344448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509787136"/>
+        <c:axId val="472341504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,14 +2623,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510239872"/>
+        <c:crossAx val="472344448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510239872"/>
+        <c:axId val="472344448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,7 +2679,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509787136"/>
+        <c:crossAx val="472341504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2799,7 +2809,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3087,6 +3097,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3096,7 +3109,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3384,6 +3397,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>192000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>194000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3417,7 +3433,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3705,6 +3721,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3714,7 +3733,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4002,6 +4021,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>250414.90987410149</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>242069.90627162918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,7 +4057,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4323,6 +4345,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4332,7 +4357,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4620,6 +4645,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>58414.90987410149</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48069.906271629181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4641,11 +4669,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555147264"/>
-        <c:axId val="555148800"/>
+        <c:axId val="472426368"/>
+        <c:axId val="472437120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="555147264"/>
+        <c:axId val="472426368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4655,14 +4683,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="555148800"/>
+        <c:crossAx val="472437120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="555148800"/>
+        <c:axId val="472437120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4673,7 +4701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="555147264"/>
+        <c:crossAx val="472426368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4795,7 +4823,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5083,6 +5111,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5092,7 +5123,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5380,6 +5411,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>199000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>201000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5422,7 +5456,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5710,6 +5744,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5719,7 +5756,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6007,6 +6044,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>262705.40449016116</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>253852.66270571228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6049,7 +6089,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6337,6 +6377,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6346,7 +6389,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6634,6 +6677,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>63705.404490161163</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>52852.662705712282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6655,11 +6701,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555678720"/>
-        <c:axId val="629670656"/>
+        <c:axId val="472672512"/>
+        <c:axId val="473006464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="555678720"/>
+        <c:axId val="472672512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6699,14 +6745,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629670656"/>
+        <c:crossAx val="473006464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="629670656"/>
+        <c:axId val="473006464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6755,7 +6801,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555678720"/>
+        <c:crossAx val="472672512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6885,7 +6931,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7173,6 +7219,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7182,7 +7231,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7470,6 +7519,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>199000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>201000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7503,7 +7555,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7791,6 +7843,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7800,7 +7855,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8088,6 +8143,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>262705.40449016116</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>253852.66270571228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8121,7 +8179,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8409,6 +8467,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8418,7 +8479,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8706,6 +8767,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>63705.404490161163</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>52852.662705712282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8727,11 +8791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="629696384"/>
-        <c:axId val="629697920"/>
+        <c:axId val="504911360"/>
+        <c:axId val="504912896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="629696384"/>
+        <c:axId val="504911360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8741,14 +8805,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="629697920"/>
+        <c:crossAx val="504912896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="629697920"/>
+        <c:axId val="504912896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8759,7 +8823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="629696384"/>
+        <c:crossAx val="504911360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8881,7 +8945,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9169,6 +9233,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9178,7 +9245,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9466,6 +9533,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>199000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>201000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9508,7 +9578,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9796,6 +9866,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9805,7 +9878,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10093,6 +10166,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>261791.47216829649</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>252976.48625536042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10135,7 +10211,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10423,6 +10499,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10432,7 +10511,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10720,6 +10799,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>62791.472168296488</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>51976.486255360418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10741,11 +10823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632296576"/>
-        <c:axId val="632298112"/>
+        <c:axId val="504977664"/>
+        <c:axId val="504979456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="632296576"/>
+        <c:axId val="504977664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10785,14 +10867,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632298112"/>
+        <c:crossAx val="504979456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="632298112"/>
+        <c:axId val="504979456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10841,7 +10923,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632296576"/>
+        <c:crossAx val="504977664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10971,7 +11053,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11259,6 +11341,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11268,7 +11353,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11556,6 +11641,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>199000</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>201000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11589,7 +11677,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11877,6 +11965,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11886,7 +11977,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12174,6 +12265,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>261791.47216829649</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>252976.48625536042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12207,7 +12301,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12495,6 +12589,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12504,7 +12601,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="97"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12792,6 +12889,9 @@
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>62791.472168296488</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>51976.486255360418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12813,11 +12913,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632336384"/>
-        <c:axId val="632337920"/>
+        <c:axId val="505006720"/>
+        <c:axId val="505016704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="632336384"/>
+        <c:axId val="505006720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12827,14 +12927,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632337920"/>
+        <c:crossAx val="505016704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="632337920"/>
+        <c:axId val="505016704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12845,7 +12945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632336384"/>
+        <c:crossAx val="505006720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12887,7 +12987,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12925,7 +13025,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12966,7 +13066,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13004,7 +13104,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13047,7 +13147,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13085,7 +13185,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13363,7 +13463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13372,7 +13472,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB98"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16927,6 +17027,35 @@
         <v>58414.90987410149</v>
       </c>
     </row>
+    <row r="99" spans="1:9" ht="12.75">
+      <c r="A99" s="13">
+        <v>45777</v>
+      </c>
+      <c r="B99" s="18">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C99" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D99" s="15">
+        <v>1367.9890444869984</v>
+      </c>
+      <c r="E99" s="15">
+        <v>165574.48988979164</v>
+      </c>
+      <c r="F99" s="15">
+        <v>242069.90627162918</v>
+      </c>
+      <c r="G99" s="15">
+        <v>194000</v>
+      </c>
+      <c r="H99" s="15">
+        <v>242069.90627162918</v>
+      </c>
+      <c r="I99" s="15">
+        <v>48069.906271629181</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16938,7 +17067,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16977,10 +17106,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -17001,19 +17130,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -17023,7 +17152,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -21998,6 +22127,50 @@
       </c>
       <c r="N98" s="21">
         <v>65.484872343961669</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="12.75">
+      <c r="A99" s="13">
+        <v>45777</v>
+      </c>
+      <c r="B99" s="18">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C99" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D99" s="15">
+        <v>1367.9890444869984</v>
+      </c>
+      <c r="E99" s="15">
+        <v>173633.83074763382</v>
+      </c>
+      <c r="F99" s="15">
+        <v>253852.66270571228</v>
+      </c>
+      <c r="G99" s="15">
+        <v>201000</v>
+      </c>
+      <c r="H99" s="15">
+        <v>253852.66270571228</v>
+      </c>
+      <c r="I99" s="15">
+        <v>52852.662705712282</v>
+      </c>
+      <c r="J99" s="21">
+        <v>0</v>
+      </c>
+      <c r="K99" s="21">
+        <v>4.5945552342839889E-2</v>
+      </c>
+      <c r="L99" s="21">
+        <v>6.2999963760375977E-2</v>
+      </c>
+      <c r="M99" s="23">
+        <v>8.0662079794954725E-2</v>
+      </c>
+      <c r="N99" s="21">
+        <v>56.960535185349521</v>
       </c>
     </row>
   </sheetData>
@@ -22011,7 +22184,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AH99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22047,7 +22220,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -22074,28 +22247,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -27824,6 +27997,59 @@
         <v>78.53642932368183</v>
       </c>
     </row>
+    <row r="99" spans="1:17" ht="12.75">
+      <c r="A99" s="13">
+        <v>45777</v>
+      </c>
+      <c r="B99" s="18">
+        <v>1.4620000123977661</v>
+      </c>
+      <c r="C99" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D99" s="15">
+        <v>1367.9890444869984</v>
+      </c>
+      <c r="E99" s="15">
+        <v>173034.53085507441</v>
+      </c>
+      <c r="F99" s="15">
+        <v>252976.48625536042</v>
+      </c>
+      <c r="G99" s="15">
+        <v>201000</v>
+      </c>
+      <c r="H99" s="15">
+        <v>252976.48625536042</v>
+      </c>
+      <c r="I99" s="15">
+        <v>51976.486255360418</v>
+      </c>
+      <c r="J99" s="15">
+        <v>1.5379999876022339</v>
+      </c>
+      <c r="K99" s="15">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="L99" s="19">
+        <v>1.7549999952316284</v>
+      </c>
+      <c r="M99" s="19">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="N99" s="21">
+        <v>61.294584591041257</v>
+      </c>
+      <c r="O99" s="21">
+        <v>70.979015551287361</v>
+      </c>
+      <c r="P99" s="21">
+        <v>73.302093107278935</v>
+      </c>
+      <c r="Q99" s="21">
+        <v>66.332860439304199</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -701,7 +697,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -992,6 +988,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,7 +1000,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1292,6 +1291,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>194000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>196000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,7 +1336,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1625,6 +1627,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,7 +1639,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1925,6 +1930,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>242069.90627162918</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>239764.96574479528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1967,7 +1975,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2258,6 +2266,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,7 +2278,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2558,6 +2569,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>48069.906271629181</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43764.965744795278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2579,11 +2593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472341504"/>
-        <c:axId val="472344448"/>
+        <c:axId val="602779008"/>
+        <c:axId val="602793088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472341504"/>
+        <c:axId val="602779008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2623,14 +2637,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472344448"/>
+        <c:crossAx val="602793088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472344448"/>
+        <c:axId val="602793088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2679,7 +2693,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472341504"/>
+        <c:crossAx val="602779008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2809,7 +2823,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3100,6 +3114,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3109,7 +3126,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3400,6 +3417,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>194000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>196000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3433,7 +3453,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3724,6 +3744,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3733,7 +3756,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4024,6 +4047,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>242069.90627162918</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>239764.96574479528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4057,7 +4083,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4348,6 +4374,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4357,7 +4386,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4648,6 +4677,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>48069.906271629181</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43764.965744795278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4669,11 +4701,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472426368"/>
-        <c:axId val="472437120"/>
+        <c:axId val="602870144"/>
+        <c:axId val="602872064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472426368"/>
+        <c:axId val="602870144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4683,14 +4715,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472437120"/>
+        <c:crossAx val="602872064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472437120"/>
+        <c:axId val="602872064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4701,7 +4733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472426368"/>
+        <c:crossAx val="602870144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4823,7 +4855,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5114,6 +5146,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5123,7 +5158,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5414,6 +5449,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>201000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>203000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5456,7 +5494,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5747,6 +5785,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5756,7 +5797,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6047,6 +6088,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>253852.66270571228</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>251338.17913211079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6089,7 +6133,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6380,6 +6424,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6389,7 +6436,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6680,6 +6727,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>52852.662705712282</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48338.179132110788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6701,11 +6751,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472672512"/>
-        <c:axId val="473006464"/>
+        <c:axId val="603283840"/>
+        <c:axId val="603285376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472672512"/>
+        <c:axId val="603283840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6745,14 +6795,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473006464"/>
+        <c:crossAx val="603285376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473006464"/>
+        <c:axId val="603285376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6801,7 +6851,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472672512"/>
+        <c:crossAx val="603283840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6931,7 +6981,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7222,6 +7272,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7231,7 +7284,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7522,6 +7575,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>201000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>203000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7555,7 +7611,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7846,6 +7902,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7855,7 +7914,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8146,6 +8205,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>253852.66270571228</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>251338.17913211079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8179,7 +8241,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8470,6 +8532,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8479,7 +8544,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8770,6 +8835,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>52852.662705712282</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48338.179132110788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8791,11 +8859,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504911360"/>
-        <c:axId val="504912896"/>
+        <c:axId val="704074880"/>
+        <c:axId val="704076416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504911360"/>
+        <c:axId val="704074880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8805,14 +8873,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504912896"/>
+        <c:crossAx val="704076416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504912896"/>
+        <c:axId val="704076416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8823,7 +8891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504911360"/>
+        <c:crossAx val="704074880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8945,7 +9013,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9236,6 +9304,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9245,7 +9316,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9536,6 +9607,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>201000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>203000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9578,7 +9652,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9869,6 +9943,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9878,7 +9955,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10169,6 +10246,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>252976.48625536042</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>250477.58449268236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10211,7 +10291,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10502,6 +10582,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10511,7 +10594,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10802,6 +10885,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>51976.486255360418</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>47477.584492682363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10823,11 +10909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504977664"/>
-        <c:axId val="504979456"/>
+        <c:axId val="661452672"/>
+        <c:axId val="661454208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504977664"/>
+        <c:axId val="661452672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10867,14 +10953,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504979456"/>
+        <c:crossAx val="661454208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504979456"/>
+        <c:axId val="661454208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10923,7 +11009,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504977664"/>
+        <c:crossAx val="661452672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11053,7 +11139,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11344,6 +11430,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11353,7 +11442,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11644,6 +11733,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>201000</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>203000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11677,7 +11769,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11968,6 +12060,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11977,7 +12072,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12268,6 +12363,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>252976.48625536042</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>250477.58449268236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12301,7 +12399,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12592,6 +12690,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12601,7 +12702,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="97"/>
+                <c:ptCount val="98"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12892,6 +12993,9 @@
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>51976.486255360418</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>47477.584492682363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12913,11 +13017,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="505006720"/>
-        <c:axId val="505016704"/>
+        <c:axId val="661616896"/>
+        <c:axId val="661626880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="505006720"/>
+        <c:axId val="661616896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12927,14 +13031,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="505016704"/>
+        <c:crossAx val="661626880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="505016704"/>
+        <c:axId val="661626880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12945,7 +13049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="505006720"/>
+        <c:crossAx val="661616896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12987,7 +13091,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13025,7 +13129,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13066,7 +13170,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13104,7 +13208,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13147,7 +13251,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13185,7 +13289,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13463,7 +13567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13472,7 +13576,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB99"/>
+  <dimension ref="A1:AB100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17056,6 +17160,35 @@
         <v>48069.906271629181</v>
       </c>
     </row>
+    <row r="100" spans="1:9" ht="12.75">
+      <c r="A100" s="13">
+        <v>45807</v>
+      </c>
+      <c r="B100" s="18">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C100" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D100" s="15">
+        <v>1392.7576703416501</v>
+      </c>
+      <c r="E100" s="15">
+        <v>166967.24756013328</v>
+      </c>
+      <c r="F100" s="15">
+        <v>239764.96574479528</v>
+      </c>
+      <c r="G100" s="15">
+        <v>196000</v>
+      </c>
+      <c r="H100" s="15">
+        <v>239764.96574479528</v>
+      </c>
+      <c r="I100" s="15">
+        <v>43764.965744795278</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17067,7 +17200,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17103,7 +17236,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -17130,19 +17263,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -17152,7 +17285,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -22171,6 +22304,50 @@
       </c>
       <c r="N99" s="21">
         <v>56.960535185349521</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="12.75">
+      <c r="A100" s="13">
+        <v>45807</v>
+      </c>
+      <c r="B100" s="18">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C100" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D100" s="15">
+        <v>1392.7576703416501</v>
+      </c>
+      <c r="E100" s="15">
+        <v>175026.58841797546</v>
+      </c>
+      <c r="F100" s="15">
+        <v>251338.17913211079</v>
+      </c>
+      <c r="G100" s="15">
+        <v>203000</v>
+      </c>
+      <c r="H100" s="15">
+        <v>251338.17913211079</v>
+      </c>
+      <c r="I100" s="15">
+        <v>48338.179132110788</v>
+      </c>
+      <c r="J100" s="21">
+        <v>0</v>
+      </c>
+      <c r="K100" s="21">
+        <v>3.8287960285699911E-2</v>
+      </c>
+      <c r="L100" s="21">
+        <v>2.6000022888183594E-2</v>
+      </c>
+      <c r="M100" s="23">
+        <v>7.1551736977159539E-2</v>
+      </c>
+      <c r="N100" s="21">
+        <v>53.51087465273141</v>
       </c>
     </row>
   </sheetData>
@@ -22184,7 +22361,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22220,7 +22397,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -22247,28 +22424,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -28050,6 +28227,59 @@
         <v>66.332860439304199</v>
       </c>
     </row>
+    <row r="100" spans="1:17" ht="12.75">
+      <c r="A100" s="13">
+        <v>45807</v>
+      </c>
+      <c r="B100" s="18">
+        <v>1.4359999895095825</v>
+      </c>
+      <c r="C100" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D100" s="15">
+        <v>1392.7576703416501</v>
+      </c>
+      <c r="E100" s="15">
+        <v>174427.28852541605</v>
+      </c>
+      <c r="F100" s="15">
+        <v>250477.58449268236</v>
+      </c>
+      <c r="G100" s="15">
+        <v>203000</v>
+      </c>
+      <c r="H100" s="15">
+        <v>250477.58449268236</v>
+      </c>
+      <c r="I100" s="15">
+        <v>47477.584492682363</v>
+      </c>
+      <c r="J100" s="15">
+        <v>1.5449999570846558</v>
+      </c>
+      <c r="K100" s="15">
+        <v>1.4229999780654907</v>
+      </c>
+      <c r="L100" s="19">
+        <v>1.7549999952316284</v>
+      </c>
+      <c r="M100" s="19">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="N100" s="21">
+        <v>57.859971125209761</v>
+      </c>
+      <c r="O100" s="21">
+        <v>66.60600074259483</v>
+      </c>
+      <c r="P100" s="21">
+        <v>71.070062319050905</v>
+      </c>
+      <c r="Q100" s="21">
+        <v>57.67787758968268</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,10 +129,6 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -157,6 +161,10 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -697,7 +705,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -991,6 +999,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,7 +1011,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1294,6 +1305,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>196000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>198000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1336,7 +1350,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1630,6 +1644,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1639,7 +1656,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1933,6 +1950,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>239764.96574479528</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>260298.3404148421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,7 +1995,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2269,6 +2289,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2278,7 +2301,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2572,6 +2595,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>43764.965744795278</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>62298.340414842096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2593,11 +2619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602779008"/>
-        <c:axId val="602793088"/>
+        <c:axId val="507485184"/>
+        <c:axId val="507537280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602779008"/>
+        <c:axId val="507485184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,14 +2663,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602793088"/>
+        <c:crossAx val="507537280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602793088"/>
+        <c:axId val="507537280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2693,7 +2719,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602779008"/>
+        <c:crossAx val="507485184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2823,7 +2849,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3117,6 +3143,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3126,7 +3155,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3420,6 +3449,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>196000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>198000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3453,7 +3485,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3747,6 +3779,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3756,7 +3791,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4050,6 +4085,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>239764.96574479528</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>260298.3404148421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4083,7 +4121,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4377,6 +4415,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4386,7 +4427,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4680,6 +4721,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>43764.965744795278</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>62298.340414842096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4701,11 +4745,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602870144"/>
-        <c:axId val="602872064"/>
+        <c:axId val="507565952"/>
+        <c:axId val="507567488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602870144"/>
+        <c:axId val="507565952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4715,14 +4759,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602872064"/>
+        <c:crossAx val="507567488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602872064"/>
+        <c:axId val="507567488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4733,7 +4777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602870144"/>
+        <c:crossAx val="507565952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4855,7 +4899,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5149,6 +5193,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5158,7 +5205,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5452,6 +5499,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>205000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5494,7 +5544,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5788,6 +5838,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5797,7 +5850,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6091,6 +6144,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>251338.17913211079</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>272766.1411292812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6133,7 +6189,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6427,6 +6483,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6436,7 +6495,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6730,6 +6789,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>48338.179132110788</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>67766.141129281197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6751,11 +6813,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603283840"/>
-        <c:axId val="603285376"/>
+        <c:axId val="547004800"/>
+        <c:axId val="547108736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="603283840"/>
+        <c:axId val="547004800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6795,14 +6857,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603285376"/>
+        <c:crossAx val="547108736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="603285376"/>
+        <c:axId val="547108736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6851,7 +6913,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603283840"/>
+        <c:crossAx val="547004800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6981,7 +7043,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7275,6 +7337,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7284,7 +7349,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7578,6 +7643,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>205000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7611,7 +7679,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7905,6 +7973,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7914,7 +7985,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8208,6 +8279,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>251338.17913211079</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>272766.1411292812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8241,7 +8315,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8535,6 +8609,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8544,7 +8621,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8838,6 +8915,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>48338.179132110788</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>67766.141129281197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8859,11 +8939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="704074880"/>
-        <c:axId val="704076416"/>
+        <c:axId val="656086528"/>
+        <c:axId val="565600640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="704074880"/>
+        <c:axId val="656086528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8873,14 +8953,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="704076416"/>
+        <c:crossAx val="565600640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="704076416"/>
+        <c:axId val="565600640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8891,7 +8971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="704074880"/>
+        <c:crossAx val="656086528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9013,7 +9093,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9307,6 +9387,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9316,7 +9399,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9610,6 +9693,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>205000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9652,7 +9738,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9946,6 +10032,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9955,7 +10044,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10249,6 +10338,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>250477.58449268236</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>271839.02416520036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10291,7 +10383,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10585,6 +10677,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10594,7 +10689,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10888,6 +10983,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>47477.584492682363</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>66839.024165200361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10909,11 +11007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="661452672"/>
-        <c:axId val="661454208"/>
+        <c:axId val="565673344"/>
+        <c:axId val="565675136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="661452672"/>
+        <c:axId val="565673344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10953,14 +11051,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661454208"/>
+        <c:crossAx val="565675136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="661454208"/>
+        <c:axId val="565675136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11009,7 +11107,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661452672"/>
+        <c:crossAx val="565673344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11139,7 +11237,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11433,6 +11531,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11442,7 +11543,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11736,6 +11837,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>203000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>205000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11769,7 +11873,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12063,6 +12167,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12072,7 +12179,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12366,6 +12473,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>250477.58449268236</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>271839.02416520036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12399,7 +12509,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12693,6 +12803,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12702,7 +12815,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12996,6 +13109,9 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>47477.584492682363</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>66839.024165200361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13017,11 +13133,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="661616896"/>
-        <c:axId val="661626880"/>
+        <c:axId val="565690368"/>
+        <c:axId val="565691904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="661616896"/>
+        <c:axId val="565690368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13031,14 +13147,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661626880"/>
+        <c:crossAx val="565691904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="661626880"/>
+        <c:axId val="565691904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13049,7 +13165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661616896"/>
+        <c:crossAx val="565690368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13091,7 +13207,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13129,7 +13245,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13170,7 +13286,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13208,7 +13324,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13251,7 +13367,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13289,7 +13405,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13567,7 +13683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13576,7 +13692,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB100"/>
+  <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17189,6 +17305,35 @@
         <v>43764.965744795278</v>
       </c>
     </row>
+    <row r="101" spans="1:9" ht="12.75">
+      <c r="A101" s="13">
+        <v>45838</v>
+      </c>
+      <c r="B101" s="18">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C101" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D101" s="15">
+        <v>1292.8247799964506</v>
+      </c>
+      <c r="E101" s="15">
+        <v>168260.07234012973</v>
+      </c>
+      <c r="F101" s="15">
+        <v>260298.3404148421</v>
+      </c>
+      <c r="G101" s="15">
+        <v>198000</v>
+      </c>
+      <c r="H101" s="15">
+        <v>260298.3404148421</v>
+      </c>
+      <c r="I101" s="15">
+        <v>62298.340414842096</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17200,7 +17345,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17236,10 +17381,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -17263,19 +17408,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -17285,7 +17430,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -22348,6 +22493,50 @@
       </c>
       <c r="N100" s="21">
         <v>53.51087465273141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="12.75">
+      <c r="A101" s="13">
+        <v>45838</v>
+      </c>
+      <c r="B101" s="18">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C101" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D101" s="15">
+        <v>1292.8247799964506</v>
+      </c>
+      <c r="E101" s="15">
+        <v>176319.41319797191</v>
+      </c>
+      <c r="F101" s="15">
+        <v>272766.1411292812</v>
+      </c>
+      <c r="G101" s="15">
+        <v>205000</v>
+      </c>
+      <c r="H101" s="15">
+        <v>272766.1411292812</v>
+      </c>
+      <c r="I101" s="15">
+        <v>67766.141129281197</v>
+      </c>
+      <c r="J101" s="21">
+        <v>0.11100006103515625</v>
+      </c>
+      <c r="K101" s="21">
+        <v>5.0406643743942638E-2</v>
+      </c>
+      <c r="L101" s="21">
+        <v>0.11100006103515625</v>
+      </c>
+      <c r="M101" s="23">
+        <v>7.8126457653492326E-2</v>
+      </c>
+      <c r="N101" s="21">
+        <v>64.519300193420989</v>
       </c>
     </row>
   </sheetData>
@@ -22361,7 +22550,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH100"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22424,28 +22613,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -22455,7 +22644,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -28280,6 +28469,59 @@
         <v>57.67787758968268</v>
       </c>
     </row>
+    <row r="101" spans="1:17" ht="12.75">
+      <c r="A101" s="13">
+        <v>45838</v>
+      </c>
+      <c r="B101" s="18">
+        <v>1.5470000505447388</v>
+      </c>
+      <c r="C101" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D101" s="15">
+        <v>1292.8247799964506</v>
+      </c>
+      <c r="E101" s="15">
+        <v>175720.11330541249</v>
+      </c>
+      <c r="F101" s="15">
+        <v>271839.02416520036</v>
+      </c>
+      <c r="G101" s="15">
+        <v>205000</v>
+      </c>
+      <c r="H101" s="15">
+        <v>271839.02416520036</v>
+      </c>
+      <c r="I101" s="15">
+        <v>66839.024165200361</v>
+      </c>
+      <c r="J101" s="15">
+        <v>1.5479999780654907</v>
+      </c>
+      <c r="K101" s="15">
+        <v>1.4299999475479126</v>
+      </c>
+      <c r="L101" s="19">
+        <v>1.7549999952316284</v>
+      </c>
+      <c r="M101" s="19">
+        <v>1.2710000276565552</v>
+      </c>
+      <c r="N101" s="21">
+        <v>57.024801937692942</v>
+      </c>
+      <c r="O101" s="21">
+        <v>63.412267807627529</v>
+      </c>
+      <c r="P101" s="21">
+        <v>68.517464148576451</v>
+      </c>
+      <c r="Q101" s="21">
+        <v>53.201875125729686</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,14 +103,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业LOF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,6 +120,18 @@
   </si>
   <si>
     <t>RSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -705,7 +709,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1002,6 +1006,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,7 +1018,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1308,6 +1315,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>198000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,7 +1360,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1647,6 +1657,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1656,7 +1669,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1953,6 +1966,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>260298.3404148421</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>287369.07931908855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,7 +2011,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2292,6 +2308,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2301,7 +2320,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2598,6 +2617,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>62298.340414842096</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>87369.079319088545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2619,11 +2641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507485184"/>
-        <c:axId val="507537280"/>
+        <c:axId val="501627136"/>
+        <c:axId val="501657600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507485184"/>
+        <c:axId val="501627136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2663,14 +2685,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507537280"/>
+        <c:crossAx val="501657600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507537280"/>
+        <c:axId val="501657600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2741,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507485184"/>
+        <c:crossAx val="501627136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2849,7 +2871,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3146,6 +3168,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3155,7 +3180,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3452,6 +3477,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>198000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3485,7 +3513,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3782,6 +3810,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3791,7 +3822,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4088,6 +4119,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>260298.3404148421</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>287369.07931908855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4121,7 +4155,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4418,6 +4452,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4427,7 +4464,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4724,6 +4761,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>62298.340414842096</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>87369.079319088545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4745,11 +4785,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507565952"/>
-        <c:axId val="507567488"/>
+        <c:axId val="501737728"/>
+        <c:axId val="501740672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507565952"/>
+        <c:axId val="501737728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4759,14 +4799,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507567488"/>
+        <c:crossAx val="501740672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507567488"/>
+        <c:axId val="501740672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4777,7 +4817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507565952"/>
+        <c:crossAx val="501737728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4899,7 +4939,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5196,6 +5236,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5205,7 +5248,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5502,6 +5545,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>205000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>207000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5544,7 +5590,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5841,6 +5887,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5850,7 +5899,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6147,6 +6196,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>272766.1411292812</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>301037.72125258314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6189,7 +6241,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6486,6 +6538,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6495,7 +6550,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6792,6 +6847,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>67766.141129281197</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>94037.721252583142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6813,11 +6871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547004800"/>
-        <c:axId val="547108736"/>
+        <c:axId val="531092992"/>
+        <c:axId val="531094528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="547004800"/>
+        <c:axId val="531092992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6857,14 +6915,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547108736"/>
+        <c:crossAx val="531094528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="547108736"/>
+        <c:axId val="531094528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6913,7 +6971,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547004800"/>
+        <c:crossAx val="531092992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7043,7 +7101,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7340,6 +7398,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7349,7 +7410,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7646,6 +7707,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>205000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>207000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7679,7 +7743,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7976,6 +8040,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7985,7 +8052,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8282,6 +8349,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>272766.1411292812</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>301037.72125258314</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8315,7 +8385,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8612,6 +8682,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8621,7 +8694,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8918,6 +8991,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>67766.141129281197</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>94037.721252583142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8939,11 +9015,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="656086528"/>
-        <c:axId val="565600640"/>
+        <c:axId val="532105088"/>
+        <c:axId val="532106624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="656086528"/>
+        <c:axId val="532105088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8953,14 +9029,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565600640"/>
+        <c:crossAx val="532106624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="565600640"/>
+        <c:axId val="532106624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8971,7 +9047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="656086528"/>
+        <c:crossAx val="532105088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9093,7 +9169,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9390,6 +9466,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9399,7 +9478,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9696,6 +9775,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>205000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>207000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9738,7 +9820,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10035,6 +10117,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10044,7 +10129,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10341,6 +10426,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>271839.02416520036</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>300021.30864680465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10383,7 +10471,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10680,6 +10768,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10689,7 +10780,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10986,6 +11077,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>66839.024165200361</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>93021.308646804653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11007,11 +11101,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565673344"/>
-        <c:axId val="565675136"/>
+        <c:axId val="532249216"/>
+        <c:axId val="532259200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="565673344"/>
+        <c:axId val="532249216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11051,14 +11145,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565675136"/>
+        <c:crossAx val="532259200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="565675136"/>
+        <c:axId val="532259200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11107,7 +11201,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565673344"/>
+        <c:crossAx val="532249216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11237,7 +11331,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11534,6 +11628,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11543,7 +11640,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11840,6 +11937,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>205000</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>207000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11873,7 +11973,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12170,6 +12270,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12179,7 +12282,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12476,6 +12579,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>271839.02416520036</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>300021.30864680465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12509,7 +12615,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12806,6 +12912,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12815,7 +12924,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13112,6 +13221,9 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>66839.024165200361</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>93021.308646804653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13133,11 +13245,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565690368"/>
-        <c:axId val="565691904"/>
+        <c:axId val="532274176"/>
+        <c:axId val="532296448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="565690368"/>
+        <c:axId val="532274176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13147,14 +13259,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565691904"/>
+        <c:crossAx val="532296448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="565691904"/>
+        <c:axId val="532296448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13165,7 +13277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565690368"/>
+        <c:crossAx val="532274176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13207,7 +13319,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13245,7 +13357,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13286,7 +13398,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13324,7 +13436,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13367,7 +13479,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13405,7 +13517,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13683,7 +13795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13692,7 +13804,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB101"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17334,6 +17446,35 @@
         <v>62298.340414842096</v>
       </c>
     </row>
+    <row r="102" spans="1:9" ht="12.75">
+      <c r="A102" s="13">
+        <v>45869</v>
+      </c>
+      <c r="B102" s="18">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C102" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D102" s="15">
+        <v>1179.2452969439476</v>
+      </c>
+      <c r="E102" s="15">
+        <v>169439.31763707369</v>
+      </c>
+      <c r="F102" s="15">
+        <v>287369.07931908855</v>
+      </c>
+      <c r="G102" s="15">
+        <v>200000</v>
+      </c>
+      <c r="H102" s="15">
+        <v>287369.07931908855</v>
+      </c>
+      <c r="I102" s="15">
+        <v>87369.079319088545</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17345,7 +17486,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17381,10 +17522,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -17408,19 +17549,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -22537,6 +22678,50 @@
       </c>
       <c r="N101" s="21">
         <v>64.519300193420989</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="12.75">
+      <c r="A102" s="13">
+        <v>45869</v>
+      </c>
+      <c r="B102" s="18">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C102" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D102" s="15">
+        <v>1179.2452969439476</v>
+      </c>
+      <c r="E102" s="15">
+        <v>177498.65849491587</v>
+      </c>
+      <c r="F102" s="15">
+        <v>301037.72125258314</v>
+      </c>
+      <c r="G102" s="15">
+        <v>207000</v>
+      </c>
+      <c r="H102" s="15">
+        <v>301037.72125258314</v>
+      </c>
+      <c r="I102" s="15">
+        <v>94037.721252583142</v>
+      </c>
+      <c r="J102" s="21">
+        <v>0.14899992942810059</v>
+      </c>
+      <c r="K102" s="21">
+        <v>6.6838858024635628E-2</v>
+      </c>
+      <c r="L102" s="21">
+        <v>0.14899992942810059</v>
+      </c>
+      <c r="M102" s="23">
+        <v>8.9938702949260374E-2</v>
+      </c>
+      <c r="N102" s="21">
+        <v>74.316012831920972</v>
       </c>
     </row>
   </sheetData>
@@ -22550,7 +22735,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22586,13 +22771,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -22613,28 +22798,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -22644,7 +22829,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -28522,6 +28707,59 @@
         <v>53.201875125729686</v>
       </c>
     </row>
+    <row r="102" spans="1:17" ht="12.75">
+      <c r="A102" s="13">
+        <v>45869</v>
+      </c>
+      <c r="B102" s="18">
+        <v>1.6959999799728394</v>
+      </c>
+      <c r="C102" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D102" s="15">
+        <v>1179.2452969439476</v>
+      </c>
+      <c r="E102" s="15">
+        <v>176899.35860235646</v>
+      </c>
+      <c r="F102" s="15">
+        <v>300021.30864680465</v>
+      </c>
+      <c r="G102" s="15">
+        <v>207000</v>
+      </c>
+      <c r="H102" s="15">
+        <v>300021.30864680465</v>
+      </c>
+      <c r="I102" s="15">
+        <v>93021.308646804653</v>
+      </c>
+      <c r="J102" s="15">
+        <v>1.7300000190734863</v>
+      </c>
+      <c r="K102" s="15">
+        <v>1.4939999580383301</v>
+      </c>
+      <c r="L102" s="19">
+        <v>1.7549999952316284</v>
+      </c>
+      <c r="M102" s="19">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="N102" s="21">
+        <v>87.032964902430479</v>
+      </c>
+      <c r="O102" s="21">
+        <v>71.285833505895184</v>
+      </c>
+      <c r="P102" s="21">
+        <v>69.440253934349357</v>
+      </c>
+      <c r="Q102" s="21">
+        <v>74.976992648986823</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>买卖金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最高价</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -165,10 +161,6 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -709,7 +701,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1009,6 +1001,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,7 +1013,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1318,6 +1313,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>202000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1360,7 +1358,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1660,6 +1658,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1669,7 +1670,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1969,6 +1970,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>287369.07931908855</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>475752.33275961777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2011,7 +2015,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2311,6 +2315,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2320,7 +2327,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2620,6 +2627,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>87369.079319088545</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>273752.33275961777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2641,11 +2651,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501627136"/>
-        <c:axId val="501657600"/>
+        <c:axId val="428657664"/>
+        <c:axId val="428672128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501627136"/>
+        <c:axId val="428657664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,14 +2695,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501657600"/>
+        <c:crossAx val="428672128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501657600"/>
+        <c:axId val="428672128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,7 +2751,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501627136"/>
+        <c:crossAx val="428657664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2871,7 +2881,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3171,6 +3181,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3180,7 +3193,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3480,6 +3493,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>202000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3513,7 +3529,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3813,6 +3829,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3822,7 +3841,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4122,6 +4141,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>287369.07931908855</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>475752.33275961777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4155,7 +4177,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4455,6 +4477,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4464,7 +4489,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4764,6 +4789,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>87369.079319088545</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>273752.33275961777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4785,11 +4813,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501737728"/>
-        <c:axId val="501740672"/>
+        <c:axId val="470102400"/>
+        <c:axId val="470103936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501737728"/>
+        <c:axId val="470102400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4799,14 +4827,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501740672"/>
+        <c:crossAx val="470103936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501740672"/>
+        <c:axId val="470103936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4817,7 +4845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501737728"/>
+        <c:crossAx val="470102400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4939,7 +4967,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5239,6 +5267,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5248,7 +5279,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5548,6 +5579,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>207000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>209000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5590,7 +5624,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5890,6 +5924,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5899,7 +5936,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6199,6 +6236,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>301037.72125258314</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>498286.24982888845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6241,7 +6281,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6541,6 +6581,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6550,7 +6593,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6850,6 +6893,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>94037.721252583142</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>289286.24982888845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6871,11 +6917,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="531092992"/>
-        <c:axId val="531094528"/>
+        <c:axId val="473366528"/>
+        <c:axId val="473368064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="531092992"/>
+        <c:axId val="473366528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6915,14 +6961,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531094528"/>
+        <c:crossAx val="473368064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531094528"/>
+        <c:axId val="473368064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6971,7 +7017,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531092992"/>
+        <c:crossAx val="473366528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7101,7 +7147,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7401,6 +7447,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7410,7 +7459,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7710,6 +7759,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>207000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>209000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7743,7 +7795,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8043,6 +8095,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8052,7 +8107,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8352,6 +8407,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>301037.72125258314</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>498286.24982888845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8385,7 +8443,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8685,6 +8743,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8694,7 +8755,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8994,6 +9055,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>94037.721252583142</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>289286.24982888845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9015,11 +9079,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532105088"/>
-        <c:axId val="532106624"/>
+        <c:axId val="526033280"/>
+        <c:axId val="526034816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532105088"/>
+        <c:axId val="526033280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9029,14 +9093,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="532106624"/>
+        <c:crossAx val="526034816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532106624"/>
+        <c:axId val="526034816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9047,7 +9111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="532105088"/>
+        <c:crossAx val="526033280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9169,7 +9233,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9469,6 +9533,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9478,7 +9545,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9778,6 +9845,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>207000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>209000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9820,7 +9890,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10120,6 +10190,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10129,7 +10202,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10429,6 +10502,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>300021.30864680465</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>496610.60732700618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10471,7 +10547,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10771,6 +10847,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10780,7 +10859,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11080,6 +11159,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>93021.308646804653</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>287610.60732700618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11101,11 +11183,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532249216"/>
-        <c:axId val="532259200"/>
+        <c:axId val="526357632"/>
+        <c:axId val="526359168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532249216"/>
+        <c:axId val="526357632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11145,14 +11227,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532259200"/>
+        <c:crossAx val="526359168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532259200"/>
+        <c:axId val="526359168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11201,7 +11283,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532249216"/>
+        <c:crossAx val="526357632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11331,7 +11413,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11631,6 +11713,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11640,7 +11725,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -11940,6 +12025,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>207000</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>209000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11973,7 +12061,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12273,6 +12361,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12282,7 +12373,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12582,6 +12673,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>300021.30864680465</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>496610.60732700618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12615,7 +12709,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12915,6 +13009,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12924,7 +13021,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13224,6 +13321,9 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>93021.308646804653</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>287610.60732700618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13245,11 +13345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532274176"/>
-        <c:axId val="532296448"/>
+        <c:axId val="526468608"/>
+        <c:axId val="526470144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532274176"/>
+        <c:axId val="526468608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13259,14 +13359,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="532296448"/>
+        <c:crossAx val="526470144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532296448"/>
+        <c:axId val="526470144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13277,7 +13377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="532274176"/>
+        <c:crossAx val="526468608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13319,7 +13419,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13357,7 +13457,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13398,7 +13498,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13436,7 +13536,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13479,7 +13579,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13517,7 +13617,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13795,7 +13895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13804,7 +13904,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB102"/>
+  <dimension ref="A1:AB103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17475,6 +17575,35 @@
         <v>87369.079319088545</v>
       </c>
     </row>
+    <row r="103" spans="1:9" ht="12.75">
+      <c r="A103" s="13">
+        <v>45898</v>
+      </c>
+      <c r="B103" s="18">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C103" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D103" s="15">
+        <v>715.30758128444859</v>
+      </c>
+      <c r="E103" s="15">
+        <v>170154.62521835815</v>
+      </c>
+      <c r="F103" s="15">
+        <v>475752.33275961777</v>
+      </c>
+      <c r="G103" s="15">
+        <v>202000</v>
+      </c>
+      <c r="H103" s="15">
+        <v>475752.33275961777</v>
+      </c>
+      <c r="I103" s="15">
+        <v>273752.33275961777</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17486,7 +17615,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22724,6 +22853,50 @@
         <v>74.316012831920972</v>
       </c>
     </row>
+    <row r="103" spans="1:14" ht="12.75">
+      <c r="A103" s="13">
+        <v>45898</v>
+      </c>
+      <c r="B103" s="18">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C103" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D103" s="15">
+        <v>715.30758128444859</v>
+      </c>
+      <c r="E103" s="15">
+        <v>178213.96607620033</v>
+      </c>
+      <c r="F103" s="15">
+        <v>498286.24982888845</v>
+      </c>
+      <c r="G103" s="15">
+        <v>209000</v>
+      </c>
+      <c r="H103" s="15">
+        <v>498286.24982888845</v>
+      </c>
+      <c r="I103" s="15">
+        <v>289286.24982888845</v>
+      </c>
+      <c r="J103" s="21">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="K103" s="21">
+        <v>0.23903238566083931</v>
+      </c>
+      <c r="L103" s="21">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="M103" s="23">
+        <v>0.25828225643135999</v>
+      </c>
+      <c r="N103" s="21">
+        <v>92.546963528779443</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22735,7 +22908,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH102"/>
+  <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22777,7 +22950,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -22798,28 +22971,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -22829,7 +23002,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -28760,6 +28933,59 @@
         <v>74.976992648986823</v>
       </c>
     </row>
+    <row r="103" spans="1:17" ht="12.75">
+      <c r="A103" s="13">
+        <v>45898</v>
+      </c>
+      <c r="B103" s="18">
+        <v>2.7960000038146973</v>
+      </c>
+      <c r="C103" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D103" s="15">
+        <v>715.30758128444859</v>
+      </c>
+      <c r="E103" s="15">
+        <v>177614.66618364092</v>
+      </c>
+      <c r="F103" s="15">
+        <v>496610.60732700618</v>
+      </c>
+      <c r="G103" s="15">
+        <v>209000</v>
+      </c>
+      <c r="H103" s="15">
+        <v>496610.60732700618</v>
+      </c>
+      <c r="I103" s="15">
+        <v>287610.60732700618</v>
+      </c>
+      <c r="J103" s="15">
+        <v>2.8289999961853027</v>
+      </c>
+      <c r="K103" s="15">
+        <v>1.6579999923706055</v>
+      </c>
+      <c r="L103" s="19">
+        <v>2.8289999961853027</v>
+      </c>
+      <c r="M103" s="19">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="N103" s="21">
+        <v>97.841727179608085</v>
+      </c>
+      <c r="O103" s="21">
+        <v>80.13779806379948</v>
+      </c>
+      <c r="P103" s="21">
+        <v>73.006101977499398</v>
+      </c>
+      <c r="Q103" s="21">
+        <v>94.401190236399628</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,14 +132,6 @@
   </si>
   <si>
     <t>RSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能产业LOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,6 +165,10 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -701,7 +709,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1004,6 +1012,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,7 +1024,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1316,6 +1327,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>202000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>204000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1358,7 +1372,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1661,6 +1675,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1670,7 +1687,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1973,6 +1990,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>475752.33275961777</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>410371.11675126915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,7 +2035,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2318,6 +2338,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,7 +2350,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2630,6 +2653,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>273752.33275961777</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>206371.11675126915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2651,11 +2677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428657664"/>
-        <c:axId val="428672128"/>
+        <c:axId val="555588992"/>
+        <c:axId val="562136192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428657664"/>
+        <c:axId val="555588992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,14 +2721,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428672128"/>
+        <c:crossAx val="562136192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428672128"/>
+        <c:axId val="562136192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2751,7 +2777,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428657664"/>
+        <c:crossAx val="555588992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2881,7 +2907,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3184,6 +3210,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3193,7 +3222,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3496,6 +3525,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>202000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>204000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3529,7 +3561,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3832,6 +3864,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3841,7 +3876,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4144,6 +4179,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>475752.33275961777</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>410371.11675126915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4177,7 +4215,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4480,6 +4518,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4489,7 +4530,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4792,6 +4833,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>273752.33275961777</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>206371.11675126915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4813,11 +4857,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470102400"/>
-        <c:axId val="470103936"/>
+        <c:axId val="639136512"/>
+        <c:axId val="655663104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470102400"/>
+        <c:axId val="639136512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4827,14 +4871,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="470103936"/>
+        <c:crossAx val="655663104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470103936"/>
+        <c:axId val="655663104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4845,7 +4889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="470102400"/>
+        <c:crossAx val="639136512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4967,7 +5011,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5270,6 +5314,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5279,7 +5326,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5582,6 +5629,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>209000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>211000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5624,7 +5674,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5927,6 +5977,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5936,7 +5989,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6239,6 +6292,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>498286.24982888845</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>429713.53557868901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6281,7 +6337,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6584,6 +6640,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6593,7 +6652,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6896,6 +6955,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>289286.24982888845</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>218713.53557868901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6917,11 +6979,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="473366528"/>
-        <c:axId val="473368064"/>
+        <c:axId val="653918976"/>
+        <c:axId val="653920512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="473366528"/>
+        <c:axId val="653918976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6961,14 +7023,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473368064"/>
+        <c:crossAx val="653920512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473368064"/>
+        <c:axId val="653920512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7017,7 +7079,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473366528"/>
+        <c:crossAx val="653918976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7147,7 +7209,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7450,6 +7512,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7459,7 +7524,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7762,6 +7827,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>209000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>211000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7795,7 +7863,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8098,6 +8166,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8107,7 +8178,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8410,6 +8481,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>498286.24982888845</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>429713.53557868901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8443,7 +8517,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8746,6 +8820,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8755,7 +8832,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9058,6 +9135,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>289286.24982888845</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>218713.53557868901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9079,11 +9159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="526033280"/>
-        <c:axId val="526034816"/>
+        <c:axId val="653935744"/>
+        <c:axId val="653937280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="526033280"/>
+        <c:axId val="653935744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9093,14 +9173,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526034816"/>
+        <c:crossAx val="653937280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="526034816"/>
+        <c:axId val="653937280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9111,7 +9191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526033280"/>
+        <c:crossAx val="653935744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9233,7 +9313,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9536,6 +9616,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9545,7 +9628,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9848,6 +9931,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>209000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>211000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9890,7 +9976,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10193,6 +10279,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10202,7 +10291,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10505,6 +10594,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>496610.60732700618</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>428275.21577939275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10547,7 +10639,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10850,6 +10942,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10859,7 +10954,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11162,6 +11257,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>287610.60732700618</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>217275.21577939275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11183,11 +11281,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="526357632"/>
-        <c:axId val="526359168"/>
+        <c:axId val="654247808"/>
+        <c:axId val="654249344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="526357632"/>
+        <c:axId val="654247808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11227,14 +11325,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526359168"/>
+        <c:crossAx val="654249344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="526359168"/>
+        <c:axId val="654249344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11283,7 +11381,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526357632"/>
+        <c:crossAx val="654247808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11413,7 +11511,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11716,6 +11814,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11725,7 +11826,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12028,6 +12129,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>209000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>211000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12061,7 +12165,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12364,6 +12468,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12373,7 +12480,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12676,6 +12783,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>496610.60732700618</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>428275.21577939275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12709,7 +12819,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13012,6 +13122,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13021,7 +13134,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="101"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13324,6 +13437,9 @@
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>287610.60732700618</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>217275.21577939275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13345,11 +13461,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="526468608"/>
-        <c:axId val="526470144"/>
+        <c:axId val="654280960"/>
+        <c:axId val="654286848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="526468608"/>
+        <c:axId val="654280960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13359,14 +13475,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526470144"/>
+        <c:crossAx val="654286848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="526470144"/>
+        <c:axId val="654286848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13377,7 +13493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526468608"/>
+        <c:crossAx val="654280960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13419,7 +13535,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13457,7 +13573,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13498,7 +13614,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13536,7 +13652,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13579,7 +13695,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13617,7 +13733,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13895,7 +14011,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13904,7 +14020,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB103"/>
+  <dimension ref="A1:AB104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17604,6 +17720,35 @@
         <v>273752.33275961777</v>
       </c>
     </row>
+    <row r="104" spans="1:9" ht="12.75">
+      <c r="A104" s="13">
+        <v>45930</v>
+      </c>
+      <c r="B104" s="18">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C104" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D104" s="15">
+        <v>833.33330021964309</v>
+      </c>
+      <c r="E104" s="15">
+        <v>170987.9585185778</v>
+      </c>
+      <c r="F104" s="15">
+        <v>410371.11675126915</v>
+      </c>
+      <c r="G104" s="15">
+        <v>204000</v>
+      </c>
+      <c r="H104" s="15">
+        <v>410371.11675126915</v>
+      </c>
+      <c r="I104" s="15">
+        <v>206371.11675126915</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17615,7 +17760,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17651,13 +17796,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -17678,19 +17823,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -22895,6 +23040,50 @@
       </c>
       <c r="N103" s="21">
         <v>92.546963528779443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="12.75">
+      <c r="A104" s="13">
+        <v>45930</v>
+      </c>
+      <c r="B104" s="18">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C104" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D104" s="15">
+        <v>833.33330021964309</v>
+      </c>
+      <c r="E104" s="15">
+        <v>179047.29937641998</v>
+      </c>
+      <c r="F104" s="15">
+        <v>429713.53557868901</v>
+      </c>
+      <c r="G104" s="15">
+        <v>211000</v>
+      </c>
+      <c r="H104" s="15">
+        <v>429713.53557868901</v>
+      </c>
+      <c r="I104" s="15">
+        <v>218713.53557868901</v>
+      </c>
+      <c r="J104" s="21">
+        <v>0</v>
+      </c>
+      <c r="K104" s="21">
+        <v>0.19919365471736608</v>
+      </c>
+      <c r="L104" s="21">
+        <v>0.39599990844726563</v>
+      </c>
+      <c r="M104" s="23">
+        <v>0.28123519843401096</v>
+      </c>
+      <c r="N104" s="21">
+        <v>70.828138094565318</v>
       </c>
     </row>
   </sheetData>
@@ -22908,7 +23097,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH103"/>
+  <dimension ref="A1:AH104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22944,10 +23133,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -22971,28 +23160,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -23002,7 +23191,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -28986,6 +29175,59 @@
         <v>94.401190236399628</v>
       </c>
     </row>
+    <row r="104" spans="1:17" ht="12.75">
+      <c r="A104" s="13">
+        <v>45930</v>
+      </c>
+      <c r="B104" s="18">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="C104" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D104" s="15">
+        <v>833.33330021964309</v>
+      </c>
+      <c r="E104" s="15">
+        <v>178447.99948386056</v>
+      </c>
+      <c r="F104" s="15">
+        <v>428275.21577939275</v>
+      </c>
+      <c r="G104" s="15">
+        <v>211000</v>
+      </c>
+      <c r="H104" s="15">
+        <v>428275.21577939275</v>
+      </c>
+      <c r="I104" s="15">
+        <v>217275.21577939275</v>
+      </c>
+      <c r="J104" s="15">
+        <v>2.5160000324249268</v>
+      </c>
+      <c r="K104" s="15">
+        <v>2.0439999103546143</v>
+      </c>
+      <c r="L104" s="19">
+        <v>2.8289999961853027</v>
+      </c>
+      <c r="M104" s="19">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="N104" s="21">
+        <v>71.942453334905125</v>
+      </c>
+      <c r="O104" s="21">
+        <v>77.406016487501361</v>
+      </c>
+      <c r="P104" s="21">
+        <v>74.472740147500062</v>
+      </c>
+      <c r="Q104" s="21">
+        <v>83.272569167503974</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>绝对收益率</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能产业LOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -165,10 +181,6 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -709,7 +721,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1015,6 +1027,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,7 +1039,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1330,6 +1345,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>204000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>206000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1372,7 +1390,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1678,6 +1696,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1687,7 +1708,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1993,6 +2014,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>410371.11675126915</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>401085.9140981122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,7 +2059,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2341,6 +2365,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2350,7 +2377,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2656,6 +2683,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>206371.11675126915</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>195085.9140981122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,11 +2707,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555588992"/>
-        <c:axId val="562136192"/>
+        <c:axId val="485058816"/>
+        <c:axId val="485060608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="555588992"/>
+        <c:axId val="485058816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2721,14 +2751,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562136192"/>
+        <c:crossAx val="485060608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562136192"/>
+        <c:axId val="485060608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2777,7 +2807,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555588992"/>
+        <c:crossAx val="485058816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2907,7 +2937,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3213,6 +3243,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3222,7 +3255,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3528,6 +3561,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>204000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>206000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3561,7 +3597,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3867,6 +3903,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3876,7 +3915,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4182,6 +4221,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>410371.11675126915</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>401085.9140981122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4215,7 +4257,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4521,6 +4563,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4530,7 +4575,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4836,6 +4881,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>206371.11675126915</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>195085.9140981122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4857,11 +4905,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="639136512"/>
-        <c:axId val="655663104"/>
+        <c:axId val="485096064"/>
+        <c:axId val="485114240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="639136512"/>
+        <c:axId val="485096064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4871,14 +4919,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="655663104"/>
+        <c:crossAx val="485114240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="655663104"/>
+        <c:axId val="485114240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4889,7 +4937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639136512"/>
+        <c:crossAx val="485096064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5011,7 +5059,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5317,6 +5365,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5326,7 +5377,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5632,6 +5683,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>211000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>213000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5674,7 +5728,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5980,6 +6034,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5989,7 +6046,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6295,6 +6352,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>429713.53557868901</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>419896.41655189026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6337,7 +6397,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6643,6 +6703,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6652,7 +6715,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6958,6 +7021,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>218713.53557868901</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>206896.41655189026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6979,11 +7045,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="653918976"/>
-        <c:axId val="653920512"/>
+        <c:axId val="485144064"/>
+        <c:axId val="485145984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="653918976"/>
+        <c:axId val="485144064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7023,14 +7089,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653920512"/>
+        <c:crossAx val="485145984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="653920512"/>
+        <c:axId val="485145984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7079,7 +7145,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="653918976"/>
+        <c:crossAx val="485144064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7209,7 +7275,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7515,6 +7581,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7524,7 +7593,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7830,6 +7899,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>211000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>213000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7863,7 +7935,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8169,6 +8241,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8178,7 +8253,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8484,6 +8559,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>429713.53557868901</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>419896.41655189026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8517,7 +8595,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8823,6 +8901,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8832,7 +8913,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9138,6 +9219,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>218713.53557868901</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>206896.41655189026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9159,11 +9243,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="653935744"/>
-        <c:axId val="653937280"/>
+        <c:axId val="543627136"/>
+        <c:axId val="543628672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="653935744"/>
+        <c:axId val="543627136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9173,14 +9257,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="653937280"/>
+        <c:crossAx val="543628672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="653937280"/>
+        <c:axId val="543628672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9191,7 +9275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="653935744"/>
+        <c:crossAx val="543627136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9313,7 +9397,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9619,6 +9703,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9628,7 +9715,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -9934,6 +10021,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>211000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>213000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9976,7 +10066,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10282,6 +10372,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10291,7 +10384,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10597,6 +10690,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>428275.21577939275</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>418497.65053635836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10639,7 +10735,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10945,6 +11041,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10954,7 +11053,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11260,6 +11359,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>217275.21577939275</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>205497.65053635836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11281,11 +11383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="654247808"/>
-        <c:axId val="654249344"/>
+        <c:axId val="543705728"/>
+        <c:axId val="543711616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="654247808"/>
+        <c:axId val="543705728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11325,14 +11427,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654249344"/>
+        <c:crossAx val="543711616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="654249344"/>
+        <c:axId val="543711616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11381,7 +11483,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654247808"/>
+        <c:crossAx val="543705728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11511,7 +11613,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11817,6 +11919,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11826,7 +11931,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12132,6 +12237,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>211000</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>213000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12165,7 +12273,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12471,6 +12579,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12480,7 +12591,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12786,6 +12897,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>428275.21577939275</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>418497.65053635836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12819,7 +12933,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13125,6 +13239,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13134,7 +13251,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13440,6 +13557,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>217275.21577939275</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>205497.65053635836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13461,11 +13581,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="654280960"/>
-        <c:axId val="654286848"/>
+        <c:axId val="543722496"/>
+        <c:axId val="543724288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="654280960"/>
+        <c:axId val="543722496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13475,14 +13595,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654286848"/>
+        <c:crossAx val="543724288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="654286848"/>
+        <c:axId val="543724288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13493,7 +13613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654280960"/>
+        <c:crossAx val="543722496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13535,7 +13655,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13573,7 +13693,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13614,7 +13734,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13652,7 +13772,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13695,7 +13815,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13733,7 +13853,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14011,7 +14131,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14020,7 +14140,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB104"/>
+  <dimension ref="A1:AB105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17749,6 +17869,35 @@
         <v>206371.11675126915</v>
       </c>
     </row>
+    <row r="105" spans="1:9" ht="12.75">
+      <c r="A105" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B105" s="18">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C105" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D105" s="15">
+        <v>856.89798851954322</v>
+      </c>
+      <c r="E105" s="15">
+        <v>171844.85650709734</v>
+      </c>
+      <c r="F105" s="15">
+        <v>401085.9140981122</v>
+      </c>
+      <c r="G105" s="15">
+        <v>206000</v>
+      </c>
+      <c r="H105" s="15">
+        <v>401085.9140981122</v>
+      </c>
+      <c r="I105" s="15">
+        <v>195085.9140981122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17760,7 +17909,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17845,7 +17994,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -17909,7 +18058,7 @@
         <v>13</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="X3" s="26" t="s">
         <v>15</v>
@@ -23084,6 +23233,50 @@
       </c>
       <c r="N104" s="21">
         <v>70.828138094565318</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="12.75">
+      <c r="A105" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B105" s="18">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C105" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D105" s="15">
+        <v>856.89798851954322</v>
+      </c>
+      <c r="E105" s="15">
+        <v>179904.19736493952</v>
+      </c>
+      <c r="F105" s="15">
+        <v>419896.41655189026</v>
+      </c>
+      <c r="G105" s="15">
+        <v>213000</v>
+      </c>
+      <c r="H105" s="15">
+        <v>419896.41655189026</v>
+      </c>
+      <c r="I105" s="15">
+        <v>206896.41655189026</v>
+      </c>
+      <c r="J105" s="21">
+        <v>0</v>
+      </c>
+      <c r="K105" s="21">
+        <v>0.16599471226447174</v>
+      </c>
+      <c r="L105" s="21">
+        <v>6.5999984741210938E-2</v>
+      </c>
+      <c r="M105" s="23">
+        <v>0.24536266281854427</v>
+      </c>
+      <c r="N105" s="21">
+        <v>67.652800290658575</v>
       </c>
     </row>
   </sheetData>
@@ -23097,7 +23290,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH104"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23133,13 +23326,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -23160,28 +23353,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -23191,7 +23384,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -23271,7 +23464,7 @@
         <v>13</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="X3" s="26" t="s">
         <v>15</v>
@@ -29226,6 +29419,59 @@
       </c>
       <c r="Q104" s="21">
         <v>83.272569167503974</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="12.75">
+      <c r="A105" s="13">
+        <v>45961</v>
+      </c>
+      <c r="B105" s="18">
+        <v>2.3340001106262207</v>
+      </c>
+      <c r="C105" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D105" s="15">
+        <v>856.89798851954322</v>
+      </c>
+      <c r="E105" s="15">
+        <v>179304.89747238011</v>
+      </c>
+      <c r="F105" s="15">
+        <v>418497.65053635836</v>
+      </c>
+      <c r="G105" s="15">
+        <v>213000</v>
+      </c>
+      <c r="H105" s="15">
+        <v>418497.65053635836</v>
+      </c>
+      <c r="I105" s="15">
+        <v>205497.65053635836</v>
+      </c>
+      <c r="J105" s="15">
+        <v>2.4849998950958252</v>
+      </c>
+      <c r="K105" s="15">
+        <v>2.1500000953674316</v>
+      </c>
+      <c r="L105" s="19">
+        <v>2.8289999961853027</v>
+      </c>
+      <c r="M105" s="19">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="N105" s="21">
+        <v>67.625907694121295</v>
+      </c>
+      <c r="O105" s="21">
+        <v>74.145980223041349</v>
+      </c>
+      <c r="P105" s="21">
+        <v>74.363820172680491</v>
+      </c>
+      <c r="Q105" s="21">
+        <v>73.71030032376305</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
+++ b/lai/valuationquan/AILOF/csiAILOFmodel1meancn.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对收益率</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>单位：元</t>
@@ -721,7 +717,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1030,6 +1026,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,7 +1038,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -1348,6 +1347,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>206000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>208000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1390,7 +1392,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -1699,6 +1701,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,7 +1713,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2017,6 +2022,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>401085.9140981122</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>388822.75954229012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2059,7 +2067,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -2368,6 +2376,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2377,7 +2388,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2686,6 +2697,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>195085.9140981122</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>180822.75954229012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,11 +2721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485058816"/>
-        <c:axId val="485060608"/>
+        <c:axId val="432435200"/>
+        <c:axId val="432437120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485058816"/>
+        <c:axId val="432435200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2751,14 +2765,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485060608"/>
+        <c:crossAx val="432437120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485060608"/>
+        <c:axId val="432437120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2807,7 +2821,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485058816"/>
+        <c:crossAx val="432435200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2937,7 +2951,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3246,6 +3260,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3255,7 +3272,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3564,6 +3581,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>206000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>208000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3597,7 +3617,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -3906,6 +3926,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3915,7 +3938,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4224,6 +4247,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>401085.9140981122</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>388822.75954229012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4257,7 +4283,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -4566,6 +4592,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4575,7 +4604,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4884,6 +4913,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>195085.9140981122</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>180822.75954229012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4905,11 +4937,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485096064"/>
-        <c:axId val="485114240"/>
+        <c:axId val="505470976"/>
+        <c:axId val="505473280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485096064"/>
+        <c:axId val="505470976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4919,14 +4951,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485114240"/>
+        <c:crossAx val="505473280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485114240"/>
+        <c:axId val="505473280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4937,7 +4969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485096064"/>
+        <c:crossAx val="505470976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5059,7 +5091,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -5368,6 +5400,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5377,7 +5412,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5686,6 +5721,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>213000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>215000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5728,7 +5766,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6037,6 +6075,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6046,7 +6087,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6355,6 +6396,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>419896.41655189026</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>406964.33522915788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6397,7 +6441,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -6706,6 +6750,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6715,7 +6762,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7024,6 +7071,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>206896.41655189026</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>191964.33522915788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7045,11 +7095,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485144064"/>
-        <c:axId val="485145984"/>
+        <c:axId val="507685504"/>
+        <c:axId val="569890304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485144064"/>
+        <c:axId val="507685504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7089,14 +7139,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485145984"/>
+        <c:crossAx val="569890304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485145984"/>
+        <c:axId val="569890304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7145,7 +7195,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485144064"/>
+        <c:crossAx val="507685504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7275,7 +7325,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -7584,6 +7634,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7593,7 +7646,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7902,6 +7955,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>213000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>215000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7935,7 +7991,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8244,6 +8300,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8253,7 +8312,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8562,6 +8621,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>419896.41655189026</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>406964.33522915788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8595,7 +8657,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -8904,6 +8966,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8913,7 +8978,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9222,6 +9287,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>206896.41655189026</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>191964.33522915788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9243,11 +9311,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543627136"/>
-        <c:axId val="543628672"/>
+        <c:axId val="600797952"/>
+        <c:axId val="600799488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543627136"/>
+        <c:axId val="600797952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9257,14 +9325,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543628672"/>
+        <c:crossAx val="600799488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543628672"/>
+        <c:axId val="600799488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9275,7 +9343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543627136"/>
+        <c:crossAx val="600797952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9397,7 +9465,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -9706,6 +9774,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9715,7 +9786,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10024,6 +10095,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>213000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>215000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10066,7 +10140,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -10375,6 +10449,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10384,7 +10461,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -10693,6 +10770,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>418497.65053635836</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>405615.31121444347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10735,7 +10815,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11044,6 +11124,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11053,7 +11136,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11362,6 +11445,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>205497.65053635836</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>190615.31121444347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11383,11 +11469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543705728"/>
-        <c:axId val="543711616"/>
+        <c:axId val="601261568"/>
+        <c:axId val="601263104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543705728"/>
+        <c:axId val="601261568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11427,14 +11513,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543711616"/>
+        <c:crossAx val="601263104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543711616"/>
+        <c:axId val="601263104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11483,7 +11569,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543705728"/>
+        <c:crossAx val="601261568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11613,7 +11699,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -11922,6 +12008,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11931,7 +12020,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12240,6 +12329,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>213000</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>215000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12273,7 +12365,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -12582,6 +12674,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12591,7 +12686,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -12900,6 +12995,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>418497.65053635836</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>405615.31121444347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12933,7 +13031,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>42853</c:v>
                 </c:pt>
@@ -13242,6 +13340,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13251,7 +13352,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="104"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13560,6 +13661,9 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>205497.65053635836</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>190615.31121444347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13581,11 +13685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543722496"/>
-        <c:axId val="543724288"/>
+        <c:axId val="601278336"/>
+        <c:axId val="601279872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543722496"/>
+        <c:axId val="601278336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13595,14 +13699,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543724288"/>
+        <c:crossAx val="601279872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543724288"/>
+        <c:axId val="601279872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13613,7 +13717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543722496"/>
+        <c:crossAx val="601278336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13655,7 +13759,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13693,7 +13797,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13734,7 +13838,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13772,7 +13876,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13815,7 +13919,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13853,7 +13957,7 @@
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14131,7 +14235,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14140,7 +14244,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB105"/>
+  <dimension ref="A1:AB106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17898,6 +18002,35 @@
         <v>195085.9140981122</v>
       </c>
     </row>
+    <row r="106" spans="1:9" ht="12.75">
+      <c r="A106" s="13">
+        <v>45989</v>
+      </c>
+      <c r="B106" s="18">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C106" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D106" s="15">
+        <v>888.4940312738247</v>
+      </c>
+      <c r="E106" s="15">
+        <v>172733.35053837116</v>
+      </c>
+      <c r="F106" s="15">
+        <v>388822.75954229012</v>
+      </c>
+      <c r="G106" s="15">
+        <v>208000</v>
+      </c>
+      <c r="H106" s="15">
+        <v>388822.75954229012</v>
+      </c>
+      <c r="I106" s="15">
+        <v>180822.75954229012</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17909,7 +18042,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17994,7 +18127,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -18058,7 +18191,7 @@
         <v>13</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="X3" s="26" t="s">
         <v>15</v>
@@ -23277,6 +23410,50 @@
       </c>
       <c r="N105" s="21">
         <v>67.652800290658575</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="12.75">
+      <c r="A106" s="13">
+        <v>45989</v>
+      </c>
+      <c r="B106" s="18">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C106" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D106" s="15">
+        <v>888.4940312738247</v>
+      </c>
+      <c r="E106" s="15">
+        <v>180792.69139621334</v>
+      </c>
+      <c r="F106" s="15">
+        <v>406964.33522915788</v>
+      </c>
+      <c r="G106" s="15">
+        <v>215000</v>
+      </c>
+      <c r="H106" s="15">
+        <v>406964.33522915788</v>
+      </c>
+      <c r="I106" s="15">
+        <v>191964.33522915788</v>
+      </c>
+      <c r="J106" s="21">
+        <v>0</v>
+      </c>
+      <c r="K106" s="21">
+        <v>0.13832892688705978</v>
+      </c>
+      <c r="L106" s="21">
+        <v>8.300018310546875E-2</v>
+      </c>
+      <c r="M106" s="23">
+        <v>0.21830224953303168</v>
+      </c>
+      <c r="N106" s="21">
+        <v>63.365781700810651</v>
       </c>
     </row>
   </sheetData>
@@ -23290,7 +23467,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AH105"/>
+  <dimension ref="A1:AH106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23329,10 +23506,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
@@ -23353,28 +23530,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -23384,7 +23561,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -23464,7 +23641,7 @@
         <v>13</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="X3" s="26" t="s">
         <v>15</v>
@@ -29472,6 +29649,59 @@
       </c>
       <c r="Q105" s="21">
         <v>73.71030032376305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="12.75">
+      <c r="A106" s="13">
+        <v>45989</v>
+      </c>
+      <c r="B106" s="18">
+        <v>2.250999927520752</v>
+      </c>
+      <c r="C106" s="22">
+        <v>2000</v>
+      </c>
+      <c r="D106" s="15">
+        <v>888.4940312738247</v>
+      </c>
+      <c r="E106" s="15">
+        <v>180193.39150365393</v>
+      </c>
+      <c r="F106" s="15">
+        <v>405615.31121444347</v>
+      </c>
+      <c r="G106" s="15">
+        <v>215000</v>
+      </c>
+      <c r="H106" s="15">
+        <v>405615.31121444347</v>
+      </c>
+      <c r="I106" s="15">
+        <v>190615.31121444347</v>
+      </c>
+      <c r="J106" s="15">
+        <v>2.378000020980835</v>
+      </c>
+      <c r="K106" s="15">
+        <v>2.1180000305175781</v>
+      </c>
+      <c r="L106" s="19">
+        <v>2.8289999961853027</v>
+      </c>
+      <c r="M106" s="19">
+        <v>1.2999999523162842</v>
+      </c>
+      <c r="N106" s="21">
+        <v>62.197511309289077</v>
+      </c>
+      <c r="O106" s="21">
+        <v>70.163157251790594</v>
+      </c>
+      <c r="P106" s="21">
+        <v>72.96359919905052</v>
+      </c>
+      <c r="Q106" s="21">
+        <v>64.562273357270726</v>
       </c>
     </row>
   </sheetData>
